--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Documents/Projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B77BD6-6F52-6B47-A85A-BBFECC1D4045}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0F511-0F24-6745-8021-596802B9CC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37600" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,8 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1658">
   <si>
     <t>observation_id</t>
   </si>
@@ -5032,6 +5027,24 @@
   </si>
   <si>
     <t>There is some indication from Figs 3c and 3d that female GSI and MOD peak between February and April and again in September, which suggests that ovulation is around these times;</t>
+  </si>
+  <si>
+    <t>birth occurs at about 30 cm (the largest embryo recorded was 34 cm and the smallest free-swimming individual was 27 cm)</t>
+  </si>
+  <si>
+    <t>Two likely parturition periods</t>
+  </si>
+  <si>
+    <t>taylor2016</t>
+  </si>
+  <si>
+    <t>10.1111/jfb.13126</t>
+  </si>
+  <si>
+    <t>Eastern Australia</t>
+  </si>
+  <si>
+    <t>2004 - 2007</t>
   </si>
 </sst>
 </file>
@@ -6110,10 +6123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE114"/>
+  <dimension ref="A1:AE120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12814,7 +12828,7 @@
         <v>80</v>
       </c>
       <c r="X109">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z109">
         <v>0</v>
@@ -13040,6 +13054,9 @@
       <c r="Z113">
         <v>0</v>
       </c>
+      <c r="AC113" t="s">
+        <v>1651</v>
+      </c>
       <c r="AD113" t="s">
         <v>1633</v>
       </c>
@@ -13097,6 +13114,375 @@
         <v>1651</v>
       </c>
       <c r="AD114" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>7</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H115" t="s">
+        <v>686</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J115" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1646</v>
+      </c>
+      <c r="N115" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O115" t="s">
+        <v>29</v>
+      </c>
+      <c r="P115" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>87</v>
+      </c>
+      <c r="R115" t="s">
+        <v>101</v>
+      </c>
+      <c r="T115" t="s">
+        <v>1606</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AD115" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>7</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H116" t="s">
+        <v>686</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1646</v>
+      </c>
+      <c r="N116" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O116" t="s">
+        <v>29</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1582</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>87</v>
+      </c>
+      <c r="R116" t="s">
+        <v>101</v>
+      </c>
+      <c r="T116" t="s">
+        <v>1630</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>1653</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>7</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1645</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H117" t="s">
+        <v>686</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M117" t="s">
+        <v>1646</v>
+      </c>
+      <c r="N117" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O117" t="s">
+        <v>27</v>
+      </c>
+      <c r="P117" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R117" t="s">
+        <v>96</v>
+      </c>
+      <c r="T117">
+        <v>30</v>
+      </c>
+      <c r="U117" t="s">
+        <v>1631</v>
+      </c>
+      <c r="V117">
+        <v>27</v>
+      </c>
+      <c r="W117" t="s">
+        <v>80</v>
+      </c>
+      <c r="X117">
+        <v>34</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>1652</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>8</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H118" t="s">
+        <v>686</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N118" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O118" t="s">
+        <v>27</v>
+      </c>
+      <c r="P118" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R118" t="s">
+        <v>92</v>
+      </c>
+      <c r="T118">
+        <v>1130</v>
+      </c>
+      <c r="U118" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y118">
+        <v>139</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H119" t="s">
+        <v>686</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M119" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N119" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O119" t="s">
+        <v>27</v>
+      </c>
+      <c r="P119" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R119" t="s">
+        <v>92</v>
+      </c>
+      <c r="T119">
+        <v>1072</v>
+      </c>
+      <c r="U119" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y119">
+        <v>108</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>8</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H120" t="s">
+        <v>686</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M120" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N120" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O120" t="s">
+        <v>27</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R120" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S120" t="s">
+        <v>107</v>
+      </c>
+      <c r="T120">
+        <v>75.94</v>
+      </c>
+      <c r="U120" t="s">
+        <v>78</v>
+      </c>
+      <c r="V120">
+        <v>74.33</v>
+      </c>
+      <c r="W120" t="s">
+        <v>1591</v>
+      </c>
+      <c r="X120">
+        <v>85.88</v>
+      </c>
+      <c r="Y120">
+        <v>93</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -13111,7 +13497,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U40 U42 U44:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I95:I99 I115:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I95:I99 I121:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$29:$J$85</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -13151,11 +13537,11 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I100:I114 I40:I91</xm:sqref>
+          <xm:sqref>I40:I91 I100:I120</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>
-            <xm:f>'[SharkTraits-Template.xlsx]Values'!#REF!</xm:f>
+            <xm:f>'/Users/avh/Google Drive/projects/shark-traits/[SharkTraits-Template.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I92:I94</xm:sqref>
         </x14:dataValidation>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0F511-0F24-6745-8021-596802B9CC41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D982F057-6A81-BA47-B1A9-55586E12B7B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="37600" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="1658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3521" uniqueCount="1658">
   <si>
     <t>observation_id</t>
   </si>
@@ -6123,11 +6123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE120"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A121" sqref="A121"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12810,7 +12810,7 @@
         <v>47</v>
       </c>
       <c r="Q109" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="R109" t="s">
         <v>101</v>
@@ -13468,13 +13468,13 @@
         <v>78</v>
       </c>
       <c r="V120">
-        <v>74.33</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="W120" t="s">
         <v>1591</v>
       </c>
       <c r="X120">
-        <v>85.88</v>
+        <v>79</v>
       </c>
       <c r="Y120">
         <v>93</v>
@@ -13483,6 +13483,752 @@
         <v>0</v>
       </c>
       <c r="AD120" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>8</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H121" t="s">
+        <v>686</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M121" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O121" t="s">
+        <v>27</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1574</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R121" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S121" t="s">
+        <v>107</v>
+      </c>
+      <c r="T121">
+        <v>75.63</v>
+      </c>
+      <c r="U121" t="s">
+        <v>78</v>
+      </c>
+      <c r="V121">
+        <v>73.94</v>
+      </c>
+      <c r="W121" t="s">
+        <v>1591</v>
+      </c>
+      <c r="X121">
+        <v>78.040000000000006</v>
+      </c>
+      <c r="Y121">
+        <v>83</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>8</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H122" t="s">
+        <v>686</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M122" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O122" t="s">
+        <v>29</v>
+      </c>
+      <c r="P122" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>88</v>
+      </c>
+      <c r="R122" t="s">
+        <v>101</v>
+      </c>
+      <c r="T122">
+        <v>8.1</v>
+      </c>
+      <c r="U122" t="s">
+        <v>78</v>
+      </c>
+      <c r="V122">
+        <v>2.6</v>
+      </c>
+      <c r="W122" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y122">
+        <v>17</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>8</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H123" t="s">
+        <v>686</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M123" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N123" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O123" t="s">
+        <v>29</v>
+      </c>
+      <c r="P123" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>88</v>
+      </c>
+      <c r="R123" t="s">
+        <v>101</v>
+      </c>
+      <c r="T123">
+        <v>4</v>
+      </c>
+      <c r="U123" t="s">
+        <v>76</v>
+      </c>
+      <c r="W123" t="s">
+        <v>80</v>
+      </c>
+      <c r="X123">
+        <v>12</v>
+      </c>
+      <c r="Y123">
+        <v>17</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>8</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H124" t="s">
+        <v>686</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N124" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O124" t="s">
+        <v>29</v>
+      </c>
+      <c r="P124" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>81</v>
+      </c>
+      <c r="R124" t="s">
+        <v>101</v>
+      </c>
+      <c r="T124">
+        <v>1</v>
+      </c>
+      <c r="Y124">
+        <v>25</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>8</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H125" t="s">
+        <v>686</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M125" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N125" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O125" t="s">
+        <v>29</v>
+      </c>
+      <c r="P125" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>84</v>
+      </c>
+      <c r="R125" t="s">
+        <v>101</v>
+      </c>
+      <c r="T125">
+        <v>10</v>
+      </c>
+      <c r="U125" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y125">
+        <v>25</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H126" t="s">
+        <v>686</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N126" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O126" t="s">
+        <v>139</v>
+      </c>
+      <c r="P126" t="s">
+        <v>134</v>
+      </c>
+      <c r="S126" t="s">
+        <v>1577</v>
+      </c>
+      <c r="T126">
+        <v>2.59</v>
+      </c>
+      <c r="Y126">
+        <v>226</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>8</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H127" t="s">
+        <v>686</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M127" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N127" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O127" t="s">
+        <v>139</v>
+      </c>
+      <c r="P127" t="s">
+        <v>135</v>
+      </c>
+      <c r="S127" t="s">
+        <v>1577</v>
+      </c>
+      <c r="T127">
+        <v>1.1319999999999999</v>
+      </c>
+      <c r="Y127">
+        <v>226</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>8</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H128" t="s">
+        <v>686</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N128" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O128" t="s">
+        <v>139</v>
+      </c>
+      <c r="P128" t="s">
+        <v>134</v>
+      </c>
+      <c r="S128" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T128" s="16">
+        <v>3.5199999999999998E-9</v>
+      </c>
+      <c r="Y128">
+        <v>169</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H129" t="s">
+        <v>686</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N129" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O129" t="s">
+        <v>139</v>
+      </c>
+      <c r="P129" t="s">
+        <v>135</v>
+      </c>
+      <c r="S129" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T129">
+        <v>3.008</v>
+      </c>
+      <c r="Y129">
+        <v>169</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H130" t="s">
+        <v>686</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N130" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O130" t="s">
+        <v>139</v>
+      </c>
+      <c r="P130" t="s">
+        <v>134</v>
+      </c>
+      <c r="S130" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T130" s="16">
+        <v>1.51E-9</v>
+      </c>
+      <c r="Y130">
+        <v>89</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H131" t="s">
+        <v>686</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N131" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O131" t="s">
+        <v>139</v>
+      </c>
+      <c r="P131" t="s">
+        <v>135</v>
+      </c>
+      <c r="S131" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T131">
+        <v>3.14</v>
+      </c>
+      <c r="Y131">
+        <v>89</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>8</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H132" t="s">
+        <v>686</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M132" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N132" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O132" t="s">
+        <v>139</v>
+      </c>
+      <c r="P132" t="s">
+        <v>134</v>
+      </c>
+      <c r="S132" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T132" s="16">
+        <v>1.014E-8</v>
+      </c>
+      <c r="Y132">
+        <v>80</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>8</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H133" t="s">
+        <v>686</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1656</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1657</v>
+      </c>
+      <c r="N133" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O133" t="s">
+        <v>139</v>
+      </c>
+      <c r="P133" t="s">
+        <v>135</v>
+      </c>
+      <c r="S133" t="s">
+        <v>1578</v>
+      </c>
+      <c r="T133">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="Y133">
+        <v>80</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="s">
         <v>1633</v>
       </c>
     </row>
@@ -13497,7 +14243,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U40 U42 U44:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I95:I99 I121:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I95:I99 I134:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$29:$J$85</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -13537,7 +14283,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I40:I91 I100:I120</xm:sqref>
+          <xm:sqref>I40:I91 I100:I133</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Documents/Projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C8FE06-63DA-D241-9A50-1FF0FD13C359}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129810F-ADA4-3044-8983-94D71F57F8FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37600" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,13 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3235" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1648">
   <si>
     <t>observation_id</t>
   </si>
@@ -5012,6 +5017,9 @@
   </si>
   <si>
     <t>The largest embryos averaged 52 cm and the smallest free-swimming specimen was 53 cm; size at birth is probably about 52 cm TL</t>
+  </si>
+  <si>
+    <t>2007-2010</t>
   </si>
 </sst>
 </file>
@@ -5186,7 +5194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5205,6 +5213,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5635,12 +5644,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Data Entry"/>
       <sheetName val="Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6082,11 +6089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE115"/>
+  <dimension ref="A1:AE118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S119" sqref="S119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12987,6 +12994,87 @@
         <v>1616</v>
       </c>
     </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>10</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H116" t="s">
+        <v>688</v>
+      </c>
+      <c r="I116" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J116" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1647</v>
+      </c>
+      <c r="N116" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O116" t="s">
+        <v>30</v>
+      </c>
+      <c r="P116" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R116" t="s">
+        <v>124</v>
+      </c>
+      <c r="S116" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O117" t="s">
+        <v>30</v>
+      </c>
+      <c r="P117" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R117" t="s">
+        <v>124</v>
+      </c>
+      <c r="S117" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O118" t="s">
+        <v>30</v>
+      </c>
+      <c r="P118" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>81</v>
+      </c>
+      <c r="R118" t="s">
+        <v>124</v>
+      </c>
+      <c r="S118" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R18 R20:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
@@ -12998,7 +13086,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U6:U1048576 U2" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I116:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I117:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -13032,7 +13120,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I62:I115</xm:sqref>
+          <xm:sqref>I2:I53 I62:I116</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Documents/Projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C129810F-ADA4-3044-8983-94D71F57F8FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE0A6B-7F5F-4A4F-AF99-7458FA5D103F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3258" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1647">
   <si>
     <t>observation_id</t>
   </si>
@@ -5017,9 +5017,6 @@
   </si>
   <si>
     <t>The largest embryos averaged 52 cm and the smallest free-swimming specimen was 53 cm; size at birth is probably about 52 cm TL</t>
-  </si>
-  <si>
-    <t>2007-2010</t>
   </si>
 </sst>
 </file>
@@ -6089,11 +6086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE118"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S119" sqref="S119"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13020,7 +13017,7 @@
         <v>1600</v>
       </c>
       <c r="M116" t="s">
-        <v>1647</v>
+        <v>1601</v>
       </c>
       <c r="N116" t="s">
         <v>1440</v>
@@ -13040,16 +13037,31 @@
       <c r="S116" t="s">
         <v>112</v>
       </c>
+      <c r="T116">
+        <v>177.6</v>
+      </c>
+      <c r="V116">
+        <v>7.5</v>
+      </c>
+      <c r="W116" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M117" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N117" t="s">
+        <v>1440</v>
+      </c>
       <c r="O117" t="s">
         <v>30</v>
       </c>
       <c r="P117" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q117" t="s">
-        <v>1429</v>
+        <v>1565</v>
       </c>
       <c r="R117" t="s">
         <v>124</v>
@@ -13057,22 +13069,256 @@
       <c r="S117" t="s">
         <v>112</v>
       </c>
+      <c r="T117">
+        <v>0.313</v>
+      </c>
+      <c r="V117">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W117" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M118" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N118" t="s">
+        <v>1440</v>
+      </c>
       <c r="O118" t="s">
         <v>30</v>
       </c>
       <c r="P118" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q118" t="s">
-        <v>81</v>
+        <v>1429</v>
       </c>
       <c r="R118" t="s">
         <v>124</v>
       </c>
       <c r="S118" t="s">
         <v>112</v>
+      </c>
+      <c r="T118">
+        <v>53.8</v>
+      </c>
+      <c r="V118">
+        <v>15.9</v>
+      </c>
+      <c r="W118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M119" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N119" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O119" t="s">
+        <v>30</v>
+      </c>
+      <c r="P119" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R119" t="s">
+        <v>124</v>
+      </c>
+      <c r="S119" t="s">
+        <v>112</v>
+      </c>
+      <c r="T119">
+        <v>10.675000000000001</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M120" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N120" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O120" t="s">
+        <v>30</v>
+      </c>
+      <c r="P120" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R120" t="s">
+        <v>124</v>
+      </c>
+      <c r="S120" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M121" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N121" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O121" t="s">
+        <v>30</v>
+      </c>
+      <c r="P121" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R121" t="s">
+        <v>124</v>
+      </c>
+      <c r="S121" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M122" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N122" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O122" t="s">
+        <v>30</v>
+      </c>
+      <c r="P122" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R122" t="s">
+        <v>124</v>
+      </c>
+      <c r="S122" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M123" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N123" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O123" t="s">
+        <v>30</v>
+      </c>
+      <c r="P123" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R123" t="s">
+        <v>124</v>
+      </c>
+      <c r="S123" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M124" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N124" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O124" t="s">
+        <v>30</v>
+      </c>
+      <c r="P124" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R124" t="s">
+        <v>124</v>
+      </c>
+      <c r="S124" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M125" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N125" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O125" t="s">
+        <v>30</v>
+      </c>
+      <c r="P125" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R125" t="s">
+        <v>124</v>
+      </c>
+      <c r="S125" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M126" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N126" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O126" t="s">
+        <v>30</v>
+      </c>
+      <c r="P126" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R126" t="s">
+        <v>124</v>
+      </c>
+      <c r="S126" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="M127" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N127" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O127" t="s">
+        <v>30</v>
+      </c>
+      <c r="P127" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R127" t="s">
+        <v>124</v>
+      </c>
+      <c r="S127" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Documents/Projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE0A6B-7F5F-4A4F-AF99-7458FA5D103F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F64C22-08DD-4241-A6AC-6695939A34EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38440" yWindow="460" windowWidth="38060" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,13 +38,8 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3328" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="1648">
   <si>
     <t>observation_id</t>
   </si>
@@ -5017,6 +5012,9 @@
   </si>
   <si>
     <t>The largest embryos averaged 52 cm and the smallest free-swimming specimen was 53 cm; size at birth is probably about 52 cm TL</t>
+  </si>
+  <si>
+    <t>Small sample size; Logistic growth model</t>
   </si>
 </sst>
 </file>
@@ -5641,10 +5639,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Data Entry"/>
       <sheetName val="Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6086,11 +6086,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13046,8 +13046,47 @@
       <c r="W116" t="s">
         <v>122</v>
       </c>
+      <c r="Y116">
+        <v>14</v>
+      </c>
+      <c r="Z116">
+        <v>1</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD116" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>10</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H117" t="s">
+        <v>688</v>
+      </c>
+      <c r="I117" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J117" t="s">
+        <v>1600</v>
+      </c>
       <c r="M117" t="s">
         <v>1601</v>
       </c>
@@ -13078,8 +13117,47 @@
       <c r="W117" t="s">
         <v>122</v>
       </c>
+      <c r="Y117">
+        <v>14</v>
+      </c>
+      <c r="Z117">
+        <v>1</v>
+      </c>
+      <c r="AA117">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD117" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>10</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H118" t="s">
+        <v>688</v>
+      </c>
+      <c r="I118" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J118" t="s">
+        <v>1600</v>
+      </c>
       <c r="M118" t="s">
         <v>1601</v>
       </c>
@@ -13110,8 +13188,47 @@
       <c r="W118" t="s">
         <v>122</v>
       </c>
+      <c r="Y118">
+        <v>14</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>10</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H119" t="s">
+        <v>688</v>
+      </c>
+      <c r="I119" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J119" t="s">
+        <v>1600</v>
+      </c>
       <c r="M119" t="s">
         <v>1601</v>
       </c>
@@ -13136,8 +13253,47 @@
       <c r="T119">
         <v>10.675000000000001</v>
       </c>
+      <c r="Y119">
+        <v>14</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD119" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>10</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H120" t="s">
+        <v>688</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J120" t="s">
+        <v>1600</v>
+      </c>
       <c r="M120" t="s">
         <v>1601</v>
       </c>
@@ -13159,8 +13315,56 @@
       <c r="S120" t="s">
         <v>115</v>
       </c>
+      <c r="T120">
+        <v>175.4</v>
+      </c>
+      <c r="V120">
+        <v>6.6</v>
+      </c>
+      <c r="W120" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y120">
+        <v>14</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H121" t="s">
+        <v>688</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1600</v>
+      </c>
       <c r="M121" t="s">
         <v>1601</v>
       </c>
@@ -13182,8 +13386,56 @@
       <c r="S121" t="s">
         <v>115</v>
       </c>
+      <c r="T121">
+        <v>0.4</v>
+      </c>
+      <c r="V121">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="W121" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y121">
+        <v>14</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD121" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>10</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H122" t="s">
+        <v>688</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1600</v>
+      </c>
       <c r="M122" t="s">
         <v>1601</v>
       </c>
@@ -13205,8 +13457,56 @@
       <c r="S122" t="s">
         <v>115</v>
       </c>
+      <c r="T122">
+        <v>62.5</v>
+      </c>
+      <c r="V122">
+        <v>11.8</v>
+      </c>
+      <c r="W122" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y122">
+        <v>14</v>
+      </c>
+      <c r="Z122">
+        <v>1</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>10</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H123" t="s">
+        <v>688</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J123" t="s">
+        <v>1600</v>
+      </c>
       <c r="M123" t="s">
         <v>1601</v>
       </c>
@@ -13228,8 +13528,50 @@
       <c r="S123" t="s">
         <v>115</v>
       </c>
+      <c r="T123">
+        <v>10.753</v>
+      </c>
+      <c r="Y123">
+        <v>14</v>
+      </c>
+      <c r="Z123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>1623</v>
+      </c>
+      <c r="AD123" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>10</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H124" t="s">
+        <v>688</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J124" t="s">
+        <v>1600</v>
+      </c>
       <c r="M124" t="s">
         <v>1601</v>
       </c>
@@ -13251,8 +13593,56 @@
       <c r="S124" t="s">
         <v>119</v>
       </c>
+      <c r="T124">
+        <v>173.9</v>
+      </c>
+      <c r="V124">
+        <v>6</v>
+      </c>
+      <c r="W124" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y124">
+        <v>14</v>
+      </c>
+      <c r="Z124">
+        <v>1</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AD124" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>10</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H125" t="s">
+        <v>688</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1600</v>
+      </c>
       <c r="M125" t="s">
         <v>1601</v>
       </c>
@@ -13274,8 +13664,56 @@
       <c r="S125" t="s">
         <v>119</v>
       </c>
+      <c r="T125">
+        <v>67.5</v>
+      </c>
+      <c r="V125">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W125" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y125">
+        <v>14</v>
+      </c>
+      <c r="Z125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AD125" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>10</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H126" t="s">
+        <v>688</v>
+      </c>
+      <c r="I126" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J126" t="s">
+        <v>1600</v>
+      </c>
       <c r="M126" t="s">
         <v>1601</v>
       </c>
@@ -13297,8 +13735,56 @@
       <c r="S126" t="s">
         <v>119</v>
       </c>
+      <c r="T126">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="V126">
+        <v>0.109</v>
+      </c>
+      <c r="W126" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y126">
+        <v>14</v>
+      </c>
+      <c r="Z126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>10</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H127" t="s">
+        <v>688</v>
+      </c>
+      <c r="I127" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J127" t="s">
+        <v>1600</v>
+      </c>
       <c r="M127" t="s">
         <v>1601</v>
       </c>
@@ -13319,6 +13805,142 @@
       </c>
       <c r="S127" t="s">
         <v>119</v>
+      </c>
+      <c r="T127">
+        <v>10.86</v>
+      </c>
+      <c r="Y127">
+        <v>14</v>
+      </c>
+      <c r="Z127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>1647</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>10</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H128" t="s">
+        <v>688</v>
+      </c>
+      <c r="I128" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J128" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N128" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O128" t="s">
+        <v>27</v>
+      </c>
+      <c r="P128" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R128" t="s">
+        <v>92</v>
+      </c>
+      <c r="T128">
+        <v>200.3</v>
+      </c>
+      <c r="U128" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y128">
+        <v>21</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AD128" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>10</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H129" t="s">
+        <v>688</v>
+      </c>
+      <c r="I129" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J129" t="s">
+        <v>1600</v>
+      </c>
+      <c r="M129" t="s">
+        <v>1601</v>
+      </c>
+      <c r="N129" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O129" t="s">
+        <v>27</v>
+      </c>
+      <c r="P129" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R129" t="s">
+        <v>92</v>
+      </c>
+      <c r="T129">
+        <v>169</v>
+      </c>
+      <c r="U129" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y129">
+        <v>21</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AD129" t="s">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -13329,10 +13951,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S15 S19:S1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>cleaned.model.name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U6:U1048576 U2" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I117:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -13366,7 +13988,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I62:I116</xm:sqref>
+          <xm:sqref>I2:I53 I62:I129</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F64C22-08DD-4241-A6AC-6695939A34EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425CC2A1-EAF5-4A47-9C49-EAF15D01498B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38440" yWindow="460" windowWidth="38060" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3452" uniqueCount="1648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="1652">
   <si>
     <t>observation_id</t>
   </si>
@@ -5015,6 +5015,18 @@
   </si>
   <si>
     <t>Small sample size; Logistic growth model</t>
+  </si>
+  <si>
+    <t>capape2005a</t>
+  </si>
+  <si>
+    <t>Senegal Coast</t>
+  </si>
+  <si>
+    <t>1994 - 2002</t>
+  </si>
+  <si>
+    <t>20-100</t>
   </si>
 </sst>
 </file>
@@ -5065,12 +5077,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6086,11 +6100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE153" sqref="AE153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12828,7 +12842,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>9</v>
       </c>
@@ -12885,7 +12899,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>9</v>
       </c>
@@ -12938,7 +12952,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>9</v>
       </c>
@@ -12991,7 +13005,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>10</v>
       </c>
@@ -13062,7 +13076,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>10</v>
       </c>
@@ -13133,7 +13147,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -13204,7 +13218,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -13269,7 +13283,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -13340,7 +13354,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -13411,7 +13425,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -13482,7 +13496,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10</v>
       </c>
@@ -13547,7 +13561,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -13618,7 +13632,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -13689,7 +13703,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -13760,7 +13774,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10</v>
       </c>
@@ -13825,7 +13839,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10</v>
       </c>
@@ -13883,8 +13897,11 @@
       <c r="AD128" t="s">
         <v>1616</v>
       </c>
-    </row>
-    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE128" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>10</v>
       </c>
@@ -13941,6 +13958,1387 @@
       </c>
       <c r="AD129" t="s">
         <v>1616</v>
+      </c>
+      <c r="AE129" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>11</v>
+      </c>
+      <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H130" t="s">
+        <v>978</v>
+      </c>
+      <c r="I130" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J130" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N130" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O130" t="s">
+        <v>27</v>
+      </c>
+      <c r="P130" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R130" t="s">
+        <v>92</v>
+      </c>
+      <c r="T130">
+        <v>138</v>
+      </c>
+      <c r="U130" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y130">
+        <v>60</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>11</v>
+      </c>
+      <c r="B131">
+        <v>1</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H131" t="s">
+        <v>978</v>
+      </c>
+      <c r="I131" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J131" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M131" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N131" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O131" t="s">
+        <v>27</v>
+      </c>
+      <c r="P131" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R131" t="s">
+        <v>92</v>
+      </c>
+      <c r="T131">
+        <v>132</v>
+      </c>
+      <c r="U131" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y131">
+        <v>66</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE131" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H132" t="s">
+        <v>978</v>
+      </c>
+      <c r="I132" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J132" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M132" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N132" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O132" t="s">
+        <v>27</v>
+      </c>
+      <c r="P132" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R132" t="s">
+        <v>94</v>
+      </c>
+      <c r="T132">
+        <v>47.59</v>
+      </c>
+      <c r="U132" t="s">
+        <v>78</v>
+      </c>
+      <c r="V132">
+        <v>1.39</v>
+      </c>
+      <c r="W132" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y132">
+        <v>11</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>11</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H133" t="s">
+        <v>978</v>
+      </c>
+      <c r="I133" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J133" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M133" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N133" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O133" t="s">
+        <v>27</v>
+      </c>
+      <c r="P133" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R133" t="s">
+        <v>94</v>
+      </c>
+      <c r="T133">
+        <v>45</v>
+      </c>
+      <c r="U133" t="s">
+        <v>76</v>
+      </c>
+      <c r="W133" t="s">
+        <v>80</v>
+      </c>
+      <c r="X133">
+        <v>49</v>
+      </c>
+      <c r="Y133">
+        <v>11</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AD133" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE133" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H134" t="s">
+        <v>978</v>
+      </c>
+      <c r="I134" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J134" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M134" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N134" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O134" t="s">
+        <v>27</v>
+      </c>
+      <c r="P134" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R134" t="s">
+        <v>92</v>
+      </c>
+      <c r="T134">
+        <v>81</v>
+      </c>
+      <c r="U134" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y134">
+        <v>66</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE134" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>11</v>
+      </c>
+      <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H135" t="s">
+        <v>978</v>
+      </c>
+      <c r="I135" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J135" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M135" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N135" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O135" t="s">
+        <v>27</v>
+      </c>
+      <c r="P135" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R135" t="s">
+        <v>92</v>
+      </c>
+      <c r="T135">
+        <v>89</v>
+      </c>
+      <c r="U135" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y135">
+        <v>66</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AD135" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE135" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>11</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H136" t="s">
+        <v>978</v>
+      </c>
+      <c r="I136" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J136" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M136" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N136" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O136" t="s">
+        <v>27</v>
+      </c>
+      <c r="P136" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R136" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T136">
+        <v>90</v>
+      </c>
+      <c r="U136" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y136">
+        <v>60</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AD136" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>11</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H137" t="s">
+        <v>978</v>
+      </c>
+      <c r="I137" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J137" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M137" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N137" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O137" t="s">
+        <v>27</v>
+      </c>
+      <c r="P137" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R137" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T137">
+        <v>100</v>
+      </c>
+      <c r="U137" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y137">
+        <v>60</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AD137" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE137" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>11</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H138" t="s">
+        <v>978</v>
+      </c>
+      <c r="I138" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J138" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M138" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N138" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O138" t="s">
+        <v>139</v>
+      </c>
+      <c r="P138" t="s">
+        <v>134</v>
+      </c>
+      <c r="S138" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T138">
+        <f>EXP(-5.8)</f>
+        <v>3.0275547453758153E-3</v>
+      </c>
+      <c r="Y138">
+        <v>66</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>11</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H139" t="s">
+        <v>978</v>
+      </c>
+      <c r="I139" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J139" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M139" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N139" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O139" t="s">
+        <v>139</v>
+      </c>
+      <c r="P139" t="s">
+        <v>135</v>
+      </c>
+      <c r="S139" t="s">
+        <v>1596</v>
+      </c>
+      <c r="T139">
+        <v>3.12</v>
+      </c>
+      <c r="Y139">
+        <v>66</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE139" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>11</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H140" t="s">
+        <v>978</v>
+      </c>
+      <c r="I140" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J140" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M140" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N140" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O140" t="s">
+        <v>139</v>
+      </c>
+      <c r="P140" t="s">
+        <v>134</v>
+      </c>
+      <c r="S140" t="s">
+        <v>1596</v>
+      </c>
+      <c r="T140">
+        <f>EXP(-6.09)</f>
+        <v>2.265408914814322E-3</v>
+      </c>
+      <c r="Y140">
+        <v>60</v>
+      </c>
+      <c r="Z140">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>11</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H141" t="s">
+        <v>978</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M141" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N141" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O141" t="s">
+        <v>139</v>
+      </c>
+      <c r="P141" t="s">
+        <v>135</v>
+      </c>
+      <c r="S141" t="s">
+        <v>1596</v>
+      </c>
+      <c r="T141">
+        <v>3.24</v>
+      </c>
+      <c r="Y141">
+        <v>60</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AD141" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE141" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>11</v>
+      </c>
+      <c r="B142">
+        <v>1</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H142" t="s">
+        <v>978</v>
+      </c>
+      <c r="I142" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J142" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M142" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N142" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O142" t="s">
+        <v>29</v>
+      </c>
+      <c r="P142" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>83</v>
+      </c>
+      <c r="R142" t="s">
+        <v>101</v>
+      </c>
+      <c r="T142">
+        <v>8.5</v>
+      </c>
+      <c r="U142" t="s">
+        <v>78</v>
+      </c>
+      <c r="V142">
+        <v>1.9</v>
+      </c>
+      <c r="W142" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y142">
+        <v>14</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AD142" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE142" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>11</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H143" t="s">
+        <v>978</v>
+      </c>
+      <c r="I143" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J143" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M143" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N143" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O143" t="s">
+        <v>29</v>
+      </c>
+      <c r="P143" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>83</v>
+      </c>
+      <c r="R143" t="s">
+        <v>101</v>
+      </c>
+      <c r="T143">
+        <v>6</v>
+      </c>
+      <c r="U143" t="s">
+        <v>76</v>
+      </c>
+      <c r="W143" t="s">
+        <v>80</v>
+      </c>
+      <c r="X143">
+        <v>14</v>
+      </c>
+      <c r="Y143">
+        <v>14</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>11</v>
+      </c>
+      <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H144" t="s">
+        <v>978</v>
+      </c>
+      <c r="I144" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J144" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M144" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N144" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O144" t="s">
+        <v>29</v>
+      </c>
+      <c r="P144" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>83</v>
+      </c>
+      <c r="R144" t="s">
+        <v>101</v>
+      </c>
+      <c r="T144">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U144" t="s">
+        <v>78</v>
+      </c>
+      <c r="V144">
+        <v>1.6</v>
+      </c>
+      <c r="W144" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y144">
+        <v>21</v>
+      </c>
+      <c r="Z144">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>11</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H145" t="s">
+        <v>978</v>
+      </c>
+      <c r="I145" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J145" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M145" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N145" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O145" t="s">
+        <v>29</v>
+      </c>
+      <c r="P145" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>83</v>
+      </c>
+      <c r="R145" t="s">
+        <v>101</v>
+      </c>
+      <c r="T145">
+        <v>2</v>
+      </c>
+      <c r="U145" t="s">
+        <v>76</v>
+      </c>
+      <c r="W145" t="s">
+        <v>80</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>21</v>
+      </c>
+      <c r="Z145">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>11</v>
+      </c>
+      <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H146" t="s">
+        <v>978</v>
+      </c>
+      <c r="I146" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J146" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M146" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N146" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O146" t="s">
+        <v>29</v>
+      </c>
+      <c r="P146" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>87</v>
+      </c>
+      <c r="T146" t="s">
+        <v>1579</v>
+      </c>
+      <c r="U146" t="s">
+        <v>76</v>
+      </c>
+      <c r="W146" t="s">
+        <v>80</v>
+      </c>
+      <c r="X146" t="s">
+        <v>1591</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>11</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H147" t="s">
+        <v>978</v>
+      </c>
+      <c r="I147" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J147" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M147" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N147" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O147" t="s">
+        <v>29</v>
+      </c>
+      <c r="P147" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>87</v>
+      </c>
+      <c r="T147" t="s">
+        <v>1579</v>
+      </c>
+      <c r="U147" t="s">
+        <v>76</v>
+      </c>
+      <c r="W147" t="s">
+        <v>80</v>
+      </c>
+      <c r="X147" t="s">
+        <v>1578</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>11</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H148" t="s">
+        <v>978</v>
+      </c>
+      <c r="I148" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J148" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M148" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N148" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O148" t="s">
+        <v>29</v>
+      </c>
+      <c r="P148" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>87</v>
+      </c>
+      <c r="T148">
+        <v>12</v>
+      </c>
+      <c r="U148" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>11</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H149" t="s">
+        <v>978</v>
+      </c>
+      <c r="I149" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J149" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M149" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N149" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O149" t="s">
+        <v>29</v>
+      </c>
+      <c r="P149" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>84</v>
+      </c>
+      <c r="R149" t="s">
+        <v>101</v>
+      </c>
+      <c r="T149">
+        <v>28.6</v>
+      </c>
+      <c r="U149" t="s">
+        <v>78</v>
+      </c>
+      <c r="V149">
+        <v>2.6</v>
+      </c>
+      <c r="W149" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y149">
+        <v>15</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AD149" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>11</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H150" t="s">
+        <v>978</v>
+      </c>
+      <c r="I150" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J150" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M150" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N150" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O150" t="s">
+        <v>29</v>
+      </c>
+      <c r="P150" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>84</v>
+      </c>
+      <c r="R150" t="s">
+        <v>101</v>
+      </c>
+      <c r="T150">
+        <v>25</v>
+      </c>
+      <c r="U150" t="s">
+        <v>76</v>
+      </c>
+      <c r="W150" t="s">
+        <v>80</v>
+      </c>
+      <c r="X150">
+        <v>31</v>
+      </c>
+      <c r="Y150">
+        <v>15</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>11</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H151" t="s">
+        <v>978</v>
+      </c>
+      <c r="I151" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J151" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M151" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N151" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O151" t="s">
+        <v>29</v>
+      </c>
+      <c r="P151" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>88</v>
+      </c>
+      <c r="T151">
+        <f>56/41</f>
+        <v>1.3658536585365855</v>
+      </c>
+      <c r="U151" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Y151">
+        <v>97</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AD151" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>11</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H152" t="s">
+        <v>978</v>
+      </c>
+      <c r="I152" t="s">
+        <v>1460</v>
+      </c>
+      <c r="J152" t="s">
+        <v>1649</v>
+      </c>
+      <c r="M152" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N152" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O152" t="s">
+        <v>29</v>
+      </c>
+      <c r="P152" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>81</v>
+      </c>
+      <c r="R152" t="s">
+        <v>131</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152" t="s">
+        <v>76</v>
+      </c>
+      <c r="W152" t="s">
+        <v>80</v>
+      </c>
+      <c r="X152">
+        <v>3</v>
+      </c>
+      <c r="Z152">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>1651</v>
       </c>
     </row>
   </sheetData>
@@ -14009,8 +15407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425CC2A1-EAF5-4A47-9C49-EAF15D01498B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7462C20-FF53-8E45-862A-8014EA79C58A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38440" yWindow="460" windowWidth="38060" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1668">
   <si>
     <t>observation_id</t>
   </si>
@@ -5027,6 +5027,54 @@
   </si>
   <si>
     <t>20-100</t>
+  </si>
+  <si>
+    <t>harry2011a</t>
+  </si>
+  <si>
+    <t>10.1111/j.1095-8649.2011.02992.x</t>
+  </si>
+  <si>
+    <t>2005- 2010</t>
+  </si>
+  <si>
+    <t>0-110</t>
+  </si>
+  <si>
+    <t>Precaudal length to total length conversion (intercept)</t>
+  </si>
+  <si>
+    <t>Precaudal length to total length conversion (slope)</t>
+  </si>
+  <si>
+    <t>Percent agreement</t>
+  </si>
+  <si>
+    <t>Percent agreement plus one year</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>10.1071/MF09227</t>
+  </si>
+  <si>
+    <t>piercy2010</t>
+  </si>
+  <si>
+    <t>Northwest Atlantic &amp; Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>2003-2009</t>
+  </si>
+  <si>
+    <t>Values mentioned in pers comm in discussion, not part of study</t>
+  </si>
+  <si>
+    <t>Back calculated from median lengths at maturity, not analysed in detail</t>
   </si>
 </sst>
 </file>
@@ -5095,12 +5143,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5203,7 +5257,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5223,6 +5277,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -6100,11 +6156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE152"/>
+  <dimension ref="A1:AE198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE153" sqref="AE153"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15341,9 +15397,2883 @@
         <v>1651</v>
       </c>
     </row>
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>12</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I153" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J153" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M153" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N153" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O153" t="s">
+        <v>27</v>
+      </c>
+      <c r="P153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R153" t="s">
+        <v>92</v>
+      </c>
+      <c r="T153">
+        <v>439.7</v>
+      </c>
+      <c r="U153" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y153">
+        <v>77</v>
+      </c>
+      <c r="Z153">
+        <v>0</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I154" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J154" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M154" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N154" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O154" t="s">
+        <v>27</v>
+      </c>
+      <c r="P154" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R154" t="s">
+        <v>92</v>
+      </c>
+      <c r="T154">
+        <v>369.3</v>
+      </c>
+      <c r="U154" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y154">
+        <v>65</v>
+      </c>
+      <c r="Z154">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>12</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I155" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J155" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M155" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N155" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O155" t="s">
+        <v>27</v>
+      </c>
+      <c r="P155" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R155" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T155">
+        <v>227.9</v>
+      </c>
+      <c r="V155">
+        <v>214.9</v>
+      </c>
+      <c r="W155" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X155">
+        <v>242.9</v>
+      </c>
+      <c r="Y155">
+        <v>85</v>
+      </c>
+      <c r="Z155">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>12</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I156" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J156" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M156" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N156" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O156" t="s">
+        <v>27</v>
+      </c>
+      <c r="P156" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R156" t="s">
+        <v>92</v>
+      </c>
+      <c r="T156">
+        <v>242</v>
+      </c>
+      <c r="U156" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y156">
+        <v>26</v>
+      </c>
+      <c r="Z156">
+        <v>0</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>12</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I157" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J157" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M157" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N157" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O157" t="s">
+        <v>27</v>
+      </c>
+      <c r="P157" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R157" t="s">
+        <v>92</v>
+      </c>
+      <c r="T157">
+        <v>242</v>
+      </c>
+      <c r="U157" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y157">
+        <v>59</v>
+      </c>
+      <c r="Z157">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>12</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I158" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M158" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N158" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O158" t="s">
+        <v>27</v>
+      </c>
+      <c r="P158" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R158" t="s">
+        <v>92</v>
+      </c>
+      <c r="T158">
+        <v>212</v>
+      </c>
+      <c r="U158" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y158">
+        <v>26</v>
+      </c>
+      <c r="Z158">
+        <v>0</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>12</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I159" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J159" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M159" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N159" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O159" t="s">
+        <v>27</v>
+      </c>
+      <c r="P159" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R159" t="s">
+        <v>92</v>
+      </c>
+      <c r="T159">
+        <v>226.7</v>
+      </c>
+      <c r="U159" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y159">
+        <v>59</v>
+      </c>
+      <c r="Z159">
+        <v>0</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>12</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I160" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M160" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N160" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O160" t="s">
+        <v>27</v>
+      </c>
+      <c r="P160" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R160" t="s">
+        <v>95</v>
+      </c>
+      <c r="T160">
+        <v>71</v>
+      </c>
+      <c r="U160" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y160">
+        <v>2</v>
+      </c>
+      <c r="Z160">
+        <v>0</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>12</v>
+      </c>
+      <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I161" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J161" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M161" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N161" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O161" t="s">
+        <v>28</v>
+      </c>
+      <c r="P161" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>81</v>
+      </c>
+      <c r="R161" t="s">
+        <v>100</v>
+      </c>
+      <c r="T161">
+        <v>39.1</v>
+      </c>
+      <c r="U161" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y161">
+        <v>51</v>
+      </c>
+      <c r="Z161">
+        <v>0</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>12</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I162" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J162" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M162" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N162" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O162" t="s">
+        <v>28</v>
+      </c>
+      <c r="P162" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>81</v>
+      </c>
+      <c r="R162" t="s">
+        <v>100</v>
+      </c>
+      <c r="T162">
+        <v>31.7</v>
+      </c>
+      <c r="U162" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y162">
+        <v>43</v>
+      </c>
+      <c r="Z162">
+        <v>0</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>12</v>
+      </c>
+      <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I163" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M163" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N163" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O163" t="s">
+        <v>28</v>
+      </c>
+      <c r="P163" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>81</v>
+      </c>
+      <c r="R163" t="s">
+        <v>100</v>
+      </c>
+      <c r="T163">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V163">
+        <v>7.4</v>
+      </c>
+      <c r="W163" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X163">
+        <v>9.5</v>
+      </c>
+      <c r="Y163">
+        <v>66</v>
+      </c>
+      <c r="Z163">
+        <v>0</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>12</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I164" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J164" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M164" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N164" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O164" t="s">
+        <v>28</v>
+      </c>
+      <c r="P164" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>81</v>
+      </c>
+      <c r="R164" t="s">
+        <v>100</v>
+      </c>
+      <c r="T164">
+        <v>6.7</v>
+      </c>
+      <c r="U164" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y164">
+        <v>24</v>
+      </c>
+      <c r="Z164">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>12</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I165" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J165" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M165" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N165" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O165" t="s">
+        <v>28</v>
+      </c>
+      <c r="P165" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>81</v>
+      </c>
+      <c r="R165" t="s">
+        <v>100</v>
+      </c>
+      <c r="T165">
+        <v>8.6</v>
+      </c>
+      <c r="U165" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y165">
+        <v>42</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>12</v>
+      </c>
+      <c r="B166">
+        <v>1</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I166" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J166" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N166" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O166" t="s">
+        <v>28</v>
+      </c>
+      <c r="P166" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>81</v>
+      </c>
+      <c r="R166" t="s">
+        <v>100</v>
+      </c>
+      <c r="T166">
+        <v>7.6</v>
+      </c>
+      <c r="U166" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y166">
+        <v>24</v>
+      </c>
+      <c r="Z166">
+        <v>0</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>12</v>
+      </c>
+      <c r="B167">
+        <v>1</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I167" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J167" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M167" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N167" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O167" t="s">
+        <v>28</v>
+      </c>
+      <c r="P167" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>81</v>
+      </c>
+      <c r="R167" t="s">
+        <v>100</v>
+      </c>
+      <c r="T167">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U167" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y167">
+        <v>42</v>
+      </c>
+      <c r="Z167">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>12</v>
+      </c>
+      <c r="B168">
+        <v>1</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I168" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J168" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M168" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N168" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O168" t="s">
+        <v>139</v>
+      </c>
+      <c r="P168" t="s">
+        <v>134</v>
+      </c>
+      <c r="S168" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T168">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="Y168">
+        <v>98</v>
+      </c>
+      <c r="Z168">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>12</v>
+      </c>
+      <c r="B169">
+        <v>1</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I169" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J169" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M169" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N169" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O169" t="s">
+        <v>139</v>
+      </c>
+      <c r="P169" t="s">
+        <v>135</v>
+      </c>
+      <c r="S169" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T169">
+        <v>1.29</v>
+      </c>
+      <c r="Y169">
+        <v>98</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>12</v>
+      </c>
+      <c r="B170">
+        <v>1</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I170" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J170" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M170" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N170" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O170" t="s">
+        <v>139</v>
+      </c>
+      <c r="P170" t="s">
+        <v>134</v>
+      </c>
+      <c r="S170" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T170">
+        <v>7.4189999999999996</v>
+      </c>
+      <c r="Y170">
+        <v>50</v>
+      </c>
+      <c r="Z170">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>12</v>
+      </c>
+      <c r="B171">
+        <v>1</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I171" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J171" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M171" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N171" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O171" t="s">
+        <v>139</v>
+      </c>
+      <c r="P171" t="s">
+        <v>135</v>
+      </c>
+      <c r="S171" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T171">
+        <v>1.39</v>
+      </c>
+      <c r="Y171">
+        <v>50</v>
+      </c>
+      <c r="Z171">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>12</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I172" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J172" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M172" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N172" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O172" t="s">
+        <v>30</v>
+      </c>
+      <c r="P172" t="s">
+        <v>71</v>
+      </c>
+      <c r="R172" t="s">
+        <v>124</v>
+      </c>
+      <c r="T172">
+        <v>35</v>
+      </c>
+      <c r="Y172">
+        <v>100</v>
+      </c>
+      <c r="Z172">
+        <v>0</v>
+      </c>
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>12</v>
+      </c>
+      <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D173" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I173" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J173" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M173" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N173" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O173" t="s">
+        <v>30</v>
+      </c>
+      <c r="P173" t="s">
+        <v>71</v>
+      </c>
+      <c r="R173" t="s">
+        <v>124</v>
+      </c>
+      <c r="T173">
+        <v>64</v>
+      </c>
+      <c r="Y173">
+        <v>100</v>
+      </c>
+      <c r="Z173">
+        <v>0</v>
+      </c>
+      <c r="AA173">
+        <v>1</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>12</v>
+      </c>
+      <c r="B174">
+        <v>1</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I174" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J174" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M174" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N174" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O174" t="s">
+        <v>30</v>
+      </c>
+      <c r="P174" t="s">
+        <v>69</v>
+      </c>
+      <c r="R174" t="s">
+        <v>124</v>
+      </c>
+      <c r="T174">
+        <v>17.23</v>
+      </c>
+      <c r="Y174">
+        <v>100</v>
+      </c>
+      <c r="Z174">
+        <v>0</v>
+      </c>
+      <c r="AA174">
+        <v>1</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>12</v>
+      </c>
+      <c r="B175">
+        <v>1</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I175" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M175" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N175" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O175" t="s">
+        <v>30</v>
+      </c>
+      <c r="P175" t="s">
+        <v>61</v>
+      </c>
+      <c r="R175" t="s">
+        <v>124</v>
+      </c>
+      <c r="S175" t="s">
+        <v>110</v>
+      </c>
+      <c r="T175">
+        <v>402.7</v>
+      </c>
+      <c r="V175">
+        <v>363.8</v>
+      </c>
+      <c r="W175" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X175">
+        <v>454.5</v>
+      </c>
+      <c r="Y175">
+        <v>100</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>1</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>12</v>
+      </c>
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I176" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J176" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M176" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N176" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O176" t="s">
+        <v>30</v>
+      </c>
+      <c r="P176" t="s">
+        <v>60</v>
+      </c>
+      <c r="R176" t="s">
+        <v>124</v>
+      </c>
+      <c r="S176" t="s">
+        <v>110</v>
+      </c>
+      <c r="T176">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V176">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W176" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X176">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y176">
+        <v>100</v>
+      </c>
+      <c r="Z176">
+        <v>0</v>
+      </c>
+      <c r="AA176">
+        <v>1</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>12</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I177" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J177" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M177" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N177" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O177" t="s">
+        <v>30</v>
+      </c>
+      <c r="P177" t="s">
+        <v>62</v>
+      </c>
+      <c r="R177" t="s">
+        <v>124</v>
+      </c>
+      <c r="S177" t="s">
+        <v>110</v>
+      </c>
+      <c r="T177">
+        <v>70</v>
+      </c>
+      <c r="Y177">
+        <v>100</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>1</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>12</v>
+      </c>
+      <c r="B178">
+        <v>1</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I178" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J178" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M178" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N178" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O178" t="s">
+        <v>29</v>
+      </c>
+      <c r="P178" t="s">
+        <v>47</v>
+      </c>
+      <c r="R178" t="s">
+        <v>101</v>
+      </c>
+      <c r="T178">
+        <v>39</v>
+      </c>
+      <c r="Y178">
+        <v>2</v>
+      </c>
+      <c r="Z178">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>12</v>
+      </c>
+      <c r="B179">
+        <v>1</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I179" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J179" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M179" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N179" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O179" t="s">
+        <v>29</v>
+      </c>
+      <c r="P179" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>87</v>
+      </c>
+      <c r="T179" t="s">
+        <v>1660</v>
+      </c>
+      <c r="U179" t="s">
+        <v>76</v>
+      </c>
+      <c r="W179" t="s">
+        <v>80</v>
+      </c>
+      <c r="X179" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Y179">
+        <v>2</v>
+      </c>
+      <c r="Z179">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>13</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I180" s="18"/>
+      <c r="J180" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M180" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N180" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O180" t="s">
+        <v>27</v>
+      </c>
+      <c r="P180" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R180" t="s">
+        <v>92</v>
+      </c>
+      <c r="T180">
+        <v>320</v>
+      </c>
+      <c r="Y180">
+        <v>105</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>1</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>13</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I181" s="18"/>
+      <c r="J181" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M181" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N181" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O181" t="s">
+        <v>27</v>
+      </c>
+      <c r="P181" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R181" t="s">
+        <v>92</v>
+      </c>
+      <c r="T181">
+        <v>300</v>
+      </c>
+      <c r="Y181">
+        <v>111</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>1</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>13</v>
+      </c>
+      <c r="B182">
+        <v>1</v>
+      </c>
+      <c r="C182" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I182" s="18"/>
+      <c r="J182" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M182" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N182" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O182" t="s">
+        <v>27</v>
+      </c>
+      <c r="P182" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R182" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T182">
+        <v>224</v>
+      </c>
+      <c r="U182" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z182">
+        <v>1</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>13</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I183" s="18"/>
+      <c r="J183" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M183" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N183" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O183" t="s">
+        <v>27</v>
+      </c>
+      <c r="P183" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>1424</v>
+      </c>
+      <c r="R183" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T183">
+        <v>187</v>
+      </c>
+      <c r="U183" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z183">
+        <v>1</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>13</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I184" s="18"/>
+      <c r="J184" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M184" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N184" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O184" t="s">
+        <v>28</v>
+      </c>
+      <c r="P184" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>81</v>
+      </c>
+      <c r="T184">
+        <v>44</v>
+      </c>
+      <c r="U184" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y184">
+        <v>105</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>1</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>13</v>
+      </c>
+      <c r="B185">
+        <v>1</v>
+      </c>
+      <c r="C185" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I185" s="18"/>
+      <c r="J185" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M185" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N185" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O185" t="s">
+        <v>28</v>
+      </c>
+      <c r="P185" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>81</v>
+      </c>
+      <c r="T185">
+        <v>42</v>
+      </c>
+      <c r="U185" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y185">
+        <v>111</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
+        <v>1</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A186">
+        <v>13</v>
+      </c>
+      <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I186" s="18"/>
+      <c r="J186" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M186" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N186" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O186" t="s">
+        <v>28</v>
+      </c>
+      <c r="P186" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>81</v>
+      </c>
+      <c r="R186" t="s">
+        <v>91</v>
+      </c>
+      <c r="T186">
+        <v>5</v>
+      </c>
+      <c r="U186" t="s">
+        <v>76</v>
+      </c>
+      <c r="W186" t="s">
+        <v>80</v>
+      </c>
+      <c r="X186">
+        <v>6</v>
+      </c>
+      <c r="Z186">
+        <v>1</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A187">
+        <v>13</v>
+      </c>
+      <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D187" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I187" s="18"/>
+      <c r="J187" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M187" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N187" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O187" t="s">
+        <v>30</v>
+      </c>
+      <c r="P187" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R187" t="s">
+        <v>124</v>
+      </c>
+      <c r="S187" t="s">
+        <v>113</v>
+      </c>
+      <c r="T187">
+        <v>307.8</v>
+      </c>
+      <c r="V187">
+        <v>11.23</v>
+      </c>
+      <c r="W187" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y187">
+        <v>105</v>
+      </c>
+      <c r="Z187">
+        <v>0</v>
+      </c>
+      <c r="AA187">
+        <v>1</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>13</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I188" s="18"/>
+      <c r="J188" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M188" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N188" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O188" t="s">
+        <v>30</v>
+      </c>
+      <c r="P188" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R188" t="s">
+        <v>124</v>
+      </c>
+      <c r="S188" t="s">
+        <v>113</v>
+      </c>
+      <c r="T188">
+        <v>0.11</v>
+      </c>
+      <c r="V188">
+        <v>0.01</v>
+      </c>
+      <c r="W188" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y188">
+        <v>105</v>
+      </c>
+      <c r="Z188">
+        <v>0</v>
+      </c>
+      <c r="AA188">
+        <v>1</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>13</v>
+      </c>
+      <c r="B189">
+        <v>1</v>
+      </c>
+      <c r="C189" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I189" s="18"/>
+      <c r="J189" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M189" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N189" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O189" t="s">
+        <v>30</v>
+      </c>
+      <c r="P189" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R189" t="s">
+        <v>124</v>
+      </c>
+      <c r="S189" t="s">
+        <v>113</v>
+      </c>
+      <c r="T189">
+        <v>-2.86</v>
+      </c>
+      <c r="V189">
+        <v>0.44</v>
+      </c>
+      <c r="W189" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y189">
+        <v>105</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>1</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>13</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I190" s="18"/>
+      <c r="J190" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M190" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N190" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O190" t="s">
+        <v>30</v>
+      </c>
+      <c r="P190" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R190" t="s">
+        <v>124</v>
+      </c>
+      <c r="S190" t="s">
+        <v>113</v>
+      </c>
+      <c r="T190">
+        <v>25.06</v>
+      </c>
+      <c r="Y190">
+        <v>105</v>
+      </c>
+      <c r="Z190">
+        <v>0</v>
+      </c>
+      <c r="AA190">
+        <v>1</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>13</v>
+      </c>
+      <c r="B191">
+        <v>1</v>
+      </c>
+      <c r="C191" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I191" s="18"/>
+      <c r="J191" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M191" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N191" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O191" t="s">
+        <v>30</v>
+      </c>
+      <c r="P191" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R191" t="s">
+        <v>124</v>
+      </c>
+      <c r="S191" t="s">
+        <v>113</v>
+      </c>
+      <c r="T191">
+        <v>264.2</v>
+      </c>
+      <c r="V191">
+        <v>5.61</v>
+      </c>
+      <c r="W191" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y191">
+        <v>111</v>
+      </c>
+      <c r="Z191">
+        <v>0</v>
+      </c>
+      <c r="AA191">
+        <v>1</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>13</v>
+      </c>
+      <c r="B192">
+        <v>1</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I192" s="18"/>
+      <c r="J192" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M192" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N192" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O192" t="s">
+        <v>30</v>
+      </c>
+      <c r="P192" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R192" t="s">
+        <v>124</v>
+      </c>
+      <c r="S192" t="s">
+        <v>113</v>
+      </c>
+      <c r="T192">
+        <v>0.16</v>
+      </c>
+      <c r="V192">
+        <v>0.01</v>
+      </c>
+      <c r="W192" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y192">
+        <v>111</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>1</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>13</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D193" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I193" s="18"/>
+      <c r="J193" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M193" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N193" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O193" t="s">
+        <v>30</v>
+      </c>
+      <c r="P193" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R193" t="s">
+        <v>124</v>
+      </c>
+      <c r="S193" t="s">
+        <v>113</v>
+      </c>
+      <c r="T193">
+        <v>-1.99</v>
+      </c>
+      <c r="V193">
+        <v>0.2</v>
+      </c>
+      <c r="W193" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y193">
+        <v>111</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>1</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>13</v>
+      </c>
+      <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I194" s="18"/>
+      <c r="J194" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M194" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N194" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O194" t="s">
+        <v>30</v>
+      </c>
+      <c r="P194" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R194" t="s">
+        <v>124</v>
+      </c>
+      <c r="S194" t="s">
+        <v>113</v>
+      </c>
+      <c r="T194">
+        <v>16.11</v>
+      </c>
+      <c r="Y194">
+        <v>216</v>
+      </c>
+      <c r="AA194">
+        <v>1</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>13</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I195" s="18"/>
+      <c r="J195" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M195" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N195" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O195" t="s">
+        <v>30</v>
+      </c>
+      <c r="P195" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R195" t="s">
+        <v>124</v>
+      </c>
+      <c r="S195" t="s">
+        <v>113</v>
+      </c>
+      <c r="T195">
+        <v>286.89999999999998</v>
+      </c>
+      <c r="V195">
+        <v>5.99</v>
+      </c>
+      <c r="W195" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y195">
+        <v>216</v>
+      </c>
+      <c r="AA195">
+        <v>1</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>13</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I196" s="18"/>
+      <c r="J196" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M196" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N196" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O196" t="s">
+        <v>30</v>
+      </c>
+      <c r="P196" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R196" t="s">
+        <v>124</v>
+      </c>
+      <c r="S196" t="s">
+        <v>113</v>
+      </c>
+      <c r="T196">
+        <v>0.13</v>
+      </c>
+      <c r="V196">
+        <v>0.01</v>
+      </c>
+      <c r="W196" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y196">
+        <v>216</v>
+      </c>
+      <c r="AA196">
+        <v>1</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>13</v>
+      </c>
+      <c r="B197">
+        <v>1</v>
+      </c>
+      <c r="C197" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I197" s="18"/>
+      <c r="J197" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M197" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N197" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O197" t="s">
+        <v>30</v>
+      </c>
+      <c r="P197" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R197" t="s">
+        <v>124</v>
+      </c>
+      <c r="S197" t="s">
+        <v>113</v>
+      </c>
+      <c r="T197">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="V197">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="W197" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y197">
+        <v>216</v>
+      </c>
+      <c r="AA197">
+        <v>1</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>13</v>
+      </c>
+      <c r="B198">
+        <v>1</v>
+      </c>
+      <c r="C198" s="17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I198" s="18"/>
+      <c r="J198" t="s">
+        <v>1664</v>
+      </c>
+      <c r="M198" t="s">
+        <v>1665</v>
+      </c>
+      <c r="N198" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O198" t="s">
+        <v>30</v>
+      </c>
+      <c r="P198" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R198" t="s">
+        <v>124</v>
+      </c>
+      <c r="S198" t="s">
+        <v>113</v>
+      </c>
+      <c r="T198">
+        <v>21.44</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R18 R20:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R18 R20:R178 R180:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>cleaned.method.name</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S15 S19:S1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
@@ -15352,7 +18282,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I152 I184:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -15360,12 +18290,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Class</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>clean.trait.name</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>cleaned.standard.name</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Group</formula1>
@@ -15375,6 +18299,12 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>sex_name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P191 P193:P195 P197:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>clean.trait.name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>cleaned.standard.name</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15386,7 +18316,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I62:I129</xm:sqref>
+          <xm:sqref>I2:I53 I62:I129 I153:I183</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>
@@ -15407,8 +18337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Documents/Projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7462C20-FF53-8E45-862A-8014EA79C58A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74457F-3F77-6F4F-A38B-3BA9BA84F114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4441" uniqueCount="1668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="1669">
   <si>
     <t>observation_id</t>
   </si>
@@ -5075,6 +5075,9 @@
   </si>
   <si>
     <t>Back calculated from median lengths at maturity, not analysed in detail</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
 </sst>
 </file>
@@ -5143,18 +5146,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5277,8 +5274,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5709,12 +5706,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Data Entry"/>
       <sheetName val="Values"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6156,11 +6151,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE198"/>
+  <dimension ref="A1:AE218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H202" sqref="H202"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J218" sqref="J218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17114,7 +17109,9 @@
       <c r="H180" t="s">
         <v>1248</v>
       </c>
-      <c r="I180" s="18"/>
+      <c r="I180" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J180" t="s">
         <v>1664</v>
       </c>
@@ -17174,7 +17171,9 @@
       <c r="H181" t="s">
         <v>1248</v>
       </c>
-      <c r="I181" s="18"/>
+      <c r="I181" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J181" t="s">
         <v>1664</v>
       </c>
@@ -17234,7 +17233,9 @@
       <c r="H182" t="s">
         <v>1248</v>
       </c>
-      <c r="I182" s="18"/>
+      <c r="I182" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J182" t="s">
         <v>1664</v>
       </c>
@@ -17294,7 +17295,9 @@
       <c r="H183" t="s">
         <v>1248</v>
       </c>
-      <c r="I183" s="18"/>
+      <c r="I183" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J183" t="s">
         <v>1664</v>
       </c>
@@ -17354,7 +17357,9 @@
       <c r="H184" t="s">
         <v>1248</v>
       </c>
-      <c r="I184" s="18"/>
+      <c r="I184" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J184" t="s">
         <v>1664</v>
       </c>
@@ -17414,7 +17419,9 @@
       <c r="H185" t="s">
         <v>1248</v>
       </c>
-      <c r="I185" s="18"/>
+      <c r="I185" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J185" t="s">
         <v>1664</v>
       </c>
@@ -17474,7 +17481,9 @@
       <c r="H186" t="s">
         <v>1248</v>
       </c>
-      <c r="I186" s="18"/>
+      <c r="I186" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J186" t="s">
         <v>1664</v>
       </c>
@@ -17540,7 +17549,9 @@
       <c r="H187" t="s">
         <v>1248</v>
       </c>
-      <c r="I187" s="18"/>
+      <c r="I187" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J187" t="s">
         <v>1664</v>
       </c>
@@ -17606,7 +17617,9 @@
       <c r="H188" t="s">
         <v>1248</v>
       </c>
-      <c r="I188" s="18"/>
+      <c r="I188" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J188" t="s">
         <v>1664</v>
       </c>
@@ -17672,7 +17685,9 @@
       <c r="H189" t="s">
         <v>1248</v>
       </c>
-      <c r="I189" s="18"/>
+      <c r="I189" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J189" t="s">
         <v>1664</v>
       </c>
@@ -17738,7 +17753,9 @@
       <c r="H190" t="s">
         <v>1248</v>
       </c>
-      <c r="I190" s="18"/>
+      <c r="I190" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J190" t="s">
         <v>1664</v>
       </c>
@@ -17798,7 +17815,9 @@
       <c r="H191" t="s">
         <v>1248</v>
       </c>
-      <c r="I191" s="18"/>
+      <c r="I191" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J191" t="s">
         <v>1664</v>
       </c>
@@ -17864,7 +17883,9 @@
       <c r="H192" t="s">
         <v>1248</v>
       </c>
-      <c r="I192" s="18"/>
+      <c r="I192" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J192" t="s">
         <v>1664</v>
       </c>
@@ -17930,7 +17951,9 @@
       <c r="H193" t="s">
         <v>1248</v>
       </c>
-      <c r="I193" s="18"/>
+      <c r="I193" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J193" t="s">
         <v>1664</v>
       </c>
@@ -17996,7 +18019,9 @@
       <c r="H194" t="s">
         <v>1248</v>
       </c>
-      <c r="I194" s="18"/>
+      <c r="I194" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J194" t="s">
         <v>1664</v>
       </c>
@@ -18053,7 +18078,9 @@
       <c r="H195" t="s">
         <v>1248</v>
       </c>
-      <c r="I195" s="18"/>
+      <c r="I195" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J195" t="s">
         <v>1664</v>
       </c>
@@ -18116,7 +18143,9 @@
       <c r="H196" t="s">
         <v>1248</v>
       </c>
-      <c r="I196" s="18"/>
+      <c r="I196" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J196" t="s">
         <v>1664</v>
       </c>
@@ -18179,7 +18208,9 @@
       <c r="H197" t="s">
         <v>1248</v>
       </c>
-      <c r="I197" s="18"/>
+      <c r="I197" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J197" t="s">
         <v>1664</v>
       </c>
@@ -18242,7 +18273,9 @@
       <c r="H198" t="s">
         <v>1248</v>
       </c>
-      <c r="I198" s="18"/>
+      <c r="I198" s="18" t="s">
+        <v>1480</v>
+      </c>
       <c r="J198" t="s">
         <v>1664</v>
       </c>
@@ -18269,6 +18302,1052 @@
       </c>
       <c r="T198">
         <v>21.44</v>
+      </c>
+      <c r="Y198">
+        <v>216</v>
+      </c>
+      <c r="AA198">
+        <v>1</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>14</v>
+      </c>
+      <c r="B199">
+        <v>1</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I199" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J199" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M199" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N199" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O199" t="s">
+        <v>27</v>
+      </c>
+      <c r="P199" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R199" t="s">
+        <v>92</v>
+      </c>
+      <c r="T199">
+        <v>409</v>
+      </c>
+      <c r="U199" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y199">
+        <v>609</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>14</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I200" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J200" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M200" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N200" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O200" t="s">
+        <v>27</v>
+      </c>
+      <c r="P200" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R200" t="s">
+        <v>92</v>
+      </c>
+      <c r="T200">
+        <v>445</v>
+      </c>
+      <c r="U200" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y200">
+        <v>725</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>14</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I201" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J201" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N201" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O201" t="s">
+        <v>27</v>
+      </c>
+      <c r="P201" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R201" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T201">
+        <v>210</v>
+      </c>
+      <c r="U201" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y201">
+        <v>609</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>14</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I202" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J202" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N202" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O202" t="s">
+        <v>27</v>
+      </c>
+      <c r="P202" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R202" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T202">
+        <v>230</v>
+      </c>
+      <c r="U202" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y202">
+        <v>609</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203">
+        <v>1</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I203" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J203" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N203" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O203" t="s">
+        <v>27</v>
+      </c>
+      <c r="P203" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R203" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T203">
+        <v>210</v>
+      </c>
+      <c r="U203" t="s">
+        <v>76</v>
+      </c>
+      <c r="W203" t="s">
+        <v>80</v>
+      </c>
+      <c r="X203">
+        <v>220</v>
+      </c>
+      <c r="Y203">
+        <v>609</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>14</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D204" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I204" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J204" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N204" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O204" t="s">
+        <v>27</v>
+      </c>
+      <c r="P204" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R204" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T204">
+        <v>225</v>
+      </c>
+      <c r="U204" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Y204">
+        <v>725</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>14</v>
+      </c>
+      <c r="B205">
+        <v>1</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I205" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J205" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N205" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O205" t="s">
+        <v>27</v>
+      </c>
+      <c r="P205" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R205" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T205">
+        <v>210</v>
+      </c>
+      <c r="U205" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y205">
+        <v>725</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>14</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D206" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I206" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J206" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N206" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O206" t="s">
+        <v>27</v>
+      </c>
+      <c r="P206" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R206" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T206">
+        <v>258</v>
+      </c>
+      <c r="U206" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y206">
+        <v>725</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>1</v>
+      </c>
+      <c r="C207" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D207" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I207" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J207" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N207" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O207" t="s">
+        <v>27</v>
+      </c>
+      <c r="P207" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R207" t="s">
+        <v>94</v>
+      </c>
+      <c r="T207">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="U207" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y207">
+        <v>1334</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>14</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I208" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J208" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N208" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O208" t="s">
+        <v>27</v>
+      </c>
+      <c r="P208" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R208" t="s">
+        <v>95</v>
+      </c>
+      <c r="T208">
+        <v>64</v>
+      </c>
+      <c r="U208" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>14</v>
+      </c>
+      <c r="B209">
+        <v>1</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D209" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I209" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J209" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N209" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O209" t="s">
+        <v>29</v>
+      </c>
+      <c r="P209" t="s">
+        <v>1575</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>87</v>
+      </c>
+      <c r="R209" t="s">
+        <v>101</v>
+      </c>
+      <c r="T209" t="s">
+        <v>1660</v>
+      </c>
+      <c r="U209" t="s">
+        <v>76</v>
+      </c>
+      <c r="W209" t="s">
+        <v>80</v>
+      </c>
+      <c r="X209" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>14</v>
+      </c>
+      <c r="B210">
+        <v>1</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I210" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J210" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N210" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O210" t="s">
+        <v>29</v>
+      </c>
+      <c r="P210" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>87</v>
+      </c>
+      <c r="R210" t="s">
+        <v>101</v>
+      </c>
+      <c r="T210" t="s">
+        <v>1588</v>
+      </c>
+      <c r="U210" t="s">
+        <v>76</v>
+      </c>
+      <c r="W210" t="s">
+        <v>80</v>
+      </c>
+      <c r="X210" t="s">
+        <v>1668</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>14</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I211" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J211" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N211" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O211" t="s">
+        <v>29</v>
+      </c>
+      <c r="P211" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>87</v>
+      </c>
+      <c r="R211" t="s">
+        <v>101</v>
+      </c>
+      <c r="T211">
+        <v>11</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>14</v>
+      </c>
+      <c r="B212">
+        <v>1</v>
+      </c>
+      <c r="C212" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I212" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J212" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N212" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O212" t="s">
+        <v>29</v>
+      </c>
+      <c r="P212" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>81</v>
+      </c>
+      <c r="R212" t="s">
+        <v>131</v>
+      </c>
+      <c r="T212">
+        <v>2</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>14</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D213" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J213" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N213" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O213" t="s">
+        <v>29</v>
+      </c>
+      <c r="P213" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>83</v>
+      </c>
+      <c r="R213" t="s">
+        <v>101</v>
+      </c>
+      <c r="T213">
+        <v>15.4</v>
+      </c>
+      <c r="U213" t="s">
+        <v>78</v>
+      </c>
+      <c r="V213">
+        <v>6</v>
+      </c>
+      <c r="W213" t="s">
+        <v>80</v>
+      </c>
+      <c r="X213">
+        <v>33</v>
+      </c>
+      <c r="Y213">
+        <v>30</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D214" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I214" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J214" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N214" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O214" t="s">
+        <v>29</v>
+      </c>
+      <c r="P214" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>88</v>
+      </c>
+      <c r="R214" t="s">
+        <v>101</v>
+      </c>
+      <c r="T214">
+        <f>193 / 385</f>
+        <v>0.50129870129870124</v>
+      </c>
+      <c r="U214" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Y214">
+        <v>385</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>14</v>
+      </c>
+      <c r="B215">
+        <v>1</v>
+      </c>
+      <c r="C215" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D215" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I215" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J215" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N215" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O215" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>1</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I216" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J216" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N216" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O216" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I217" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J217" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N217" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O217" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <v>1</v>
+      </c>
+      <c r="C218" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I218" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J218" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N218" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O218" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -18282,14 +19361,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I152 I184:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I152 I219:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P191 P193:P195 P197:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>clean.trait.name</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>precision_name</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>Class</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Group</formula1>
@@ -18300,11 +19379,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>sex_name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P191 P193:P195 P197:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
-      <formula1>clean.trait.name</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>cleaned.standard.name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>Class</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18316,7 +19395,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I62:I129 I153:I183</xm:sqref>
+          <xm:sqref>I2:I53 I62:I129 I153:I218</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>
@@ -18337,8 +19416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Documents/Projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B74457F-3F77-6F4F-A38B-3BA9BA84F114}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DA0F4-B417-DB49-87BC-B9AD6F8E7004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38160" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -47,8 +47,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="I219" authorId="0" shapeId="0" xr:uid="{43605336-FB98-9B40-BACD-4F81449A626C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note this province is listed incorrectly in the table as east india (error occurs on the Wikipedia page)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="1669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="1678">
   <si>
     <t>observation_id</t>
   </si>
@@ -5079,12 +5122,39 @@
   <si>
     <t>January</t>
   </si>
+  <si>
+    <t>cliff1995</t>
+  </si>
+  <si>
+    <t>10.2989/025776195784156331</t>
+  </si>
+  <si>
+    <t>Eastern Africa Coastal Province</t>
+  </si>
+  <si>
+    <t>Southwest Indian Ocean</t>
+  </si>
+  <si>
+    <t>1978-1993</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>cm PCL</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>fourmanoir1961</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5144,6 +5214,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6150,12 +6233,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE218"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J218" sqref="J218"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18864,7 +18947,7 @@
         <v>36</v>
       </c>
       <c r="Q208" t="s">
-        <v>1423</v>
+        <v>85</v>
       </c>
       <c r="R208" t="s">
         <v>95</v>
@@ -19253,6 +19336,30 @@
       <c r="O215" t="s">
         <v>139</v>
       </c>
+      <c r="P215" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>1565</v>
+      </c>
+      <c r="S215" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T215">
+        <v>3.58</v>
+      </c>
+      <c r="Y215">
+        <v>261</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216">
@@ -19285,6 +19392,30 @@
       <c r="O216" t="s">
         <v>139</v>
       </c>
+      <c r="P216" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>1565</v>
+      </c>
+      <c r="S216" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T216">
+        <v>1.29</v>
+      </c>
+      <c r="Y216">
+        <v>261</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217">
@@ -19317,6 +19448,30 @@
       <c r="O217" t="s">
         <v>139</v>
       </c>
+      <c r="P217" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>1565</v>
+      </c>
+      <c r="S217" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T217" s="13">
+        <v>1.23E-3</v>
+      </c>
+      <c r="Y217">
+        <v>117</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218">
@@ -19348,6 +19503,555 @@
       </c>
       <c r="O218" t="s">
         <v>139</v>
+      </c>
+      <c r="P218" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>1565</v>
+      </c>
+      <c r="S218" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T218">
+        <v>3.24</v>
+      </c>
+      <c r="Y218">
+        <v>117</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>1597</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>15</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I219" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J219" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M219" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N219" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O219" t="s">
+        <v>27</v>
+      </c>
+      <c r="P219" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R219" t="s">
+        <v>92</v>
+      </c>
+      <c r="T219">
+        <v>326</v>
+      </c>
+      <c r="U219" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y219">
+        <v>87</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>15</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D220" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I220" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J220" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M220" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N220" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O220" t="s">
+        <v>27</v>
+      </c>
+      <c r="P220" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R220" t="s">
+        <v>92</v>
+      </c>
+      <c r="T220">
+        <v>264</v>
+      </c>
+      <c r="U220" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y220">
+        <v>85</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>15</v>
+      </c>
+      <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D221" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I221" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J221" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M221" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N221" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O221" t="s">
+        <v>27</v>
+      </c>
+      <c r="P221" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R221" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T221">
+        <v>237</v>
+      </c>
+      <c r="U221" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y221">
+        <v>87</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>15</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D222" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I222" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J222" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M222" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N222" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O222" t="s">
+        <v>27</v>
+      </c>
+      <c r="P222" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R222" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T222">
+        <v>218</v>
+      </c>
+      <c r="U222" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y222">
+        <v>87</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>15</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D223" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I223" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J223" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M223" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N223" t="s">
+        <v>1674</v>
+      </c>
+      <c r="O223" t="s">
+        <v>27</v>
+      </c>
+      <c r="P223" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R223" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T223">
+        <v>246</v>
+      </c>
+      <c r="U223" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y223">
+        <v>87</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>15</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D224" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I224" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J224" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M224" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N224" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O224" t="s">
+        <v>27</v>
+      </c>
+      <c r="P224" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R224" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T224">
+        <v>217</v>
+      </c>
+      <c r="U224" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y224">
+        <v>85</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>15</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D225" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I225" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J225" t="s">
+        <v>1672</v>
+      </c>
+      <c r="N225" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O225" t="s">
+        <v>27</v>
+      </c>
+      <c r="P225" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R225" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T225">
+        <v>192</v>
+      </c>
+      <c r="U225" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y225">
+        <v>85</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>15</v>
+      </c>
+      <c r="B226">
+        <v>1</v>
+      </c>
+      <c r="C226" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D226" t="s">
+        <v>1670</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I226" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J226" t="s">
+        <v>1672</v>
+      </c>
+      <c r="N226" t="s">
+        <v>1676</v>
+      </c>
+      <c r="O226" t="s">
+        <v>27</v>
+      </c>
+      <c r="P226" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R226" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T226">
+        <v>230</v>
+      </c>
+      <c r="U226" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y226">
+        <v>85</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>15</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1248</v>
+      </c>
+      <c r="I227" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J227" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M227" t="s">
+        <v>1673</v>
+      </c>
+      <c r="N227" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O227" t="s">
+        <v>29</v>
+      </c>
+      <c r="P227" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>83</v>
+      </c>
+      <c r="T227">
+        <v>18</v>
+      </c>
+      <c r="U227" t="s">
+        <v>76</v>
+      </c>
+      <c r="W227" t="s">
+        <v>80</v>
+      </c>
+      <c r="X227">
+        <v>23</v>
+      </c>
+      <c r="Y227">
+        <v>3</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -19388,6 +20092,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -19416,8 +20121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19884,6 +20589,9 @@
       </c>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>1675</v>
+      </c>
       <c r="F34" s="2" t="s">
         <v>90</v>
       </c>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160DA0F4-B417-DB49-87BC-B9AD6F8E7004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722CFFC7-41B9-A845-9819-8629E304D250}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38160" windowHeight="19520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4853" uniqueCount="1678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="1683">
   <si>
     <t>observation_id</t>
   </si>
@@ -5148,6 +5148,21 @@
   </si>
   <si>
     <t>fourmanoir1961</t>
+  </si>
+  <si>
+    <t>castro1989</t>
+  </si>
+  <si>
+    <t>10.1007/BF00001605</t>
+  </si>
+  <si>
+    <t>18-40</t>
+  </si>
+  <si>
+    <t>Trinidad</t>
+  </si>
+  <si>
+    <t>1985-1986</t>
   </si>
 </sst>
 </file>
@@ -6234,11 +6249,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE227"/>
+  <dimension ref="A1:AE239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E222" sqref="E222"/>
+      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19883,7 +19898,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>15</v>
       </c>
@@ -19939,7 +19954,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>15</v>
       </c>
@@ -19995,7 +20010,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>15</v>
       </c>
@@ -20052,6 +20067,723 @@
       </c>
       <c r="AD227" t="s">
         <v>1616</v>
+      </c>
+    </row>
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>16</v>
+      </c>
+      <c r="B228">
+        <v>1</v>
+      </c>
+      <c r="C228" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D228" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I228" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J228" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M228" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N228" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O228" t="s">
+        <v>27</v>
+      </c>
+      <c r="P228" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R228" t="s">
+        <v>92</v>
+      </c>
+      <c r="T228">
+        <v>120</v>
+      </c>
+      <c r="U228" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>16</v>
+      </c>
+      <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D229" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G229" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I229" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J229" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M229" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N229" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O229" t="s">
+        <v>27</v>
+      </c>
+      <c r="P229" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R229" t="s">
+        <v>92</v>
+      </c>
+      <c r="T229">
+        <v>121</v>
+      </c>
+      <c r="U229" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>16</v>
+      </c>
+      <c r="B230">
+        <v>1</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D230" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G230" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I230" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J230" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M230" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N230" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O230" t="s">
+        <v>27</v>
+      </c>
+      <c r="P230" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R230" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T230">
+        <v>98</v>
+      </c>
+      <c r="U230" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>16</v>
+      </c>
+      <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D231" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G231" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I231" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J231" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M231" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N231" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O231" t="s">
+        <v>27</v>
+      </c>
+      <c r="P231" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R231" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T231">
+        <v>80</v>
+      </c>
+      <c r="U231" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>16</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G232" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I232" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J232" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M232" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N232" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O232" t="s">
+        <v>29</v>
+      </c>
+      <c r="P232" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>84</v>
+      </c>
+      <c r="R232" t="s">
+        <v>101</v>
+      </c>
+      <c r="T232">
+        <v>22</v>
+      </c>
+      <c r="U232" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>16</v>
+      </c>
+      <c r="B233">
+        <v>1</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D233" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G233" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I233" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J233" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M233" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N233" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O233" t="s">
+        <v>27</v>
+      </c>
+      <c r="P233" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R233" t="s">
+        <v>95</v>
+      </c>
+      <c r="T233">
+        <v>30</v>
+      </c>
+      <c r="U233" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>16</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G234" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I234" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J234" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M234" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N234" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O234" t="s">
+        <v>27</v>
+      </c>
+      <c r="P234" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R234" t="s">
+        <v>94</v>
+      </c>
+      <c r="T234">
+        <v>32</v>
+      </c>
+      <c r="U234" t="s">
+        <v>76</v>
+      </c>
+      <c r="W234" t="s">
+        <v>80</v>
+      </c>
+      <c r="X234">
+        <v>33.5</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>16</v>
+      </c>
+      <c r="B235">
+        <v>1</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G235" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I235" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J235" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M235" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N235" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O235" t="s">
+        <v>29</v>
+      </c>
+      <c r="P235" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>83</v>
+      </c>
+      <c r="R235" t="s">
+        <v>101</v>
+      </c>
+      <c r="T235">
+        <v>5</v>
+      </c>
+      <c r="U235" t="s">
+        <v>76</v>
+      </c>
+      <c r="W235" t="s">
+        <v>80</v>
+      </c>
+      <c r="X235">
+        <v>12</v>
+      </c>
+      <c r="Y235">
+        <v>12</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>16</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D236" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G236" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I236" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J236" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M236" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N236" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O236" t="s">
+        <v>29</v>
+      </c>
+      <c r="P236" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>83</v>
+      </c>
+      <c r="R236" t="s">
+        <v>101</v>
+      </c>
+      <c r="T236">
+        <v>8</v>
+      </c>
+      <c r="U236" t="s">
+        <v>78</v>
+      </c>
+      <c r="V236">
+        <v>2.34</v>
+      </c>
+      <c r="W236" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y236">
+        <v>12</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>16</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="C237" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D237" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G237" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I237" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J237" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M237" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N237" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O237" t="s">
+        <v>29</v>
+      </c>
+      <c r="P237" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>81</v>
+      </c>
+      <c r="R237" t="s">
+        <v>101</v>
+      </c>
+      <c r="T237">
+        <v>1</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>16</v>
+      </c>
+      <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G238" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I238" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J238" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M238" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N238" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O238" t="s">
+        <v>29</v>
+      </c>
+      <c r="P238" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>16</v>
+      </c>
+      <c r="B239">
+        <v>1</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G239" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I239" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J239" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M239" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N239" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O239" t="s">
+        <v>29</v>
+      </c>
+      <c r="P239" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>87</v>
+      </c>
+      <c r="T239">
+        <v>11</v>
+      </c>
+      <c r="U239" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>1680</v>
       </c>
     </row>
   </sheetData>
@@ -20065,7 +20797,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I152 I219:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I152 I219:I227 I240:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P191 P193:P195 P197:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722CFFC7-41B9-A845-9819-8629E304D250}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A3B4C-F7C5-2E4F-B601-2BCE81BC27FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="I219" authorId="0" shapeId="0" xr:uid="{43605336-FB98-9B40-BACD-4F81449A626C}">
+    <comment ref="I221" authorId="0" shapeId="0" xr:uid="{43605336-FB98-9B40-BACD-4F81449A626C}">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5032" uniqueCount="1683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5231" uniqueCount="1687">
   <si>
     <t>observation_id</t>
   </si>
@@ -5163,6 +5163,18 @@
   </si>
   <si>
     <t>1985-1986</t>
+  </si>
+  <si>
+    <t>white2008a</t>
+  </si>
+  <si>
+    <t>10.1111/j.1095-8649.2008.01843.x</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>2001-2006</t>
   </si>
 </sst>
 </file>
@@ -6249,11 +6261,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE239"/>
+  <dimension ref="A1:AE252"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A240" sqref="A240"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD253" sqref="AD253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11261,13 +11273,13 @@
         <v>1636</v>
       </c>
       <c r="N83" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O83" t="s">
         <v>27</v>
       </c>
       <c r="P83" t="s">
-        <v>1570</v>
+        <v>32</v>
       </c>
       <c r="Q83" t="s">
         <v>1423</v>
@@ -11279,22 +11291,22 @@
         <v>107</v>
       </c>
       <c r="T83">
-        <v>75.63</v>
+        <v>82.9</v>
       </c>
       <c r="U83" t="s">
         <v>78</v>
       </c>
       <c r="V83">
-        <v>73.94</v>
+        <v>74.33</v>
       </c>
       <c r="W83" t="s">
         <v>1580</v>
       </c>
       <c r="X83">
-        <v>78.040000000000006</v>
+        <v>85.88</v>
       </c>
       <c r="Y83">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -11332,34 +11344,40 @@
         <v>1636</v>
       </c>
       <c r="N84" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P84" t="s">
-        <v>47</v>
+        <v>1570</v>
       </c>
       <c r="Q84" t="s">
-        <v>88</v>
+        <v>1423</v>
       </c>
       <c r="R84" t="s">
-        <v>101</v>
+        <v>1435</v>
+      </c>
+      <c r="S84" t="s">
+        <v>107</v>
       </c>
       <c r="T84">
-        <v>8.1</v>
+        <v>75.63</v>
       </c>
       <c r="U84" t="s">
         <v>78</v>
       </c>
       <c r="V84">
-        <v>2.6</v>
+        <v>73.94</v>
       </c>
       <c r="W84" t="s">
-        <v>121</v>
+        <v>1580</v>
+      </c>
+      <c r="X84">
+        <v>78.040000000000006</v>
       </c>
       <c r="Y84">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -11397,34 +11415,40 @@
         <v>1636</v>
       </c>
       <c r="N85" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P85" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q85" t="s">
-        <v>88</v>
+        <v>1423</v>
       </c>
       <c r="R85" t="s">
-        <v>101</v>
+        <v>1435</v>
+      </c>
+      <c r="S85" t="s">
+        <v>107</v>
       </c>
       <c r="T85">
-        <v>4</v>
+        <v>79.22</v>
       </c>
       <c r="U85" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="V85">
+        <v>73.98</v>
       </c>
       <c r="W85" t="s">
-        <v>80</v>
+        <v>1580</v>
       </c>
       <c r="X85">
-        <v>12</v>
+        <v>81.53</v>
       </c>
       <c r="Y85">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -11468,19 +11492,28 @@
         <v>29</v>
       </c>
       <c r="P86" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q86" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="R86" t="s">
         <v>101</v>
       </c>
       <c r="T86">
-        <v>1</v>
+        <v>8.1</v>
+      </c>
+      <c r="U86" t="s">
+        <v>78</v>
+      </c>
+      <c r="V86">
+        <v>2.6</v>
+      </c>
+      <c r="W86" t="s">
+        <v>121</v>
       </c>
       <c r="Y86">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -11524,22 +11557,28 @@
         <v>29</v>
       </c>
       <c r="P87" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="Q87" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="R87" t="s">
         <v>101</v>
       </c>
       <c r="T87">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U87" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="W87" t="s">
+        <v>80</v>
+      </c>
+      <c r="X87">
+        <v>12</v>
       </c>
       <c r="Y87">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -11583,13 +11622,25 @@
         <v>29</v>
       </c>
       <c r="P88" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="Q88" t="s">
-        <v>89</v>
-      </c>
-      <c r="T88" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="R88" t="s">
+        <v>101</v>
+      </c>
+      <c r="T88">
+        <v>1</v>
+      </c>
+      <c r="Y88">
+        <v>25</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AD88" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.2">
@@ -11621,28 +11672,31 @@
         <v>1636</v>
       </c>
       <c r="N89" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O89" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="P89" t="s">
-        <v>134</v>
-      </c>
-      <c r="S89" t="s">
-        <v>1573</v>
+        <v>53</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>84</v>
+      </c>
+      <c r="R89" t="s">
+        <v>101</v>
       </c>
       <c r="T89">
-        <v>2.59</v>
+        <v>10</v>
+      </c>
+      <c r="U89" t="s">
+        <v>77</v>
       </c>
       <c r="Y89">
-        <v>226</v>
+        <v>25</v>
       </c>
       <c r="Z89">
         <v>0</v>
-      </c>
-      <c r="AC89" t="s">
-        <v>1627</v>
       </c>
       <c r="AD89" t="s">
         <v>1616</v>
@@ -11677,31 +11731,19 @@
         <v>1636</v>
       </c>
       <c r="N90" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O90" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="P90" t="s">
-        <v>135</v>
-      </c>
-      <c r="S90" t="s">
-        <v>1573</v>
-      </c>
-      <c r="T90">
-        <v>1.1319999999999999</v>
-      </c>
-      <c r="Y90">
-        <v>226</v>
-      </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AC90" t="s">
-        <v>1628</v>
-      </c>
-      <c r="AD90" t="s">
-        <v>1616</v>
+        <v>58</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>89</v>
+      </c>
+      <c r="T90" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.2">
@@ -11742,16 +11784,19 @@
         <v>134</v>
       </c>
       <c r="S91" t="s">
-        <v>1574</v>
-      </c>
-      <c r="T91" s="13">
-        <v>3.5199999999999998E-9</v>
+        <v>1573</v>
+      </c>
+      <c r="T91">
+        <v>2.59</v>
       </c>
       <c r="Y91">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="Z91">
         <v>0</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>1627</v>
       </c>
       <c r="AD91" t="s">
         <v>1616</v>
@@ -11795,16 +11840,19 @@
         <v>135</v>
       </c>
       <c r="S92" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="T92">
-        <v>3.008</v>
+        <v>1.1319999999999999</v>
       </c>
       <c r="Y92">
-        <v>169</v>
+        <v>226</v>
       </c>
       <c r="Z92">
         <v>0</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>1628</v>
       </c>
       <c r="AD92" t="s">
         <v>1616</v>
@@ -11851,10 +11899,10 @@
         <v>1574</v>
       </c>
       <c r="T93" s="13">
-        <v>1.51E-9</v>
+        <v>3.5199999999999998E-9</v>
       </c>
       <c r="Y93">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -11892,7 +11940,7 @@
         <v>1636</v>
       </c>
       <c r="N94" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O94" t="s">
         <v>139</v>
@@ -11904,10 +11952,10 @@
         <v>1574</v>
       </c>
       <c r="T94">
-        <v>3.14</v>
+        <v>3.008</v>
       </c>
       <c r="Y94">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -11945,7 +11993,7 @@
         <v>1636</v>
       </c>
       <c r="N95" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O95" t="s">
         <v>139</v>
@@ -11957,10 +12005,10 @@
         <v>1574</v>
       </c>
       <c r="T95" s="13">
-        <v>1.014E-8</v>
+        <v>1.51E-9</v>
       </c>
       <c r="Y95">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -11998,7 +12046,7 @@
         <v>1636</v>
       </c>
       <c r="N96" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O96" t="s">
         <v>139</v>
@@ -12010,10 +12058,10 @@
         <v>1574</v>
       </c>
       <c r="T96">
-        <v>2.8420000000000001</v>
+        <v>3.14</v>
       </c>
       <c r="Y96">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -12024,55 +12072,49 @@
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="D97" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="G97" t="s">
         <v>1446</v>
       </c>
       <c r="H97" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I97" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="J97" t="s">
-        <v>1583</v>
+        <v>1637</v>
       </c>
       <c r="M97" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="N97" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O97" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="P97" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>1423</v>
-      </c>
-      <c r="R97" t="s">
-        <v>92</v>
-      </c>
-      <c r="T97" s="15">
-        <v>184</v>
-      </c>
-      <c r="U97" t="s">
-        <v>77</v>
+        <v>134</v>
+      </c>
+      <c r="S97" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T97" s="13">
+        <v>1.014E-8</v>
       </c>
       <c r="Y97">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -12083,55 +12125,49 @@
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>1624</v>
+        <v>1634</v>
       </c>
       <c r="D98" t="s">
-        <v>1625</v>
+        <v>1635</v>
       </c>
       <c r="G98" t="s">
         <v>1446</v>
       </c>
       <c r="H98" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I98" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="J98" t="s">
-        <v>1583</v>
+        <v>1637</v>
       </c>
       <c r="M98" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="N98" t="s">
         <v>1438</v>
       </c>
       <c r="O98" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="P98" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>1423</v>
-      </c>
-      <c r="R98" t="s">
-        <v>92</v>
-      </c>
-      <c r="T98" s="15">
-        <v>177</v>
-      </c>
-      <c r="U98" s="15" t="s">
-        <v>77</v>
+        <v>135</v>
+      </c>
+      <c r="S98" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T98">
+        <v>2.8420000000000001</v>
       </c>
       <c r="Y98">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -12175,34 +12211,25 @@
         <v>27</v>
       </c>
       <c r="P99" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q99" t="s">
         <v>1423</v>
       </c>
       <c r="R99" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T99" s="15">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="U99" t="s">
-        <v>76</v>
-      </c>
-      <c r="W99" t="s">
-        <v>80</v>
-      </c>
-      <c r="X99">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="Y99">
         <v>222</v>
       </c>
       <c r="Z99">
         <v>0</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>1639</v>
       </c>
       <c r="AD99" t="s">
         <v>1616</v>
@@ -12243,28 +12270,25 @@
         <v>27</v>
       </c>
       <c r="P100" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q100" t="s">
         <v>1423</v>
       </c>
       <c r="R100" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T100" s="15">
-        <v>110</v>
-      </c>
-      <c r="U100" t="s">
-        <v>1614</v>
+        <v>177</v>
+      </c>
+      <c r="U100" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="Y100">
         <v>256</v>
       </c>
       <c r="Z100">
         <v>0</v>
-      </c>
-      <c r="AC100" t="s">
-        <v>1640</v>
       </c>
       <c r="AD100" t="s">
         <v>1616</v>
@@ -12299,13 +12323,13 @@
         <v>1638</v>
       </c>
       <c r="N101" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O101" t="s">
         <v>27</v>
       </c>
       <c r="P101" t="s">
-        <v>33</v>
+        <v>1570</v>
       </c>
       <c r="Q101" t="s">
         <v>1423</v>
@@ -12314,19 +12338,25 @@
         <v>1435</v>
       </c>
       <c r="T101" s="15">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="U101" t="s">
         <v>76</v>
       </c>
+      <c r="W101" t="s">
+        <v>80</v>
+      </c>
+      <c r="X101">
+        <v>120</v>
+      </c>
       <c r="Y101">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="Z101">
         <v>0</v>
       </c>
       <c r="AC101" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="AD101" t="s">
         <v>1616</v>
@@ -12367,7 +12397,7 @@
         <v>27</v>
       </c>
       <c r="P102" t="s">
-        <v>37</v>
+        <v>1570</v>
       </c>
       <c r="Q102" t="s">
         <v>1423</v>
@@ -12376,10 +12406,10 @@
         <v>1435</v>
       </c>
       <c r="T102" s="15">
-        <v>116</v>
-      </c>
-      <c r="U102" s="15" t="s">
-        <v>77</v>
+        <v>110</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1614</v>
       </c>
       <c r="Y102">
         <v>256</v>
@@ -12429,34 +12459,28 @@
         <v>27</v>
       </c>
       <c r="P103" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q103" t="s">
         <v>1423</v>
       </c>
       <c r="R103" t="s">
-        <v>96</v>
+        <v>1435</v>
       </c>
       <c r="T103" s="15">
-        <v>52</v>
-      </c>
-      <c r="U103" s="15" t="s">
-        <v>1614</v>
-      </c>
-      <c r="V103">
-        <v>52</v>
-      </c>
-      <c r="W103" t="s">
-        <v>80</v>
-      </c>
-      <c r="X103">
-        <v>53</v>
+        <v>108</v>
+      </c>
+      <c r="U103" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y103">
+        <v>256</v>
       </c>
       <c r="Z103">
         <v>0</v>
       </c>
       <c r="AC103" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="AD103" t="s">
         <v>1616</v>
@@ -12491,22 +12515,28 @@
         <v>1638</v>
       </c>
       <c r="N104" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O104" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P104" t="s">
-        <v>1576</v>
+        <v>37</v>
       </c>
       <c r="Q104" t="s">
-        <v>87</v>
+        <v>1423</v>
       </c>
       <c r="R104" t="s">
-        <v>101</v>
-      </c>
-      <c r="T104" t="s">
-        <v>1613</v>
+        <v>1435</v>
+      </c>
+      <c r="T104" s="15">
+        <v>116</v>
+      </c>
+      <c r="U104" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y104">
+        <v>256</v>
       </c>
       <c r="Z104">
         <v>0</v>
@@ -12547,31 +12577,40 @@
         <v>1638</v>
       </c>
       <c r="N105" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O105" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P105" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R105" t="s">
+        <v>96</v>
+      </c>
+      <c r="T105" s="15">
+        <v>52</v>
+      </c>
+      <c r="U105" s="15" t="s">
+        <v>1614</v>
+      </c>
+      <c r="V105">
+        <v>52</v>
+      </c>
+      <c r="W105" t="s">
+        <v>80</v>
+      </c>
+      <c r="X105">
         <v>53</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>84</v>
-      </c>
-      <c r="R105" t="s">
-        <v>101</v>
-      </c>
-      <c r="T105">
-        <v>35</v>
-      </c>
-      <c r="U105" t="s">
-        <v>77</v>
       </c>
       <c r="Z105">
         <v>0</v>
       </c>
       <c r="AC105" t="s">
-        <v>1641</v>
+        <v>1646</v>
       </c>
       <c r="AD105" t="s">
         <v>1616</v>
@@ -12612,7 +12651,7 @@
         <v>29</v>
       </c>
       <c r="P106" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="Q106" t="s">
         <v>87</v>
@@ -12621,13 +12660,13 @@
         <v>101</v>
       </c>
       <c r="T106" t="s">
-        <v>1578</v>
+        <v>1613</v>
       </c>
       <c r="Z106">
         <v>0</v>
       </c>
-      <c r="AC106" s="12" t="s">
-        <v>1643</v>
+      <c r="AC106" t="s">
+        <v>1640</v>
       </c>
       <c r="AD106" t="s">
         <v>1616</v>
@@ -12668,22 +12707,25 @@
         <v>29</v>
       </c>
       <c r="P107" t="s">
-        <v>1577</v>
+        <v>53</v>
       </c>
       <c r="Q107" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R107" t="s">
         <v>101</v>
       </c>
-      <c r="T107" t="s">
-        <v>1592</v>
+      <c r="T107">
+        <v>35</v>
+      </c>
+      <c r="U107" t="s">
+        <v>77</v>
       </c>
       <c r="Z107">
         <v>0</v>
       </c>
-      <c r="AC107" s="12" t="s">
-        <v>1643</v>
+      <c r="AC107" t="s">
+        <v>1641</v>
       </c>
       <c r="AD107" t="s">
         <v>1616</v>
@@ -12724,22 +12766,22 @@
         <v>29</v>
       </c>
       <c r="P108" t="s">
-        <v>58</v>
+        <v>1575</v>
       </c>
       <c r="Q108" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R108" t="s">
         <v>101</v>
       </c>
       <c r="T108" t="s">
-        <v>89</v>
+        <v>1578</v>
       </c>
       <c r="Z108">
         <v>0</v>
       </c>
       <c r="AC108" s="12" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="AD108" t="s">
         <v>1616</v>
@@ -12780,7 +12822,7 @@
         <v>29</v>
       </c>
       <c r="P109" t="s">
-        <v>51</v>
+        <v>1577</v>
       </c>
       <c r="Q109" t="s">
         <v>87</v>
@@ -12788,17 +12830,8 @@
       <c r="R109" t="s">
         <v>101</v>
       </c>
-      <c r="T109">
-        <v>7</v>
-      </c>
-      <c r="U109" t="s">
-        <v>76</v>
-      </c>
-      <c r="W109" t="s">
-        <v>80</v>
-      </c>
-      <c r="X109">
-        <v>8</v>
+      <c r="T109" t="s">
+        <v>1592</v>
       </c>
       <c r="Z109">
         <v>0</v>
@@ -12845,25 +12878,22 @@
         <v>29</v>
       </c>
       <c r="P110" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q110" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="R110" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="T110" t="s">
-        <v>1644</v>
-      </c>
-      <c r="Y110">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="Z110">
         <v>0</v>
       </c>
       <c r="AC110" s="12" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
       <c r="AD110" t="s">
         <v>1616</v>
@@ -12904,31 +12934,31 @@
         <v>29</v>
       </c>
       <c r="P111" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R111" t="s">
         <v>101</v>
       </c>
       <c r="T111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U111" t="s">
-        <v>78</v>
-      </c>
-      <c r="V111">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="W111" t="s">
         <v>80</v>
       </c>
       <c r="X111">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z111">
         <v>0</v>
+      </c>
+      <c r="AC111" s="12" t="s">
+        <v>1643</v>
       </c>
       <c r="AD111" t="s">
         <v>1616</v>
@@ -12963,209 +12993,227 @@
         <v>1638</v>
       </c>
       <c r="N112" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O112" t="s">
+        <v>29</v>
+      </c>
+      <c r="P112" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>81</v>
+      </c>
+      <c r="R112" t="s">
+        <v>131</v>
+      </c>
+      <c r="T112" t="s">
+        <v>1644</v>
+      </c>
+      <c r="Y112">
+        <v>27</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="12" t="s">
+        <v>1645</v>
+      </c>
+      <c r="AD112" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>9</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H113" t="s">
+        <v>688</v>
+      </c>
+      <c r="I113" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M113" t="s">
+        <v>1638</v>
+      </c>
+      <c r="N113" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O113" t="s">
+        <v>29</v>
+      </c>
+      <c r="P113" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>88</v>
+      </c>
+      <c r="R113" t="s">
+        <v>101</v>
+      </c>
+      <c r="T113">
+        <v>6</v>
+      </c>
+      <c r="U113" t="s">
+        <v>78</v>
+      </c>
+      <c r="V113">
+        <v>2</v>
+      </c>
+      <c r="W113" t="s">
+        <v>80</v>
+      </c>
+      <c r="X113">
+        <v>11</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AD113" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>9</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H114" t="s">
+        <v>688</v>
+      </c>
+      <c r="I114" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1638</v>
+      </c>
+      <c r="N114" t="s">
         <v>1440</v>
       </c>
-      <c r="O112" t="s">
+      <c r="O114" t="s">
         <v>139</v>
       </c>
-      <c r="P112" t="s">
+      <c r="P114" t="s">
         <v>134</v>
       </c>
-      <c r="S112" t="s">
+      <c r="S114" t="s">
         <v>1573</v>
       </c>
-      <c r="T112">
+      <c r="T114">
         <f xml:space="preserve"> 1.43 / 0.79</f>
         <v>1.8101265822784809</v>
       </c>
-      <c r="Y112">
+      <c r="Y114">
         <v>58</v>
       </c>
-      <c r="Z112">
+      <c r="Z114">
         <v>0</v>
       </c>
-      <c r="AC112" t="s">
+      <c r="AC114" t="s">
         <v>1627</v>
       </c>
-      <c r="AD112" t="s">
+      <c r="AD114" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A115">
         <v>9</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
         <v>1624</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>1625</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G115" t="s">
         <v>1446</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H115" t="s">
         <v>688</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I115" t="s">
         <v>1496</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J115" t="s">
         <v>1583</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M115" t="s">
         <v>1638</v>
       </c>
-      <c r="N113" t="s">
+      <c r="N115" t="s">
         <v>1440</v>
       </c>
-      <c r="O113" t="s">
+      <c r="O115" t="s">
         <v>139</v>
       </c>
-      <c r="P113" t="s">
+      <c r="P115" t="s">
         <v>135</v>
       </c>
-      <c r="S113" t="s">
+      <c r="S115" t="s">
         <v>1573</v>
       </c>
-      <c r="T113">
+      <c r="T115">
         <f xml:space="preserve"> 1/ 0.79</f>
         <v>1.2658227848101264</v>
       </c>
-      <c r="Y113">
+      <c r="Y115">
         <v>58</v>
-      </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
-      <c r="AC113" t="s">
-        <v>1628</v>
-      </c>
-      <c r="AD113" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>9</v>
-      </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-      <c r="C114" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G114" t="s">
-        <v>1446</v>
-      </c>
-      <c r="H114" t="s">
-        <v>688</v>
-      </c>
-      <c r="I114" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J114" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M114" t="s">
-        <v>1638</v>
-      </c>
-      <c r="N114" t="s">
-        <v>1440</v>
-      </c>
-      <c r="O114" t="s">
-        <v>139</v>
-      </c>
-      <c r="P114" t="s">
-        <v>134</v>
-      </c>
-      <c r="S114" t="s">
-        <v>1574</v>
-      </c>
-      <c r="T114" s="13">
-        <v>1.6199999999999999E-3</v>
-      </c>
-      <c r="Y114">
-        <v>30</v>
-      </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AD114" t="s">
-        <v>1616</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>9</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1625</v>
-      </c>
-      <c r="G115" t="s">
-        <v>1446</v>
-      </c>
-      <c r="H115" t="s">
-        <v>688</v>
-      </c>
-      <c r="I115" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J115" t="s">
-        <v>1583</v>
-      </c>
-      <c r="M115" t="s">
-        <v>1638</v>
-      </c>
-      <c r="N115" t="s">
-        <v>1440</v>
-      </c>
-      <c r="O115" t="s">
-        <v>139</v>
-      </c>
-      <c r="P115" t="s">
-        <v>135</v>
-      </c>
-      <c r="S115" t="s">
-        <v>1574</v>
-      </c>
-      <c r="T115">
-        <v>3.21</v>
-      </c>
-      <c r="Y115">
-        <v>30</v>
       </c>
       <c r="Z115">
         <v>0</v>
       </c>
+      <c r="AC115" t="s">
+        <v>1628</v>
+      </c>
       <c r="AD115" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-      <c r="C116" s="16" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D116" s="16" t="s">
-        <v>1599</v>
+      <c r="C116" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1625</v>
       </c>
       <c r="G116" t="s">
         <v>1446</v>
@@ -13174,69 +13222,51 @@
         <v>688</v>
       </c>
       <c r="I116" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="J116" t="s">
-        <v>1600</v>
+        <v>1583</v>
       </c>
       <c r="M116" t="s">
-        <v>1601</v>
+        <v>1638</v>
       </c>
       <c r="N116" t="s">
         <v>1440</v>
       </c>
       <c r="O116" t="s">
+        <v>139</v>
+      </c>
+      <c r="P116" t="s">
+        <v>134</v>
+      </c>
+      <c r="S116" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T116" s="13">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="Y116">
         <v>30</v>
       </c>
-      <c r="P116" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>1429</v>
-      </c>
-      <c r="R116" t="s">
-        <v>124</v>
-      </c>
-      <c r="S116" t="s">
-        <v>112</v>
-      </c>
-      <c r="T116">
-        <v>177.6</v>
-      </c>
-      <c r="V116">
-        <v>7.5</v>
-      </c>
-      <c r="W116" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y116">
-        <v>14</v>
-      </c>
       <c r="Z116">
-        <v>1</v>
-      </c>
-      <c r="AA116">
         <v>0</v>
-      </c>
-      <c r="AC116" t="s">
-        <v>1623</v>
       </c>
       <c r="AD116" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-      <c r="C117" s="16" t="s">
-        <v>1598</v>
-      </c>
-      <c r="D117" s="16" t="s">
-        <v>1599</v>
+      <c r="C117" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1625</v>
       </c>
       <c r="G117" t="s">
         <v>1446</v>
@@ -13245,58 +13275,40 @@
         <v>688</v>
       </c>
       <c r="I117" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="J117" t="s">
-        <v>1600</v>
+        <v>1583</v>
       </c>
       <c r="M117" t="s">
-        <v>1601</v>
+        <v>1638</v>
       </c>
       <c r="N117" t="s">
         <v>1440</v>
       </c>
       <c r="O117" t="s">
+        <v>139</v>
+      </c>
+      <c r="P117" t="s">
+        <v>135</v>
+      </c>
+      <c r="S117" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T117">
+        <v>3.21</v>
+      </c>
+      <c r="Y117">
         <v>30</v>
       </c>
-      <c r="P117" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>1565</v>
-      </c>
-      <c r="R117" t="s">
-        <v>124</v>
-      </c>
-      <c r="S117" t="s">
-        <v>112</v>
-      </c>
-      <c r="T117">
-        <v>0.313</v>
-      </c>
-      <c r="V117">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="W117" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y117">
-        <v>14</v>
-      </c>
       <c r="Z117">
-        <v>1</v>
-      </c>
-      <c r="AA117">
         <v>0</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>1623</v>
       </c>
       <c r="AD117" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>10</v>
       </c>
@@ -13331,7 +13343,7 @@
         <v>30</v>
       </c>
       <c r="P118" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q118" t="s">
         <v>1429</v>
@@ -13343,10 +13355,10 @@
         <v>112</v>
       </c>
       <c r="T118">
-        <v>53.8</v>
+        <v>177.6</v>
       </c>
       <c r="V118">
-        <v>15.9</v>
+        <v>7.5</v>
       </c>
       <c r="W118" t="s">
         <v>122</v>
@@ -13367,7 +13379,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>10</v>
       </c>
@@ -13402,7 +13414,7 @@
         <v>30</v>
       </c>
       <c r="P119" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q119" t="s">
         <v>1565</v>
@@ -13414,7 +13426,13 @@
         <v>112</v>
       </c>
       <c r="T119">
-        <v>10.675000000000001</v>
+        <v>0.313</v>
+      </c>
+      <c r="V119">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W119" t="s">
+        <v>122</v>
       </c>
       <c r="Y119">
         <v>14</v>
@@ -13432,7 +13450,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>10</v>
       </c>
@@ -13467,7 +13485,7 @@
         <v>30</v>
       </c>
       <c r="P120" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q120" t="s">
         <v>1429</v>
@@ -13476,13 +13494,13 @@
         <v>124</v>
       </c>
       <c r="S120" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T120">
-        <v>175.4</v>
+        <v>53.8</v>
       </c>
       <c r="V120">
-        <v>6.6</v>
+        <v>15.9</v>
       </c>
       <c r="W120" t="s">
         <v>122</v>
@@ -13503,7 +13521,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>10</v>
       </c>
@@ -13538,7 +13556,7 @@
         <v>30</v>
       </c>
       <c r="P121" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q121" t="s">
         <v>1565</v>
@@ -13547,16 +13565,10 @@
         <v>124</v>
       </c>
       <c r="S121" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T121">
-        <v>0.4</v>
-      </c>
-      <c r="V121">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="W121" t="s">
-        <v>122</v>
+        <v>10.675000000000001</v>
       </c>
       <c r="Y121">
         <v>14</v>
@@ -13574,7 +13586,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>10</v>
       </c>
@@ -13609,7 +13621,7 @@
         <v>30</v>
       </c>
       <c r="P122" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q122" t="s">
         <v>1429</v>
@@ -13621,10 +13633,10 @@
         <v>115</v>
       </c>
       <c r="T122">
-        <v>62.5</v>
+        <v>175.4</v>
       </c>
       <c r="V122">
-        <v>11.8</v>
+        <v>6.6</v>
       </c>
       <c r="W122" t="s">
         <v>122</v>
@@ -13645,7 +13657,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>10</v>
       </c>
@@ -13680,7 +13692,7 @@
         <v>30</v>
       </c>
       <c r="P123" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q123" t="s">
         <v>1565</v>
@@ -13692,7 +13704,13 @@
         <v>115</v>
       </c>
       <c r="T123">
-        <v>10.753</v>
+        <v>0.4</v>
+      </c>
+      <c r="V123">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="W123" t="s">
+        <v>122</v>
       </c>
       <c r="Y123">
         <v>14</v>
@@ -13710,7 +13728,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -13745,7 +13763,7 @@
         <v>30</v>
       </c>
       <c r="P124" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q124" t="s">
         <v>1429</v>
@@ -13754,13 +13772,13 @@
         <v>124</v>
       </c>
       <c r="S124" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T124">
-        <v>173.9</v>
+        <v>62.5</v>
       </c>
       <c r="V124">
-        <v>6</v>
+        <v>11.8</v>
       </c>
       <c r="W124" t="s">
         <v>122</v>
@@ -13775,13 +13793,13 @@
         <v>0</v>
       </c>
       <c r="AC124" t="s">
-        <v>1647</v>
+        <v>1623</v>
       </c>
       <c r="AD124" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -13816,7 +13834,7 @@
         <v>30</v>
       </c>
       <c r="P125" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q125" t="s">
         <v>1565</v>
@@ -13825,16 +13843,10 @@
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="T125">
-        <v>67.5</v>
-      </c>
-      <c r="V125">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="W125" t="s">
-        <v>122</v>
+        <v>10.753</v>
       </c>
       <c r="Y125">
         <v>14</v>
@@ -13846,13 +13858,13 @@
         <v>0</v>
       </c>
       <c r="AC125" t="s">
-        <v>1647</v>
+        <v>1623</v>
       </c>
       <c r="AD125" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>10</v>
       </c>
@@ -13887,7 +13899,7 @@
         <v>30</v>
       </c>
       <c r="P126" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q126" t="s">
         <v>1429</v>
@@ -13899,10 +13911,10 @@
         <v>119</v>
       </c>
       <c r="T126">
-        <v>0.49199999999999999</v>
+        <v>173.9</v>
       </c>
       <c r="V126">
-        <v>0.109</v>
+        <v>6</v>
       </c>
       <c r="W126" t="s">
         <v>122</v>
@@ -13923,7 +13935,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>10</v>
       </c>
@@ -13958,7 +13970,7 @@
         <v>30</v>
       </c>
       <c r="P127" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q127" t="s">
         <v>1565</v>
@@ -13970,7 +13982,13 @@
         <v>119</v>
       </c>
       <c r="T127">
-        <v>10.86</v>
+        <v>67.5</v>
+      </c>
+      <c r="V127">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W127" t="s">
+        <v>122</v>
       </c>
       <c r="Y127">
         <v>14</v>
@@ -13988,18 +14006,18 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>10</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-      <c r="C128" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D128" t="s">
-        <v>1604</v>
+      <c r="C128" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>1599</v>
       </c>
       <c r="G128" t="s">
         <v>1446</v>
@@ -14017,37 +14035,46 @@
         <v>1601</v>
       </c>
       <c r="N128" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O128" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P128" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="Q128" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="R128" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="S128" t="s">
+        <v>119</v>
       </c>
       <c r="T128">
-        <v>200.3</v>
-      </c>
-      <c r="U128" t="s">
-        <v>77</v>
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="V128">
+        <v>0.109</v>
+      </c>
+      <c r="W128" t="s">
+        <v>122</v>
       </c>
       <c r="Y128">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z128">
+        <v>1</v>
+      </c>
+      <c r="AA128">
         <v>0</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>1647</v>
       </c>
       <c r="AD128" t="s">
         <v>1616</v>
-      </c>
-      <c r="AE128" t="s">
-        <v>1651</v>
       </c>
     </row>
     <row r="129" spans="1:31" x14ac:dyDescent="0.2">
@@ -14057,11 +14084,11 @@
       <c r="B129">
         <v>1</v>
       </c>
-      <c r="C129" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D129" t="s">
-        <v>1604</v>
+      <c r="C129" s="16" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>1599</v>
       </c>
       <c r="G129" t="s">
         <v>1446</v>
@@ -14079,63 +14106,69 @@
         <v>1601</v>
       </c>
       <c r="N129" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O129" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P129" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q129" t="s">
-        <v>1423</v>
+        <v>1565</v>
       </c>
       <c r="R129" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="S129" t="s">
+        <v>119</v>
       </c>
       <c r="T129">
-        <v>169</v>
-      </c>
-      <c r="U129" t="s">
-        <v>77</v>
+        <v>10.86</v>
       </c>
       <c r="Y129">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
         <v>0</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>1647</v>
       </c>
       <c r="AD129" t="s">
         <v>1616</v>
       </c>
-      <c r="AE129" t="s">
-        <v>1651</v>
-      </c>
     </row>
     <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-      <c r="C130" s="16" t="s">
-        <v>1648</v>
+      <c r="C130" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1604</v>
       </c>
       <c r="G130" t="s">
         <v>1446</v>
       </c>
       <c r="H130" t="s">
-        <v>978</v>
+        <v>688</v>
       </c>
       <c r="I130" t="s">
-        <v>1460</v>
+        <v>1494</v>
       </c>
       <c r="J130" t="s">
-        <v>1649</v>
+        <v>1600</v>
       </c>
       <c r="M130" t="s">
-        <v>1650</v>
+        <v>1601</v>
       </c>
       <c r="N130" t="s">
         <v>1439</v>
@@ -14153,13 +14186,13 @@
         <v>92</v>
       </c>
       <c r="T130">
-        <v>138</v>
+        <v>200.3</v>
       </c>
       <c r="U130" t="s">
         <v>77</v>
       </c>
       <c r="Y130">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="Z130">
         <v>0</v>
@@ -14173,28 +14206,31 @@
     </row>
     <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-      <c r="C131" s="16" t="s">
-        <v>1648</v>
+      <c r="C131" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1604</v>
       </c>
       <c r="G131" t="s">
         <v>1446</v>
       </c>
       <c r="H131" t="s">
-        <v>978</v>
+        <v>688</v>
       </c>
       <c r="I131" t="s">
-        <v>1460</v>
+        <v>1494</v>
       </c>
       <c r="J131" t="s">
-        <v>1649</v>
+        <v>1600</v>
       </c>
       <c r="M131" t="s">
-        <v>1650</v>
+        <v>1601</v>
       </c>
       <c r="N131" t="s">
         <v>1438</v>
@@ -14212,13 +14248,13 @@
         <v>92</v>
       </c>
       <c r="T131">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="U131" t="s">
         <v>77</v>
       </c>
       <c r="Y131">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="Z131">
         <v>0</v>
@@ -14256,34 +14292,28 @@
         <v>1650</v>
       </c>
       <c r="N132" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O132" t="s">
         <v>27</v>
       </c>
       <c r="P132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q132" t="s">
         <v>1423</v>
       </c>
       <c r="R132" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T132">
-        <v>47.59</v>
+        <v>138</v>
       </c>
       <c r="U132" t="s">
-        <v>78</v>
-      </c>
-      <c r="V132">
-        <v>1.39</v>
-      </c>
-      <c r="W132" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="Y132">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Z132">
         <v>0</v>
@@ -14321,34 +14351,28 @@
         <v>1650</v>
       </c>
       <c r="N133" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O133" t="s">
         <v>27</v>
       </c>
       <c r="P133" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q133" t="s">
         <v>1423</v>
       </c>
       <c r="R133" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="T133">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="U133" t="s">
-        <v>76</v>
-      </c>
-      <c r="W133" t="s">
-        <v>80</v>
-      </c>
-      <c r="X133">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="Y133">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z133">
         <v>0</v>
@@ -14386,28 +14410,34 @@
         <v>1650</v>
       </c>
       <c r="N134" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O134" t="s">
         <v>27</v>
       </c>
       <c r="P134" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q134" t="s">
         <v>1423</v>
       </c>
       <c r="R134" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T134">
-        <v>81</v>
+        <v>47.59</v>
       </c>
       <c r="U134" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="V134">
+        <v>1.39</v>
+      </c>
+      <c r="W134" t="s">
+        <v>121</v>
       </c>
       <c r="Y134">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="Z134">
         <v>0</v>
@@ -14445,28 +14475,34 @@
         <v>1650</v>
       </c>
       <c r="N135" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O135" t="s">
         <v>27</v>
       </c>
       <c r="P135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q135" t="s">
         <v>1423</v>
       </c>
       <c r="R135" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T135">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="U135" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="W135" t="s">
+        <v>80</v>
+      </c>
+      <c r="X135">
+        <v>49</v>
       </c>
       <c r="Y135">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="Z135">
         <v>0</v>
@@ -14504,7 +14540,7 @@
         <v>1650</v>
       </c>
       <c r="N136" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O136" t="s">
         <v>27</v>
@@ -14516,16 +14552,16 @@
         <v>1423</v>
       </c>
       <c r="R136" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T136">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="U136" t="s">
         <v>76</v>
       </c>
       <c r="Y136">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Z136">
         <v>0</v>
@@ -14563,7 +14599,7 @@
         <v>1650</v>
       </c>
       <c r="N137" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O137" t="s">
         <v>27</v>
@@ -14575,16 +14611,16 @@
         <v>1423</v>
       </c>
       <c r="R137" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T137">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="U137" t="s">
         <v>77</v>
       </c>
       <c r="Y137">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Z137">
         <v>0</v>
@@ -14622,23 +14658,28 @@
         <v>1650</v>
       </c>
       <c r="N138" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O138" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="P138" t="s">
-        <v>134</v>
-      </c>
-      <c r="S138" t="s">
-        <v>1574</v>
+        <v>33</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R138" t="s">
+        <v>1435</v>
       </c>
       <c r="T138">
-        <f>EXP(-5.8)</f>
-        <v>3.0275547453758153E-3</v>
+        <v>90</v>
+      </c>
+      <c r="U138" t="s">
+        <v>76</v>
       </c>
       <c r="Y138">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Z138">
         <v>0</v>
@@ -14676,22 +14717,28 @@
         <v>1650</v>
       </c>
       <c r="N139" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O139" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="P139" t="s">
-        <v>135</v>
-      </c>
-      <c r="S139" t="s">
-        <v>1596</v>
+        <v>37</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R139" t="s">
+        <v>1435</v>
       </c>
       <c r="T139">
-        <v>3.12</v>
+        <v>100</v>
+      </c>
+      <c r="U139" t="s">
+        <v>77</v>
       </c>
       <c r="Y139">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="Z139">
         <v>0</v>
@@ -14729,7 +14776,7 @@
         <v>1650</v>
       </c>
       <c r="N140" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O140" t="s">
         <v>139</v>
@@ -14738,14 +14785,14 @@
         <v>134</v>
       </c>
       <c r="S140" t="s">
-        <v>1596</v>
+        <v>1574</v>
       </c>
       <c r="T140">
-        <f>EXP(-6.09)</f>
-        <v>2.265408914814322E-3</v>
+        <f>EXP(-5.8)</f>
+        <v>3.0275547453758153E-3</v>
       </c>
       <c r="Y140">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Z140">
         <v>0</v>
@@ -14783,7 +14830,7 @@
         <v>1650</v>
       </c>
       <c r="N141" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O141" t="s">
         <v>139</v>
@@ -14795,10 +14842,10 @@
         <v>1596</v>
       </c>
       <c r="T141">
-        <v>3.24</v>
+        <v>3.12</v>
       </c>
       <c r="Y141">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="Z141">
         <v>0</v>
@@ -14839,31 +14886,20 @@
         <v>1439</v>
       </c>
       <c r="O142" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="P142" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>83</v>
-      </c>
-      <c r="R142" t="s">
-        <v>101</v>
+        <v>134</v>
+      </c>
+      <c r="S142" t="s">
+        <v>1596</v>
       </c>
       <c r="T142">
-        <v>8.5</v>
-      </c>
-      <c r="U142" t="s">
-        <v>78</v>
-      </c>
-      <c r="V142">
-        <v>1.9</v>
-      </c>
-      <c r="W142" t="s">
-        <v>121</v>
+        <f>EXP(-6.09)</f>
+        <v>2.265408914814322E-3</v>
       </c>
       <c r="Y142">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Z142">
         <v>0</v>
@@ -14904,31 +14940,19 @@
         <v>1439</v>
       </c>
       <c r="O143" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="P143" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>83</v>
-      </c>
-      <c r="R143" t="s">
-        <v>101</v>
+        <v>135</v>
+      </c>
+      <c r="S143" t="s">
+        <v>1596</v>
       </c>
       <c r="T143">
-        <v>6</v>
-      </c>
-      <c r="U143" t="s">
-        <v>76</v>
-      </c>
-      <c r="W143" t="s">
-        <v>80</v>
-      </c>
-      <c r="X143">
-        <v>14</v>
+        <v>3.24</v>
       </c>
       <c r="Y143">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="Z143">
         <v>0</v>
@@ -14972,7 +14996,7 @@
         <v>29</v>
       </c>
       <c r="P144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q144" t="s">
         <v>83</v>
@@ -14981,19 +15005,19 @@
         <v>101</v>
       </c>
       <c r="T144">
-        <v>4.5999999999999996</v>
+        <v>8.5</v>
       </c>
       <c r="U144" t="s">
         <v>78</v>
       </c>
       <c r="V144">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="W144" t="s">
         <v>121</v>
       </c>
       <c r="Y144">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z144">
         <v>0</v>
@@ -15037,7 +15061,7 @@
         <v>29</v>
       </c>
       <c r="P145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q145" t="s">
         <v>83</v>
@@ -15046,7 +15070,7 @@
         <v>101</v>
       </c>
       <c r="T145">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U145" t="s">
         <v>76</v>
@@ -15055,10 +15079,10 @@
         <v>80</v>
       </c>
       <c r="X145">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Y145">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Z145">
         <v>0</v>
@@ -15102,22 +15126,28 @@
         <v>29</v>
       </c>
       <c r="P146" t="s">
-        <v>1575</v>
+        <v>47</v>
       </c>
       <c r="Q146" t="s">
-        <v>87</v>
-      </c>
-      <c r="T146" t="s">
-        <v>1579</v>
+        <v>83</v>
+      </c>
+      <c r="R146" t="s">
+        <v>101</v>
+      </c>
+      <c r="T146">
+        <v>4.5999999999999996</v>
       </c>
       <c r="U146" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="V146">
+        <v>1.6</v>
       </c>
       <c r="W146" t="s">
-        <v>80</v>
-      </c>
-      <c r="X146" t="s">
-        <v>1591</v>
+        <v>121</v>
+      </c>
+      <c r="Y146">
+        <v>21</v>
       </c>
       <c r="Z146">
         <v>0</v>
@@ -15161,13 +15191,16 @@
         <v>29</v>
       </c>
       <c r="P147" t="s">
-        <v>1577</v>
+        <v>47</v>
       </c>
       <c r="Q147" t="s">
-        <v>87</v>
-      </c>
-      <c r="T147" t="s">
-        <v>1579</v>
+        <v>83</v>
+      </c>
+      <c r="R147" t="s">
+        <v>101</v>
+      </c>
+      <c r="T147">
+        <v>2</v>
       </c>
       <c r="U147" t="s">
         <v>76</v>
@@ -15175,8 +15208,11 @@
       <c r="W147" t="s">
         <v>80</v>
       </c>
-      <c r="X147" t="s">
-        <v>1578</v>
+      <c r="X147">
+        <v>7</v>
+      </c>
+      <c r="Y147">
+        <v>21</v>
       </c>
       <c r="Z147">
         <v>0</v>
@@ -15220,16 +15256,22 @@
         <v>29</v>
       </c>
       <c r="P148" t="s">
-        <v>51</v>
+        <v>1575</v>
       </c>
       <c r="Q148" t="s">
         <v>87</v>
       </c>
-      <c r="T148">
-        <v>12</v>
+      <c r="T148" t="s">
+        <v>1579</v>
       </c>
       <c r="U148" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="W148" t="s">
+        <v>80</v>
+      </c>
+      <c r="X148" t="s">
+        <v>1591</v>
       </c>
       <c r="Z148">
         <v>0</v>
@@ -15273,28 +15315,22 @@
         <v>29</v>
       </c>
       <c r="P149" t="s">
-        <v>53</v>
+        <v>1577</v>
       </c>
       <c r="Q149" t="s">
-        <v>84</v>
-      </c>
-      <c r="R149" t="s">
-        <v>101</v>
-      </c>
-      <c r="T149">
-        <v>28.6</v>
+        <v>87</v>
+      </c>
+      <c r="T149" t="s">
+        <v>1579</v>
       </c>
       <c r="U149" t="s">
-        <v>78</v>
-      </c>
-      <c r="V149">
-        <v>2.6</v>
+        <v>76</v>
       </c>
       <c r="W149" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y149">
-        <v>15</v>
+        <v>80</v>
+      </c>
+      <c r="X149" t="s">
+        <v>1578</v>
       </c>
       <c r="Z149">
         <v>0</v>
@@ -15338,28 +15374,16 @@
         <v>29</v>
       </c>
       <c r="P150" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q150" t="s">
-        <v>84</v>
-      </c>
-      <c r="R150" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="T150">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="U150" t="s">
-        <v>76</v>
-      </c>
-      <c r="W150" t="s">
-        <v>80</v>
-      </c>
-      <c r="X150">
-        <v>31</v>
-      </c>
-      <c r="Y150">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="Z150">
         <v>0</v>
@@ -15403,20 +15427,28 @@
         <v>29</v>
       </c>
       <c r="P151" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="Q151" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="R151" t="s">
+        <v>101</v>
       </c>
       <c r="T151">
-        <f>56/41</f>
-        <v>1.3658536585365855</v>
+        <v>28.6</v>
       </c>
       <c r="U151" t="s">
-        <v>1594</v>
+        <v>78</v>
+      </c>
+      <c r="V151">
+        <v>2.6</v>
+      </c>
+      <c r="W151" t="s">
+        <v>121</v>
       </c>
       <c r="Y151">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="Z151">
         <v>0</v>
@@ -15460,16 +15492,16 @@
         <v>29</v>
       </c>
       <c r="P152" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q152" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="R152" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="T152">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="U152" t="s">
         <v>76</v>
@@ -15478,7 +15510,10 @@
         <v>80</v>
       </c>
       <c r="X152">
-        <v>3</v>
+        <v>31</v>
+      </c>
+      <c r="Y152">
+        <v>15</v>
       </c>
       <c r="Z152">
         <v>0</v>
@@ -15492,55 +15527,50 @@
     </row>
     <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D153" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="G153" t="s">
         <v>1446</v>
       </c>
       <c r="H153" t="s">
-        <v>1248</v>
+        <v>978</v>
       </c>
       <c r="I153" t="s">
-        <v>1494</v>
+        <v>1460</v>
       </c>
       <c r="J153" t="s">
-        <v>1494</v>
+        <v>1649</v>
       </c>
       <c r="M153" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="N153" t="s">
         <v>1439</v>
       </c>
       <c r="O153" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P153" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="Q153" t="s">
-        <v>1423</v>
-      </c>
-      <c r="R153" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="T153">
-        <v>439.7</v>
+        <f>56/41</f>
+        <v>1.3658536585365855</v>
       </c>
       <c r="U153" t="s">
-        <v>77</v>
+        <v>1594</v>
       </c>
       <c r="Y153">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="Z153">
         <v>0</v>
@@ -15549,60 +15579,60 @@
         <v>1616</v>
       </c>
       <c r="AE153" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B154">
         <v>1</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="G154" t="s">
         <v>1446</v>
       </c>
       <c r="H154" t="s">
-        <v>1248</v>
+        <v>978</v>
       </c>
       <c r="I154" t="s">
-        <v>1494</v>
+        <v>1460</v>
       </c>
       <c r="J154" t="s">
-        <v>1494</v>
+        <v>1649</v>
       </c>
       <c r="M154" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="N154" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O154" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P154" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="Q154" t="s">
-        <v>1423</v>
+        <v>81</v>
       </c>
       <c r="R154" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="T154">
-        <v>369.3</v>
+        <v>2</v>
       </c>
       <c r="U154" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y154">
-        <v>65</v>
+        <v>76</v>
+      </c>
+      <c r="W154" t="s">
+        <v>80</v>
+      </c>
+      <c r="X154">
+        <v>3</v>
       </c>
       <c r="Z154">
         <v>0</v>
@@ -15611,7 +15641,7 @@
         <v>1616</v>
       </c>
       <c r="AE154" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="155" spans="1:31" x14ac:dyDescent="0.2">
@@ -15643,34 +15673,28 @@
         <v>1654</v>
       </c>
       <c r="N155" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O155" t="s">
         <v>27</v>
       </c>
       <c r="P155" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q155" t="s">
         <v>1423</v>
       </c>
       <c r="R155" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T155">
-        <v>227.9</v>
-      </c>
-      <c r="V155">
-        <v>214.9</v>
-      </c>
-      <c r="W155" t="s">
-        <v>1580</v>
-      </c>
-      <c r="X155">
-        <v>242.9</v>
+        <v>439.7</v>
+      </c>
+      <c r="U155" t="s">
+        <v>77</v>
       </c>
       <c r="Y155">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Z155">
         <v>0</v>
@@ -15711,13 +15735,13 @@
         <v>1654</v>
       </c>
       <c r="N156" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O156" t="s">
         <v>27</v>
       </c>
       <c r="P156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q156" t="s">
         <v>1423</v>
@@ -15726,13 +15750,13 @@
         <v>92</v>
       </c>
       <c r="T156">
-        <v>242</v>
+        <v>369.3</v>
       </c>
       <c r="U156" t="s">
         <v>77</v>
       </c>
       <c r="Y156">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="Z156">
         <v>0</v>
@@ -15773,28 +15797,34 @@
         <v>1654</v>
       </c>
       <c r="N157" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O157" t="s">
         <v>27</v>
       </c>
       <c r="P157" t="s">
-        <v>37</v>
+        <v>1570</v>
       </c>
       <c r="Q157" t="s">
         <v>1423</v>
       </c>
       <c r="R157" t="s">
-        <v>92</v>
+        <v>1435</v>
       </c>
       <c r="T157">
-        <v>242</v>
-      </c>
-      <c r="U157" t="s">
-        <v>77</v>
+        <v>227.9</v>
+      </c>
+      <c r="V157">
+        <v>214.9</v>
+      </c>
+      <c r="W157" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X157">
+        <v>242.9</v>
       </c>
       <c r="Y157">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="Z157">
         <v>0</v>
@@ -15841,7 +15871,7 @@
         <v>27</v>
       </c>
       <c r="P158" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q158" t="s">
         <v>1423</v>
@@ -15850,10 +15880,10 @@
         <v>92</v>
       </c>
       <c r="T158">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="U158" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y158">
         <v>26</v>
@@ -15903,7 +15933,7 @@
         <v>27</v>
       </c>
       <c r="P159" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q159" t="s">
         <v>1423</v>
@@ -15912,10 +15942,10 @@
         <v>92</v>
       </c>
       <c r="T159">
-        <v>226.7</v>
+        <v>242</v>
       </c>
       <c r="U159" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y159">
         <v>59</v>
@@ -15959,28 +15989,28 @@
         <v>1654</v>
       </c>
       <c r="N160" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O160" t="s">
         <v>27</v>
       </c>
       <c r="P160" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q160" t="s">
         <v>1423</v>
       </c>
       <c r="R160" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T160">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="U160" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y160">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Z160">
         <v>0</v>
@@ -16021,28 +16051,28 @@
         <v>1654</v>
       </c>
       <c r="N161" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O161" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P161" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q161" t="s">
-        <v>81</v>
+        <v>1423</v>
       </c>
       <c r="R161" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="T161">
-        <v>39.1</v>
+        <v>226.7</v>
       </c>
       <c r="U161" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y161">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="Z161">
         <v>0</v>
@@ -16086,25 +16116,25 @@
         <v>1438</v>
       </c>
       <c r="O162" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P162" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q162" t="s">
-        <v>81</v>
+        <v>1423</v>
       </c>
       <c r="R162" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="T162">
-        <v>31.7</v>
+        <v>71</v>
       </c>
       <c r="U162" t="s">
         <v>77</v>
       </c>
       <c r="Y162">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="Z162">
         <v>0</v>
@@ -16145,13 +16175,13 @@
         <v>1654</v>
       </c>
       <c r="N163" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O163" t="s">
         <v>28</v>
       </c>
       <c r="P163" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q163" t="s">
         <v>81</v>
@@ -16160,19 +16190,13 @@
         <v>100</v>
       </c>
       <c r="T163">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="V163">
-        <v>7.4</v>
-      </c>
-      <c r="W163" t="s">
-        <v>1580</v>
-      </c>
-      <c r="X163">
-        <v>9.5</v>
+        <v>39.1</v>
+      </c>
+      <c r="U163" t="s">
+        <v>77</v>
       </c>
       <c r="Y163">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="Z163">
         <v>0</v>
@@ -16213,13 +16237,13 @@
         <v>1654</v>
       </c>
       <c r="N164" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O164" t="s">
         <v>28</v>
       </c>
       <c r="P164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q164" t="s">
         <v>81</v>
@@ -16228,13 +16252,13 @@
         <v>100</v>
       </c>
       <c r="T164">
-        <v>6.7</v>
+        <v>31.7</v>
       </c>
       <c r="U164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y164">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="Z164">
         <v>0</v>
@@ -16275,13 +16299,13 @@
         <v>1654</v>
       </c>
       <c r="N165" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O165" t="s">
         <v>28</v>
       </c>
       <c r="P165" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q165" t="s">
         <v>81</v>
@@ -16290,13 +16314,19 @@
         <v>100</v>
       </c>
       <c r="T165">
-        <v>8.6</v>
-      </c>
-      <c r="U165" t="s">
-        <v>76</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="V165">
+        <v>7.4</v>
+      </c>
+      <c r="W165" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X165">
+        <v>9.5</v>
       </c>
       <c r="Y165">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="Z165">
         <v>0</v>
@@ -16343,7 +16373,7 @@
         <v>28</v>
       </c>
       <c r="P166" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q166" t="s">
         <v>81</v>
@@ -16352,10 +16382,10 @@
         <v>100</v>
       </c>
       <c r="T166">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="U166" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y166">
         <v>24</v>
@@ -16405,7 +16435,7 @@
         <v>28</v>
       </c>
       <c r="P167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q167" t="s">
         <v>81</v>
@@ -16414,10 +16444,10 @@
         <v>100</v>
       </c>
       <c r="T167">
-        <v>9.8000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="U167" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y167">
         <v>42</v>
@@ -16461,28 +16491,31 @@
         <v>1654</v>
       </c>
       <c r="N168" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O168" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="P168" t="s">
-        <v>134</v>
-      </c>
-      <c r="S168" t="s">
-        <v>1573</v>
+        <v>42</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>81</v>
+      </c>
+      <c r="R168" t="s">
+        <v>100</v>
       </c>
       <c r="T168">
-        <v>4.9000000000000004</v>
+        <v>7.6</v>
+      </c>
+      <c r="U168" t="s">
+        <v>77</v>
       </c>
       <c r="Y168">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="Z168">
         <v>0</v>
-      </c>
-      <c r="AC168" t="s">
-        <v>1627</v>
       </c>
       <c r="AD168" t="s">
         <v>1616</v>
@@ -16520,28 +16553,31 @@
         <v>1654</v>
       </c>
       <c r="N169" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O169" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="P169" t="s">
-        <v>135</v>
-      </c>
-      <c r="S169" t="s">
-        <v>1573</v>
+        <v>42</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>81</v>
+      </c>
+      <c r="R169" t="s">
+        <v>100</v>
       </c>
       <c r="T169">
-        <v>1.29</v>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U169" t="s">
+        <v>77</v>
       </c>
       <c r="Y169">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="Z169">
         <v>0</v>
-      </c>
-      <c r="AC169" t="s">
-        <v>1628</v>
       </c>
       <c r="AD169" t="s">
         <v>1616</v>
@@ -16591,16 +16627,16 @@
         <v>1573</v>
       </c>
       <c r="T170">
-        <v>7.4189999999999996</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Y170">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="Z170">
         <v>0</v>
       </c>
       <c r="AC170" t="s">
-        <v>1656</v>
+        <v>1627</v>
       </c>
       <c r="AD170" t="s">
         <v>1616</v>
@@ -16650,16 +16686,16 @@
         <v>1573</v>
       </c>
       <c r="T171">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="Y171">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="Z171">
         <v>0</v>
       </c>
       <c r="AC171" t="s">
-        <v>1657</v>
+        <v>1628</v>
       </c>
       <c r="AD171" t="s">
         <v>1616</v>
@@ -16700,28 +16736,25 @@
         <v>1440</v>
       </c>
       <c r="O172" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="P172" t="s">
-        <v>71</v>
-      </c>
-      <c r="R172" t="s">
-        <v>124</v>
+        <v>134</v>
+      </c>
+      <c r="S172" t="s">
+        <v>1573</v>
       </c>
       <c r="T172">
-        <v>35</v>
+        <v>7.4189999999999996</v>
       </c>
       <c r="Y172">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Z172">
         <v>0</v>
       </c>
-      <c r="AA172">
-        <v>1</v>
-      </c>
       <c r="AC172" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="AD172" t="s">
         <v>1616</v>
@@ -16762,28 +16795,25 @@
         <v>1440</v>
       </c>
       <c r="O173" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="P173" t="s">
-        <v>71</v>
-      </c>
-      <c r="R173" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="S173" t="s">
+        <v>1573</v>
       </c>
       <c r="T173">
-        <v>64</v>
+        <v>1.39</v>
       </c>
       <c r="Y173">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Z173">
         <v>0</v>
       </c>
-      <c r="AA173">
-        <v>1</v>
-      </c>
       <c r="AC173" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="AD173" t="s">
         <v>1616</v>
@@ -16827,13 +16857,13 @@
         <v>30</v>
       </c>
       <c r="P174" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="R174" t="s">
         <v>124</v>
       </c>
       <c r="T174">
-        <v>17.23</v>
+        <v>35</v>
       </c>
       <c r="Y174">
         <v>100</v>
@@ -16845,7 +16875,7 @@
         <v>1</v>
       </c>
       <c r="AC174" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="AD174" t="s">
         <v>1616</v>
@@ -16889,25 +16919,13 @@
         <v>30</v>
       </c>
       <c r="P175" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="R175" t="s">
         <v>124</v>
       </c>
-      <c r="S175" t="s">
-        <v>110</v>
-      </c>
       <c r="T175">
-        <v>402.7</v>
-      </c>
-      <c r="V175">
-        <v>363.8</v>
-      </c>
-      <c r="W175" t="s">
-        <v>1580</v>
-      </c>
-      <c r="X175">
-        <v>454.5</v>
+        <v>64</v>
       </c>
       <c r="Y175">
         <v>100</v>
@@ -16963,25 +16981,13 @@
         <v>30</v>
       </c>
       <c r="P176" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="R176" t="s">
         <v>124</v>
       </c>
-      <c r="S176" t="s">
-        <v>110</v>
-      </c>
       <c r="T176">
-        <v>7.9000000000000001E-2</v>
-      </c>
-      <c r="V176">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="W176" t="s">
-        <v>1580</v>
-      </c>
-      <c r="X176">
-        <v>9.5000000000000001E-2</v>
+        <v>17.23</v>
       </c>
       <c r="Y176">
         <v>100</v>
@@ -17037,7 +17043,7 @@
         <v>30</v>
       </c>
       <c r="P177" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R177" t="s">
         <v>124</v>
@@ -17046,7 +17052,16 @@
         <v>110</v>
       </c>
       <c r="T177">
-        <v>70</v>
+        <v>402.7</v>
+      </c>
+      <c r="V177">
+        <v>363.8</v>
+      </c>
+      <c r="W177" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X177">
+        <v>454.5</v>
       </c>
       <c r="Y177">
         <v>100</v>
@@ -17096,25 +17111,43 @@
         <v>1654</v>
       </c>
       <c r="N178" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O178" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P178" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="R178" t="s">
-        <v>101</v>
+        <v>124</v>
+      </c>
+      <c r="S178" t="s">
+        <v>110</v>
       </c>
       <c r="T178">
-        <v>39</v>
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="V178">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W178" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X178">
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="Y178">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Z178">
         <v>0</v>
+      </c>
+      <c r="AA178">
+        <v>1</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>1659</v>
       </c>
       <c r="AD178" t="s">
         <v>1616</v>
@@ -17152,35 +17185,35 @@
         <v>1654</v>
       </c>
       <c r="N179" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O179" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P179" t="s">
-        <v>1577</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>87</v>
-      </c>
-      <c r="T179" t="s">
-        <v>1660</v>
-      </c>
-      <c r="U179" t="s">
-        <v>76</v>
-      </c>
-      <c r="W179" t="s">
-        <v>80</v>
-      </c>
-      <c r="X179" t="s">
-        <v>1661</v>
+        <v>62</v>
+      </c>
+      <c r="R179" t="s">
+        <v>124</v>
+      </c>
+      <c r="S179" t="s">
+        <v>110</v>
+      </c>
+      <c r="T179">
+        <v>70</v>
       </c>
       <c r="Y179">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="Z179">
         <v>0</v>
       </c>
+      <c r="AA179">
+        <v>1</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>1659</v>
+      </c>
       <c r="AD179" t="s">
         <v>1616</v>
       </c>
@@ -17190,16 +17223,16 @@
     </row>
     <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-      <c r="C180" s="17" t="s">
-        <v>1663</v>
+      <c r="C180" s="16" t="s">
+        <v>1652</v>
       </c>
       <c r="D180" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="G180" t="s">
         <v>1446</v>
@@ -17207,42 +17240,36 @@
       <c r="H180" t="s">
         <v>1248</v>
       </c>
-      <c r="I180" s="18" t="s">
-        <v>1480</v>
+      <c r="I180" t="s">
+        <v>1494</v>
       </c>
       <c r="J180" t="s">
-        <v>1664</v>
+        <v>1494</v>
       </c>
       <c r="M180" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="N180" t="s">
         <v>1439</v>
       </c>
       <c r="O180" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P180" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>1424</v>
+        <v>47</v>
       </c>
       <c r="R180" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="T180">
-        <v>320</v>
+        <v>39</v>
       </c>
       <c r="Y180">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="Z180">
         <v>0</v>
       </c>
-      <c r="AA180">
-        <v>1</v>
-      </c>
       <c r="AD180" t="s">
         <v>1616</v>
       </c>
@@ -17252,16 +17279,16 @@
     </row>
     <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-      <c r="C181" s="17" t="s">
-        <v>1663</v>
+      <c r="C181" s="16" t="s">
+        <v>1652</v>
       </c>
       <c r="D181" t="s">
-        <v>1662</v>
+        <v>1653</v>
       </c>
       <c r="G181" t="s">
         <v>1446</v>
@@ -17269,41 +17296,44 @@
       <c r="H181" t="s">
         <v>1248</v>
       </c>
-      <c r="I181" s="18" t="s">
-        <v>1480</v>
+      <c r="I181" t="s">
+        <v>1494</v>
       </c>
       <c r="J181" t="s">
-        <v>1664</v>
+        <v>1494</v>
       </c>
       <c r="M181" t="s">
-        <v>1665</v>
+        <v>1654</v>
       </c>
       <c r="N181" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O181" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P181" t="s">
-        <v>34</v>
+        <v>1577</v>
       </c>
       <c r="Q181" t="s">
-        <v>1424</v>
-      </c>
-      <c r="R181" t="s">
-        <v>92</v>
-      </c>
-      <c r="T181">
-        <v>300</v>
+        <v>87</v>
+      </c>
+      <c r="T181" t="s">
+        <v>1660</v>
+      </c>
+      <c r="U181" t="s">
+        <v>76</v>
+      </c>
+      <c r="W181" t="s">
+        <v>80</v>
+      </c>
+      <c r="X181" t="s">
+        <v>1661</v>
       </c>
       <c r="Y181">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="Z181">
         <v>0</v>
-      </c>
-      <c r="AA181">
-        <v>1</v>
       </c>
       <c r="AD181" t="s">
         <v>1616</v>
@@ -17347,25 +17377,25 @@
         <v>27</v>
       </c>
       <c r="P182" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q182" t="s">
         <v>1424</v>
       </c>
       <c r="R182" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T182">
-        <v>224</v>
-      </c>
-      <c r="U182" t="s">
-        <v>79</v>
+        <v>320</v>
+      </c>
+      <c r="Y182">
+        <v>105</v>
       </c>
       <c r="Z182">
-        <v>1</v>
-      </c>
-      <c r="AC182" t="s">
-        <v>1666</v>
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>1</v>
       </c>
       <c r="AD182" t="s">
         <v>1616</v>
@@ -17409,25 +17439,25 @@
         <v>27</v>
       </c>
       <c r="P183" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q183" t="s">
         <v>1424</v>
       </c>
       <c r="R183" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T183">
-        <v>187</v>
-      </c>
-      <c r="U183" t="s">
-        <v>79</v>
+        <v>300</v>
+      </c>
+      <c r="Y183">
+        <v>111</v>
       </c>
       <c r="Z183">
-        <v>1</v>
-      </c>
-      <c r="AC183" t="s">
-        <v>1666</v>
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>1</v>
       </c>
       <c r="AD183" t="s">
         <v>1616</v>
@@ -17468,28 +17498,28 @@
         <v>1439</v>
       </c>
       <c r="O184" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P184" t="s">
-        <v>44</v>
+        <v>1570</v>
       </c>
       <c r="Q184" t="s">
-        <v>81</v>
+        <v>1424</v>
+      </c>
+      <c r="R184" t="s">
+        <v>1435</v>
       </c>
       <c r="T184">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="U184" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y184">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="Z184">
-        <v>0</v>
-      </c>
-      <c r="AA184">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>1666</v>
       </c>
       <c r="AD184" t="s">
         <v>1616</v>
@@ -17530,28 +17560,28 @@
         <v>1438</v>
       </c>
       <c r="O185" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P185" t="s">
-        <v>44</v>
+        <v>1570</v>
       </c>
       <c r="Q185" t="s">
-        <v>81</v>
+        <v>1424</v>
+      </c>
+      <c r="R185" t="s">
+        <v>1435</v>
       </c>
       <c r="T185">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="U185" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y185">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Z185">
-        <v>0</v>
-      </c>
-      <c r="AA185">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>1666</v>
       </c>
       <c r="AD185" t="s">
         <v>1616</v>
@@ -17589,37 +17619,31 @@
         <v>1665</v>
       </c>
       <c r="N186" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O186" t="s">
         <v>28</v>
       </c>
       <c r="P186" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q186" t="s">
         <v>81</v>
       </c>
-      <c r="R186" t="s">
-        <v>91</v>
-      </c>
       <c r="T186">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="U186" t="s">
-        <v>76</v>
-      </c>
-      <c r="W186" t="s">
-        <v>80</v>
-      </c>
-      <c r="X186">
-        <v>6</v>
+        <v>77</v>
+      </c>
+      <c r="Y186">
+        <v>105</v>
       </c>
       <c r="Z186">
-        <v>1</v>
-      </c>
-      <c r="AC186" t="s">
-        <v>1667</v>
+        <v>0</v>
+      </c>
+      <c r="AA186">
+        <v>1</v>
       </c>
       <c r="AD186" t="s">
         <v>1616</v>
@@ -17657,34 +17681,25 @@
         <v>1665</v>
       </c>
       <c r="N187" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O187" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P187" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="Q187" t="s">
-        <v>1565</v>
-      </c>
-      <c r="R187" t="s">
-        <v>124</v>
-      </c>
-      <c r="S187" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="T187">
-        <v>307.8</v>
-      </c>
-      <c r="V187">
-        <v>11.23</v>
-      </c>
-      <c r="W187" t="s">
-        <v>122</v>
+        <v>42</v>
+      </c>
+      <c r="U187" t="s">
+        <v>77</v>
       </c>
       <c r="Y187">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Z187">
         <v>0</v>
@@ -17694,6 +17709,9 @@
       </c>
       <c r="AD187" t="s">
         <v>1616</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="188" spans="1:31" x14ac:dyDescent="0.2">
@@ -17725,43 +17743,43 @@
         <v>1665</v>
       </c>
       <c r="N188" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O188" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P188" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="Q188" t="s">
-        <v>1565</v>
+        <v>81</v>
       </c>
       <c r="R188" t="s">
-        <v>124</v>
-      </c>
-      <c r="S188" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="T188">
-        <v>0.11</v>
-      </c>
-      <c r="V188">
-        <v>0.01</v>
+        <v>5</v>
+      </c>
+      <c r="U188" t="s">
+        <v>76</v>
       </c>
       <c r="W188" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y188">
-        <v>105</v>
+        <v>80</v>
+      </c>
+      <c r="X188">
+        <v>6</v>
       </c>
       <c r="Z188">
-        <v>0</v>
-      </c>
-      <c r="AA188">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>1667</v>
       </c>
       <c r="AD188" t="s">
         <v>1616</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="189" spans="1:31" x14ac:dyDescent="0.2">
@@ -17799,7 +17817,7 @@
         <v>30</v>
       </c>
       <c r="P189" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q189" t="s">
         <v>1565</v>
@@ -17811,10 +17829,10 @@
         <v>113</v>
       </c>
       <c r="T189">
-        <v>-2.86</v>
+        <v>307.8</v>
       </c>
       <c r="V189">
-        <v>0.44</v>
+        <v>11.23</v>
       </c>
       <c r="W189" t="s">
         <v>122</v>
@@ -17867,7 +17885,7 @@
         <v>30</v>
       </c>
       <c r="P190" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q190" t="s">
         <v>1565</v>
@@ -17879,7 +17897,13 @@
         <v>113</v>
       </c>
       <c r="T190">
-        <v>25.06</v>
+        <v>0.11</v>
+      </c>
+      <c r="V190">
+        <v>0.01</v>
+      </c>
+      <c r="W190" t="s">
+        <v>122</v>
       </c>
       <c r="Y190">
         <v>105</v>
@@ -17923,13 +17947,13 @@
         <v>1665</v>
       </c>
       <c r="N191" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O191" t="s">
         <v>30</v>
       </c>
       <c r="P191" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q191" t="s">
         <v>1565</v>
@@ -17941,16 +17965,16 @@
         <v>113</v>
       </c>
       <c r="T191">
-        <v>264.2</v>
+        <v>-2.86</v>
       </c>
       <c r="V191">
-        <v>5.61</v>
+        <v>0.44</v>
       </c>
       <c r="W191" t="s">
         <v>122</v>
       </c>
       <c r="Y191">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Z191">
         <v>0</v>
@@ -17991,13 +18015,13 @@
         <v>1665</v>
       </c>
       <c r="N192" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O192" t="s">
         <v>30</v>
       </c>
       <c r="P192" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q192" t="s">
         <v>1565</v>
@@ -18009,16 +18033,10 @@
         <v>113</v>
       </c>
       <c r="T192">
-        <v>0.16</v>
-      </c>
-      <c r="V192">
-        <v>0.01</v>
-      </c>
-      <c r="W192" t="s">
-        <v>122</v>
+        <v>25.06</v>
       </c>
       <c r="Y192">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="Z192">
         <v>0</v>
@@ -18065,7 +18083,7 @@
         <v>30</v>
       </c>
       <c r="P193" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q193" t="s">
         <v>1565</v>
@@ -18077,10 +18095,10 @@
         <v>113</v>
       </c>
       <c r="T193">
-        <v>-1.99</v>
+        <v>264.2</v>
       </c>
       <c r="V193">
-        <v>0.2</v>
+        <v>5.61</v>
       </c>
       <c r="W193" t="s">
         <v>122</v>
@@ -18133,7 +18151,7 @@
         <v>30</v>
       </c>
       <c r="P194" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q194" t="s">
         <v>1565</v>
@@ -18145,10 +18163,19 @@
         <v>113</v>
       </c>
       <c r="T194">
-        <v>16.11</v>
+        <v>0.16</v>
+      </c>
+      <c r="V194">
+        <v>0.01</v>
+      </c>
+      <c r="W194" t="s">
+        <v>122</v>
       </c>
       <c r="Y194">
-        <v>216</v>
+        <v>111</v>
+      </c>
+      <c r="Z194">
+        <v>0</v>
       </c>
       <c r="AA194">
         <v>1</v>
@@ -18186,13 +18213,13 @@
         <v>1665</v>
       </c>
       <c r="N195" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O195" t="s">
         <v>30</v>
       </c>
       <c r="P195" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q195" t="s">
         <v>1565</v>
@@ -18204,16 +18231,19 @@
         <v>113</v>
       </c>
       <c r="T195">
-        <v>286.89999999999998</v>
+        <v>-1.99</v>
       </c>
       <c r="V195">
-        <v>5.99</v>
+        <v>0.2</v>
       </c>
       <c r="W195" t="s">
         <v>122</v>
       </c>
       <c r="Y195">
-        <v>216</v>
+        <v>111</v>
+      </c>
+      <c r="Z195">
+        <v>0</v>
       </c>
       <c r="AA195">
         <v>1</v>
@@ -18251,13 +18281,13 @@
         <v>1665</v>
       </c>
       <c r="N196" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O196" t="s">
         <v>30</v>
       </c>
       <c r="P196" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="Q196" t="s">
         <v>1565</v>
@@ -18269,13 +18299,7 @@
         <v>113</v>
       </c>
       <c r="T196">
-        <v>0.13</v>
-      </c>
-      <c r="V196">
-        <v>0.01</v>
-      </c>
-      <c r="W196" t="s">
-        <v>122</v>
+        <v>16.11</v>
       </c>
       <c r="Y196">
         <v>216</v>
@@ -18322,7 +18346,7 @@
         <v>30</v>
       </c>
       <c r="P197" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q197" t="s">
         <v>1565</v>
@@ -18334,10 +18358,10 @@
         <v>113</v>
       </c>
       <c r="T197">
-        <v>-2.5099999999999998</v>
+        <v>286.89999999999998</v>
       </c>
       <c r="V197">
-        <v>-2.5099999999999998</v>
+        <v>5.99</v>
       </c>
       <c r="W197" t="s">
         <v>122</v>
@@ -18387,7 +18411,7 @@
         <v>30</v>
       </c>
       <c r="P198" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="Q198" t="s">
         <v>1565</v>
@@ -18399,7 +18423,13 @@
         <v>113</v>
       </c>
       <c r="T198">
-        <v>21.44</v>
+        <v>0.13</v>
+      </c>
+      <c r="V198">
+        <v>0.01</v>
+      </c>
+      <c r="W198" t="s">
+        <v>122</v>
       </c>
       <c r="Y198">
         <v>216</v>
@@ -18413,16 +18443,16 @@
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-      <c r="C199" t="s">
-        <v>1581</v>
+      <c r="C199" s="17" t="s">
+        <v>1663</v>
       </c>
       <c r="D199" t="s">
-        <v>1582</v>
+        <v>1662</v>
       </c>
       <c r="G199" t="s">
         <v>1446</v>
@@ -18430,41 +18460,47 @@
       <c r="H199" t="s">
         <v>1248</v>
       </c>
-      <c r="I199" t="s">
-        <v>1496</v>
+      <c r="I199" s="18" t="s">
+        <v>1480</v>
       </c>
       <c r="J199" t="s">
-        <v>1583</v>
+        <v>1664</v>
       </c>
       <c r="M199" t="s">
-        <v>1584</v>
+        <v>1665</v>
       </c>
       <c r="N199" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O199" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P199" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="Q199" t="s">
-        <v>1423</v>
+        <v>1565</v>
       </c>
       <c r="R199" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="S199" t="s">
+        <v>113</v>
       </c>
       <c r="T199">
-        <v>409</v>
-      </c>
-      <c r="U199" t="s">
-        <v>77</v>
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="V199">
+        <v>-2.5099999999999998</v>
+      </c>
+      <c r="W199" t="s">
+        <v>122</v>
       </c>
       <c r="Y199">
-        <v>609</v>
-      </c>
-      <c r="Z199">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="AA199">
+        <v>1</v>
       </c>
       <c r="AD199" t="s">
         <v>1616</v>
@@ -18472,16 +18508,16 @@
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-      <c r="C200" t="s">
-        <v>1581</v>
+      <c r="C200" s="17" t="s">
+        <v>1663</v>
       </c>
       <c r="D200" t="s">
-        <v>1582</v>
+        <v>1662</v>
       </c>
       <c r="G200" t="s">
         <v>1446</v>
@@ -18489,41 +18525,41 @@
       <c r="H200" t="s">
         <v>1248</v>
       </c>
-      <c r="I200" t="s">
-        <v>1496</v>
+      <c r="I200" s="18" t="s">
+        <v>1480</v>
       </c>
       <c r="J200" t="s">
-        <v>1583</v>
+        <v>1664</v>
       </c>
       <c r="M200" t="s">
-        <v>1584</v>
+        <v>1665</v>
       </c>
       <c r="N200" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="O200" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P200" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q200" t="s">
-        <v>1423</v>
+        <v>1565</v>
       </c>
       <c r="R200" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="S200" t="s">
+        <v>113</v>
       </c>
       <c r="T200">
-        <v>445</v>
-      </c>
-      <c r="U200" t="s">
-        <v>77</v>
+        <v>21.44</v>
       </c>
       <c r="Y200">
-        <v>725</v>
-      </c>
-      <c r="Z200">
-        <v>0</v>
+        <v>216</v>
+      </c>
+      <c r="AA200">
+        <v>1</v>
       </c>
       <c r="AD200" t="s">
         <v>1616</v>
@@ -18554,6 +18590,9 @@
       <c r="J201" t="s">
         <v>1583</v>
       </c>
+      <c r="M201" t="s">
+        <v>1584</v>
+      </c>
       <c r="N201" t="s">
         <v>1439</v>
       </c>
@@ -18561,19 +18600,19 @@
         <v>27</v>
       </c>
       <c r="P201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q201" t="s">
         <v>1423</v>
       </c>
       <c r="R201" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T201">
-        <v>210</v>
+        <v>409</v>
       </c>
       <c r="U201" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y201">
         <v>609</v>
@@ -18610,29 +18649,32 @@
       <c r="J202" t="s">
         <v>1583</v>
       </c>
+      <c r="M202" t="s">
+        <v>1584</v>
+      </c>
       <c r="N202" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O202" t="s">
         <v>27</v>
       </c>
       <c r="P202" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q202" t="s">
         <v>1423</v>
       </c>
       <c r="R202" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T202">
-        <v>230</v>
+        <v>445</v>
       </c>
       <c r="U202" t="s">
         <v>77</v>
       </c>
       <c r="Y202">
-        <v>609</v>
+        <v>725</v>
       </c>
       <c r="Z202">
         <v>0</v>
@@ -18673,7 +18715,7 @@
         <v>27</v>
       </c>
       <c r="P203" t="s">
-        <v>1570</v>
+        <v>33</v>
       </c>
       <c r="Q203" t="s">
         <v>1423</v>
@@ -18686,12 +18728,6 @@
       </c>
       <c r="U203" t="s">
         <v>76</v>
-      </c>
-      <c r="W203" t="s">
-        <v>80</v>
-      </c>
-      <c r="X203">
-        <v>220</v>
       </c>
       <c r="Y203">
         <v>609</v>
@@ -18729,13 +18765,13 @@
         <v>1583</v>
       </c>
       <c r="N204" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O204" t="s">
         <v>27</v>
       </c>
       <c r="P204" t="s">
-        <v>1570</v>
+        <v>37</v>
       </c>
       <c r="Q204" t="s">
         <v>1423</v>
@@ -18744,13 +18780,13 @@
         <v>1435</v>
       </c>
       <c r="T204">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="U204" t="s">
-        <v>1614</v>
+        <v>77</v>
       </c>
       <c r="Y204">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="Z204">
         <v>0</v>
@@ -18785,13 +18821,13 @@
         <v>1583</v>
       </c>
       <c r="N205" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O205" t="s">
         <v>27</v>
       </c>
       <c r="P205" t="s">
-        <v>33</v>
+        <v>1570</v>
       </c>
       <c r="Q205" t="s">
         <v>1423</v>
@@ -18799,14 +18835,23 @@
       <c r="R205" t="s">
         <v>1435</v>
       </c>
+      <c r="S205" t="s">
+        <v>106</v>
+      </c>
       <c r="T205">
         <v>210</v>
       </c>
       <c r="U205" t="s">
         <v>76</v>
       </c>
+      <c r="W205" t="s">
+        <v>80</v>
+      </c>
+      <c r="X205">
+        <v>220</v>
+      </c>
       <c r="Y205">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="Z205">
         <v>0</v>
@@ -18847,7 +18892,7 @@
         <v>27</v>
       </c>
       <c r="P206" t="s">
-        <v>37</v>
+        <v>1570</v>
       </c>
       <c r="Q206" t="s">
         <v>1423</v>
@@ -18855,11 +18900,14 @@
       <c r="R206" t="s">
         <v>1435</v>
       </c>
+      <c r="S206" t="s">
+        <v>106</v>
+      </c>
       <c r="T206">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="U206" t="s">
-        <v>77</v>
+        <v>1614</v>
       </c>
       <c r="Y206">
         <v>725</v>
@@ -18897,28 +18945,28 @@
         <v>1583</v>
       </c>
       <c r="N207" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="O207" t="s">
         <v>27</v>
       </c>
       <c r="P207" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q207" t="s">
         <v>1423</v>
       </c>
       <c r="R207" t="s">
-        <v>94</v>
+        <v>1435</v>
       </c>
       <c r="T207">
-        <v>65.900000000000006</v>
+        <v>210</v>
       </c>
       <c r="U207" t="s">
         <v>76</v>
       </c>
       <c r="Y207">
-        <v>1334</v>
+        <v>725</v>
       </c>
       <c r="Z207">
         <v>0</v>
@@ -18953,25 +19001,28 @@
         <v>1583</v>
       </c>
       <c r="N208" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O208" t="s">
         <v>27</v>
       </c>
       <c r="P208" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q208" t="s">
-        <v>85</v>
+        <v>1423</v>
       </c>
       <c r="R208" t="s">
-        <v>95</v>
+        <v>1435</v>
       </c>
       <c r="T208">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="U208" t="s">
         <v>77</v>
+      </c>
+      <c r="Y208">
+        <v>725</v>
       </c>
       <c r="Z208">
         <v>0</v>
@@ -19006,31 +19057,28 @@
         <v>1583</v>
       </c>
       <c r="N209" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="O209" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P209" t="s">
-        <v>1575</v>
+        <v>36</v>
       </c>
       <c r="Q209" t="s">
-        <v>87</v>
+        <v>1423</v>
       </c>
       <c r="R209" t="s">
-        <v>101</v>
-      </c>
-      <c r="T209" t="s">
-        <v>1660</v>
+        <v>94</v>
+      </c>
+      <c r="T209">
+        <v>65.900000000000006</v>
       </c>
       <c r="U209" t="s">
         <v>76</v>
       </c>
-      <c r="W209" t="s">
-        <v>80</v>
-      </c>
-      <c r="X209" t="s">
-        <v>1661</v>
+      <c r="Y209">
+        <v>1334</v>
       </c>
       <c r="Z209">
         <v>0</v>
@@ -19068,28 +19116,22 @@
         <v>1439</v>
       </c>
       <c r="O210" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P210" t="s">
-        <v>1577</v>
+        <v>36</v>
       </c>
       <c r="Q210" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R210" t="s">
-        <v>101</v>
-      </c>
-      <c r="T210" t="s">
-        <v>1588</v>
+        <v>95</v>
+      </c>
+      <c r="T210">
+        <v>64</v>
       </c>
       <c r="U210" t="s">
-        <v>76</v>
-      </c>
-      <c r="W210" t="s">
-        <v>80</v>
-      </c>
-      <c r="X210" t="s">
-        <v>1668</v>
+        <v>77</v>
       </c>
       <c r="Z210">
         <v>0</v>
@@ -19130,7 +19172,7 @@
         <v>29</v>
       </c>
       <c r="P211" t="s">
-        <v>51</v>
+        <v>1575</v>
       </c>
       <c r="Q211" t="s">
         <v>87</v>
@@ -19138,8 +19180,17 @@
       <c r="R211" t="s">
         <v>101</v>
       </c>
-      <c r="T211">
-        <v>11</v>
+      <c r="T211" t="s">
+        <v>1660</v>
+      </c>
+      <c r="U211" t="s">
+        <v>76</v>
+      </c>
+      <c r="W211" t="s">
+        <v>80</v>
+      </c>
+      <c r="X211" t="s">
+        <v>1661</v>
       </c>
       <c r="Z211">
         <v>0</v>
@@ -19180,16 +19231,25 @@
         <v>29</v>
       </c>
       <c r="P212" t="s">
-        <v>52</v>
+        <v>1577</v>
       </c>
       <c r="Q212" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R212" t="s">
-        <v>131</v>
-      </c>
-      <c r="T212">
-        <v>2</v>
+        <v>101</v>
+      </c>
+      <c r="T212" t="s">
+        <v>1588</v>
+      </c>
+      <c r="U212" t="s">
+        <v>76</v>
+      </c>
+      <c r="W212" t="s">
+        <v>80</v>
+      </c>
+      <c r="X212" t="s">
+        <v>1668</v>
       </c>
       <c r="Z212">
         <v>0</v>
@@ -19230,31 +19290,16 @@
         <v>29</v>
       </c>
       <c r="P213" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q213" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="R213" t="s">
         <v>101</v>
       </c>
       <c r="T213">
-        <v>15.4</v>
-      </c>
-      <c r="U213" t="s">
-        <v>78</v>
-      </c>
-      <c r="V213">
-        <v>6</v>
-      </c>
-      <c r="W213" t="s">
-        <v>80</v>
-      </c>
-      <c r="X213">
-        <v>33</v>
-      </c>
-      <c r="Y213">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Z213">
         <v>0</v>
@@ -19295,23 +19340,16 @@
         <v>29</v>
       </c>
       <c r="P214" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="Q214" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="R214" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="T214">
-        <f>193 / 385</f>
-        <v>0.50129870129870124</v>
-      </c>
-      <c r="U214" t="s">
-        <v>1594</v>
-      </c>
-      <c r="Y214">
-        <v>385</v>
+        <v>2</v>
       </c>
       <c r="Z214">
         <v>0</v>
@@ -19346,31 +19384,40 @@
         <v>1583</v>
       </c>
       <c r="N215" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O215" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="P215" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="Q215" t="s">
-        <v>1565</v>
-      </c>
-      <c r="S215" t="s">
-        <v>1573</v>
+        <v>83</v>
+      </c>
+      <c r="R215" t="s">
+        <v>101</v>
       </c>
       <c r="T215">
-        <v>3.58</v>
+        <v>15.4</v>
+      </c>
+      <c r="U215" t="s">
+        <v>78</v>
+      </c>
+      <c r="V215">
+        <v>6</v>
+      </c>
+      <c r="W215" t="s">
+        <v>80</v>
+      </c>
+      <c r="X215">
+        <v>33</v>
       </c>
       <c r="Y215">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="Z215">
         <v>0</v>
-      </c>
-      <c r="AC215" t="s">
-        <v>1627</v>
       </c>
       <c r="AD215" t="s">
         <v>1616</v>
@@ -19402,31 +19449,32 @@
         <v>1583</v>
       </c>
       <c r="N216" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O216" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="P216" t="s">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="Q216" t="s">
-        <v>1565</v>
-      </c>
-      <c r="S216" t="s">
-        <v>1573</v>
+        <v>88</v>
+      </c>
+      <c r="R216" t="s">
+        <v>101</v>
       </c>
       <c r="T216">
-        <v>1.29</v>
+        <f>193 / 385</f>
+        <v>0.50129870129870124</v>
+      </c>
+      <c r="U216" t="s">
+        <v>1594</v>
       </c>
       <c r="Y216">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="Z216">
         <v>0</v>
-      </c>
-      <c r="AC216" t="s">
-        <v>1628</v>
       </c>
       <c r="AD216" t="s">
         <v>1616</v>
@@ -19470,19 +19518,19 @@
         <v>1565</v>
       </c>
       <c r="S217" t="s">
-        <v>1574</v>
-      </c>
-      <c r="T217" s="13">
-        <v>1.23E-3</v>
+        <v>1573</v>
+      </c>
+      <c r="T217">
+        <v>3.58</v>
       </c>
       <c r="Y217">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="Z217">
         <v>0</v>
       </c>
       <c r="AC217" t="s">
-        <v>1597</v>
+        <v>1627</v>
       </c>
       <c r="AD217" t="s">
         <v>1616</v>
@@ -19526,19 +19574,19 @@
         <v>1565</v>
       </c>
       <c r="S218" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="T218">
-        <v>3.24</v>
+        <v>1.29</v>
       </c>
       <c r="Y218">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="Z218">
         <v>0</v>
       </c>
       <c r="AC218" t="s">
-        <v>1597</v>
+        <v>1628</v>
       </c>
       <c r="AD218" t="s">
         <v>1616</v>
@@ -19546,16 +19594,16 @@
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>1669</v>
+        <v>1581</v>
       </c>
       <c r="D219" t="s">
-        <v>1670</v>
+        <v>1582</v>
       </c>
       <c r="G219" t="s">
         <v>1446</v>
@@ -19564,57 +19612,54 @@
         <v>1248</v>
       </c>
       <c r="I219" t="s">
-        <v>1671</v>
+        <v>1496</v>
       </c>
       <c r="J219" t="s">
-        <v>1672</v>
-      </c>
-      <c r="M219" t="s">
-        <v>1673</v>
+        <v>1583</v>
       </c>
       <c r="N219" t="s">
-        <v>1674</v>
+        <v>1440</v>
       </c>
       <c r="O219" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="P219" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="Q219" t="s">
-        <v>1675</v>
-      </c>
-      <c r="R219" t="s">
-        <v>92</v>
-      </c>
-      <c r="T219">
-        <v>326</v>
-      </c>
-      <c r="U219" t="s">
-        <v>77</v>
+        <v>1565</v>
+      </c>
+      <c r="S219" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T219" s="13">
+        <v>1.23E-3</v>
       </c>
       <c r="Y219">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="Z219">
         <v>0</v>
       </c>
+      <c r="AC219" t="s">
+        <v>1597</v>
+      </c>
       <c r="AD219" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B220">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>1669</v>
+        <v>1581</v>
       </c>
       <c r="D220" t="s">
-        <v>1670</v>
+        <v>1582</v>
       </c>
       <c r="G220" t="s">
         <v>1446</v>
@@ -19623,40 +19668,37 @@
         <v>1248</v>
       </c>
       <c r="I220" t="s">
-        <v>1671</v>
+        <v>1496</v>
       </c>
       <c r="J220" t="s">
-        <v>1672</v>
-      </c>
-      <c r="M220" t="s">
-        <v>1673</v>
+        <v>1583</v>
       </c>
       <c r="N220" t="s">
-        <v>1676</v>
+        <v>1440</v>
       </c>
       <c r="O220" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="P220" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="Q220" t="s">
-        <v>1675</v>
-      </c>
-      <c r="R220" t="s">
-        <v>92</v>
+        <v>1565</v>
+      </c>
+      <c r="S220" t="s">
+        <v>1574</v>
       </c>
       <c r="T220">
-        <v>264</v>
-      </c>
-      <c r="U220" t="s">
-        <v>77</v>
+        <v>3.24</v>
       </c>
       <c r="Y220">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="Z220">
         <v>0</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>1597</v>
       </c>
       <c r="AD220" t="s">
         <v>1616</v>
@@ -19697,19 +19739,19 @@
         <v>27</v>
       </c>
       <c r="P221" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q221" t="s">
         <v>1675</v>
       </c>
       <c r="R221" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T221">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="U221" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Y221">
         <v>87</v>
@@ -19750,28 +19792,28 @@
         <v>1673</v>
       </c>
       <c r="N222" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="O222" t="s">
         <v>27</v>
       </c>
       <c r="P222" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q222" t="s">
         <v>1675</v>
       </c>
       <c r="R222" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T222">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="U222" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y222">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Z222">
         <v>0</v>
@@ -19815,7 +19857,7 @@
         <v>27</v>
       </c>
       <c r="P223" t="s">
-        <v>37</v>
+        <v>1570</v>
       </c>
       <c r="Q223" t="s">
         <v>1675</v>
@@ -19823,11 +19865,14 @@
       <c r="R223" t="s">
         <v>1435</v>
       </c>
+      <c r="S223" t="s">
+        <v>107</v>
+      </c>
       <c r="T223">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="U223" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y223">
         <v>87</v>
@@ -19868,13 +19913,13 @@
         <v>1673</v>
       </c>
       <c r="N224" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O224" t="s">
         <v>27</v>
       </c>
       <c r="P224" t="s">
-        <v>1570</v>
+        <v>33</v>
       </c>
       <c r="Q224" t="s">
         <v>1675</v>
@@ -19883,13 +19928,13 @@
         <v>1435</v>
       </c>
       <c r="T224">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U224" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y224">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z224">
         <v>0</v>
@@ -19923,14 +19968,17 @@
       <c r="J225" t="s">
         <v>1672</v>
       </c>
+      <c r="M225" t="s">
+        <v>1673</v>
+      </c>
       <c r="N225" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="O225" t="s">
         <v>27</v>
       </c>
       <c r="P225" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q225" t="s">
         <v>1675</v>
@@ -19939,13 +19987,13 @@
         <v>1435</v>
       </c>
       <c r="T225">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="U225" t="s">
         <v>77</v>
       </c>
       <c r="Y225">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Z225">
         <v>0</v>
@@ -19979,6 +20027,9 @@
       <c r="J226" t="s">
         <v>1672</v>
       </c>
+      <c r="M226" t="s">
+        <v>1673</v>
+      </c>
       <c r="N226" t="s">
         <v>1676</v>
       </c>
@@ -19986,7 +20037,7 @@
         <v>27</v>
       </c>
       <c r="P226" t="s">
-        <v>37</v>
+        <v>1570</v>
       </c>
       <c r="Q226" t="s">
         <v>1675</v>
@@ -19994,11 +20045,14 @@
       <c r="R226" t="s">
         <v>1435</v>
       </c>
+      <c r="S226" t="s">
+        <v>107</v>
+      </c>
       <c r="T226">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="U226" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y226">
         <v>85</v>
@@ -20018,7 +20072,10 @@
         <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>1677</v>
+        <v>1669</v>
+      </c>
+      <c r="D227" t="s">
+        <v>1670</v>
       </c>
       <c r="G227" t="s">
         <v>1446</v>
@@ -20032,35 +20089,29 @@
       <c r="J227" t="s">
         <v>1672</v>
       </c>
-      <c r="M227" t="s">
-        <v>1673</v>
-      </c>
       <c r="N227" t="s">
-        <v>1439</v>
+        <v>1676</v>
       </c>
       <c r="O227" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P227" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q227" t="s">
-        <v>83</v>
+        <v>1675</v>
+      </c>
+      <c r="R227" t="s">
+        <v>1435</v>
       </c>
       <c r="T227">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="U227" t="s">
-        <v>76</v>
-      </c>
-      <c r="W227" t="s">
-        <v>80</v>
-      </c>
-      <c r="X227">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="Y227">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="Z227">
         <v>0</v>
@@ -20071,52 +20122,52 @@
     </row>
     <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>1678</v>
+        <v>1669</v>
       </c>
       <c r="D228" t="s">
-        <v>1679</v>
+        <v>1670</v>
       </c>
       <c r="G228" t="s">
         <v>1446</v>
       </c>
       <c r="H228" t="s">
-        <v>1250</v>
-      </c>
-      <c r="I228" s="16" t="s">
-        <v>1480</v>
+        <v>1248</v>
+      </c>
+      <c r="I228" t="s">
+        <v>1671</v>
       </c>
       <c r="J228" t="s">
-        <v>1681</v>
-      </c>
-      <c r="M228" t="s">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="N228" t="s">
-        <v>1439</v>
+        <v>1676</v>
       </c>
       <c r="O228" t="s">
         <v>27</v>
       </c>
       <c r="P228" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q228" t="s">
-        <v>1423</v>
+        <v>1675</v>
       </c>
       <c r="R228" t="s">
-        <v>92</v>
+        <v>1435</v>
       </c>
       <c r="T228">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="U228" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="Y228">
+        <v>85</v>
       </c>
       <c r="Z228">
         <v>0</v>
@@ -20124,67 +20175,64 @@
       <c r="AD228" t="s">
         <v>1616</v>
       </c>
-      <c r="AE228" t="s">
-        <v>1680</v>
-      </c>
     </row>
     <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>1678</v>
-      </c>
-      <c r="D229" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="G229" t="s">
         <v>1446</v>
       </c>
       <c r="H229" t="s">
-        <v>1250</v>
-      </c>
-      <c r="I229" s="16" t="s">
-        <v>1480</v>
+        <v>1248</v>
+      </c>
+      <c r="I229" t="s">
+        <v>1671</v>
       </c>
       <c r="J229" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="M229" t="s">
-        <v>1682</v>
+        <v>1673</v>
       </c>
       <c r="N229" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="O229" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P229" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="Q229" t="s">
-        <v>1423</v>
-      </c>
-      <c r="R229" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="T229">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="U229" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="W229" t="s">
+        <v>80</v>
+      </c>
+      <c r="X229">
+        <v>23</v>
+      </c>
+      <c r="Y229">
+        <v>3</v>
       </c>
       <c r="Z229">
         <v>0</v>
       </c>
       <c r="AD229" t="s">
         <v>1616</v>
-      </c>
-      <c r="AE229" t="s">
-        <v>1680</v>
       </c>
     </row>
     <row r="230" spans="1:31" x14ac:dyDescent="0.2">
@@ -20222,19 +20270,19 @@
         <v>27</v>
       </c>
       <c r="P230" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q230" t="s">
         <v>1423</v>
       </c>
       <c r="R230" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T230">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="U230" t="s">
-        <v>1614</v>
+        <v>77</v>
       </c>
       <c r="Z230">
         <v>0</v>
@@ -20281,19 +20329,19 @@
         <v>27</v>
       </c>
       <c r="P231" t="s">
-        <v>1570</v>
+        <v>34</v>
       </c>
       <c r="Q231" t="s">
         <v>1423</v>
       </c>
       <c r="R231" t="s">
-        <v>1435</v>
+        <v>92</v>
       </c>
       <c r="T231">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="U231" t="s">
-        <v>1614</v>
+        <v>77</v>
       </c>
       <c r="Z231">
         <v>0</v>
@@ -20337,22 +20385,25 @@
         <v>1439</v>
       </c>
       <c r="O232" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P232" t="s">
-        <v>53</v>
+        <v>1570</v>
       </c>
       <c r="Q232" t="s">
-        <v>84</v>
+        <v>1423</v>
       </c>
       <c r="R232" t="s">
-        <v>101</v>
+        <v>1435</v>
+      </c>
+      <c r="S232" t="s">
+        <v>106</v>
       </c>
       <c r="T232">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="U232" t="s">
-        <v>77</v>
+        <v>1614</v>
       </c>
       <c r="Z232">
         <v>0</v>
@@ -20393,25 +20444,28 @@
         <v>1682</v>
       </c>
       <c r="N233" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="O233" t="s">
         <v>27</v>
       </c>
       <c r="P233" t="s">
-        <v>36</v>
+        <v>1570</v>
       </c>
       <c r="Q233" t="s">
         <v>1423</v>
       </c>
       <c r="R233" t="s">
-        <v>95</v>
+        <v>1435</v>
+      </c>
+      <c r="S233" t="s">
+        <v>106</v>
       </c>
       <c r="T233">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="U233" t="s">
-        <v>77</v>
+        <v>1614</v>
       </c>
       <c r="Z233">
         <v>0</v>
@@ -20455,28 +20509,22 @@
         <v>1439</v>
       </c>
       <c r="O234" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P234" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="Q234" t="s">
-        <v>1423</v>
+        <v>84</v>
       </c>
       <c r="R234" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="T234">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="U234" t="s">
-        <v>76</v>
-      </c>
-      <c r="W234" t="s">
-        <v>80</v>
-      </c>
-      <c r="X234">
-        <v>33.5</v>
+        <v>77</v>
       </c>
       <c r="Z234">
         <v>0</v>
@@ -20520,31 +20568,22 @@
         <v>1439</v>
       </c>
       <c r="O235" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P235" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q235" t="s">
-        <v>83</v>
+        <v>1423</v>
       </c>
       <c r="R235" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="T235">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="U235" t="s">
-        <v>76</v>
-      </c>
-      <c r="W235" t="s">
-        <v>80</v>
-      </c>
-      <c r="X235">
-        <v>12</v>
-      </c>
-      <c r="Y235">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="Z235">
         <v>0</v>
@@ -20588,31 +20627,28 @@
         <v>1439</v>
       </c>
       <c r="O236" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P236" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q236" t="s">
-        <v>83</v>
+        <v>1423</v>
       </c>
       <c r="R236" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="T236">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="U236" t="s">
-        <v>78</v>
-      </c>
-      <c r="V236">
-        <v>2.34</v>
+        <v>76</v>
       </c>
       <c r="W236" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y236">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="X236">
+        <v>33.5</v>
       </c>
       <c r="Z236">
         <v>0</v>
@@ -20659,16 +20695,28 @@
         <v>29</v>
       </c>
       <c r="P237" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q237" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R237" t="s">
         <v>101</v>
       </c>
       <c r="T237">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="U237" t="s">
+        <v>76</v>
+      </c>
+      <c r="W237" t="s">
+        <v>80</v>
+      </c>
+      <c r="X237">
+        <v>12</v>
+      </c>
+      <c r="Y237">
+        <v>12</v>
       </c>
       <c r="Z237">
         <v>0</v>
@@ -20715,10 +20763,28 @@
         <v>29</v>
       </c>
       <c r="P238" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="Q238" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="R238" t="s">
+        <v>101</v>
+      </c>
+      <c r="T238">
+        <v>8</v>
+      </c>
+      <c r="U238" t="s">
+        <v>78</v>
+      </c>
+      <c r="V238">
+        <v>2.34</v>
+      </c>
+      <c r="W238" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y238">
+        <v>12</v>
       </c>
       <c r="Z238">
         <v>0</v>
@@ -20765,16 +20831,16 @@
         <v>29</v>
       </c>
       <c r="P239" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q239" t="s">
-        <v>87</v>
+        <v>81</v>
+      </c>
+      <c r="R239" t="s">
+        <v>101</v>
       </c>
       <c r="T239">
-        <v>11</v>
-      </c>
-      <c r="U239" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="Z239">
         <v>0</v>
@@ -20786,9 +20852,815 @@
         <v>1680</v>
       </c>
     </row>
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>16</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D240" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G240" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I240" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J240" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M240" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N240" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O240" t="s">
+        <v>29</v>
+      </c>
+      <c r="P240" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>16</v>
+      </c>
+      <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D241" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G241" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I241" s="16" t="s">
+        <v>1480</v>
+      </c>
+      <c r="J241" t="s">
+        <v>1681</v>
+      </c>
+      <c r="M241" t="s">
+        <v>1682</v>
+      </c>
+      <c r="N241" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O241" t="s">
+        <v>29</v>
+      </c>
+      <c r="P241" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>87</v>
+      </c>
+      <c r="T241">
+        <v>11</v>
+      </c>
+      <c r="U241" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>17</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G242" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I242" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J242" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M242" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N242" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O242" t="s">
+        <v>27</v>
+      </c>
+      <c r="P242" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R242" t="s">
+        <v>92</v>
+      </c>
+      <c r="T242">
+        <v>316.8</v>
+      </c>
+      <c r="U242" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y242">
+        <v>270</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>17</v>
+      </c>
+      <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G243" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I243" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J243" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M243" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N243" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O243" t="s">
+        <v>27</v>
+      </c>
+      <c r="P243" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R243" t="s">
+        <v>92</v>
+      </c>
+      <c r="T243">
+        <v>239.9</v>
+      </c>
+      <c r="U243" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y243">
+        <v>111</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>17</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G244" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I244" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J244" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M244" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N244" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O244" t="s">
+        <v>27</v>
+      </c>
+      <c r="P244" t="s">
+        <v>1570</v>
+      </c>
+      <c r="R244" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S244" t="s">
+        <v>107</v>
+      </c>
+      <c r="T244">
+        <v>228.5</v>
+      </c>
+      <c r="U244" t="s">
+        <v>78</v>
+      </c>
+      <c r="V244">
+        <v>171.8</v>
+      </c>
+      <c r="W244" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X244">
+        <v>233.2</v>
+      </c>
+      <c r="Y244">
+        <v>270</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>17</v>
+      </c>
+      <c r="B245">
+        <v>1</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G245" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I245" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J245" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M245" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N245" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O245" t="s">
+        <v>27</v>
+      </c>
+      <c r="P245" t="s">
+        <v>32</v>
+      </c>
+      <c r="R245" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S245" t="s">
+        <v>107</v>
+      </c>
+      <c r="T245">
+        <v>233.9</v>
+      </c>
+      <c r="U245" t="s">
+        <v>78</v>
+      </c>
+      <c r="V245">
+        <v>179.7</v>
+      </c>
+      <c r="W245" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X245">
+        <v>240.2</v>
+      </c>
+      <c r="Y245">
+        <v>270</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>17</v>
+      </c>
+      <c r="B246">
+        <v>1</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G246" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I246" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J246" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M246" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N246" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O246" t="s">
+        <v>27</v>
+      </c>
+      <c r="P246" t="s">
+        <v>33</v>
+      </c>
+      <c r="R246" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T246">
+        <v>220</v>
+      </c>
+      <c r="U246" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y246">
+        <v>270</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>17</v>
+      </c>
+      <c r="B247">
+        <v>1</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G247" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I247" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J247" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M247" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N247" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O247" t="s">
+        <v>27</v>
+      </c>
+      <c r="P247" t="s">
+        <v>1570</v>
+      </c>
+      <c r="R247" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S247" t="s">
+        <v>107</v>
+      </c>
+      <c r="T247">
+        <v>175.6</v>
+      </c>
+      <c r="U247" t="s">
+        <v>78</v>
+      </c>
+      <c r="V247">
+        <v>173.1</v>
+      </c>
+      <c r="W247" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X247">
+        <v>179.8</v>
+      </c>
+      <c r="Y247">
+        <v>111</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>17</v>
+      </c>
+      <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G248" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I248" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J248" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M248" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N248" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O248" t="s">
+        <v>27</v>
+      </c>
+      <c r="P248" t="s">
+        <v>32</v>
+      </c>
+      <c r="R248" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S248" t="s">
+        <v>107</v>
+      </c>
+      <c r="T248">
+        <v>176.2</v>
+      </c>
+      <c r="U248" t="s">
+        <v>78</v>
+      </c>
+      <c r="V248">
+        <v>173.8</v>
+      </c>
+      <c r="W248" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X248">
+        <v>180.4</v>
+      </c>
+      <c r="Y248">
+        <v>111</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>17</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G249" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I249" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J249" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M249" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N249" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O249" t="s">
+        <v>27</v>
+      </c>
+      <c r="P249" t="s">
+        <v>36</v>
+      </c>
+      <c r="R249" t="s">
+        <v>94</v>
+      </c>
+      <c r="S249" t="s">
+        <v>106</v>
+      </c>
+      <c r="T249">
+        <v>430</v>
+      </c>
+      <c r="U249" t="s">
+        <v>76</v>
+      </c>
+      <c r="W249" t="s">
+        <v>80</v>
+      </c>
+      <c r="X249">
+        <v>560</v>
+      </c>
+      <c r="Z249">
+        <v>0</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>17</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G250" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I250" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J250" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M250" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N250" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O250" t="s">
+        <v>27</v>
+      </c>
+      <c r="P250" t="s">
+        <v>36</v>
+      </c>
+      <c r="R250" t="s">
+        <v>96</v>
+      </c>
+      <c r="S250" t="s">
+        <v>106</v>
+      </c>
+      <c r="T250">
+        <v>390</v>
+      </c>
+      <c r="U250" t="s">
+        <v>76</v>
+      </c>
+      <c r="W250" t="s">
+        <v>80</v>
+      </c>
+      <c r="X250">
+        <v>570</v>
+      </c>
+      <c r="Z250">
+        <v>0</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>17</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G251" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I251" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J251" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M251" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N251" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O251" t="s">
+        <v>29</v>
+      </c>
+      <c r="P251" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>83</v>
+      </c>
+      <c r="R251" t="s">
+        <v>101</v>
+      </c>
+      <c r="T251">
+        <v>25.3</v>
+      </c>
+      <c r="U251" t="s">
+        <v>78</v>
+      </c>
+      <c r="V251">
+        <v>1.4</v>
+      </c>
+      <c r="W251" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y251">
+        <v>27</v>
+      </c>
+      <c r="Z251">
+        <v>0</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>17</v>
+      </c>
+      <c r="B252">
+        <v>1</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G252" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I252" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J252" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M252" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N252" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O252" t="s">
+        <v>29</v>
+      </c>
+      <c r="P252" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>83</v>
+      </c>
+      <c r="R252" t="s">
+        <v>101</v>
+      </c>
+      <c r="T252">
+        <v>14</v>
+      </c>
+      <c r="U252" t="s">
+        <v>76</v>
+      </c>
+      <c r="W252" t="s">
+        <v>80</v>
+      </c>
+      <c r="X252">
+        <v>41</v>
+      </c>
+      <c r="Y252">
+        <v>27</v>
+      </c>
+      <c r="Z252">
+        <v>0</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>1616</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R18 R20:R178 R180:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R18 R20:R180 R182:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>cleaned.method.name</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S15 S19:S1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
@@ -20797,10 +21669,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I130:I152 I219:I227 I240:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I132:I154 I221:I229 I242:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P191 P193:P195 P197:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P193 P195:P197 P199:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>clean.trait.name</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -20832,7 +21704,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I62:I129 I153:I218</xm:sqref>
+          <xm:sqref>I2:I53 I155:I220 I62:I131</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>
@@ -20853,8 +21725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K766"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="D46" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77A3B4C-F7C5-2E4F-B601-2BCE81BC27FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779A8BE-3FA6-9A4B-BD5C-E6CC6B475565}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5231" uniqueCount="1687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="1689">
   <si>
     <t>observation_id</t>
   </si>
@@ -5175,6 +5175,12 @@
   </si>
   <si>
     <t>2001-2006</t>
+  </si>
+  <si>
+    <t>drew2015</t>
+  </si>
+  <si>
+    <t>10.1111/jfb.12586</t>
   </si>
 </sst>
 </file>
@@ -6261,11 +6267,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE252"/>
+  <dimension ref="A1:AE268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD253" sqref="AD253"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P270" sqref="P270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21656,6 +21662,938 @@
       </c>
       <c r="AD252" t="s">
         <v>1616</v>
+      </c>
+    </row>
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>17</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G253" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I253" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J253" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M253" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N253" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O253" t="s">
+        <v>139</v>
+      </c>
+      <c r="P253" t="s">
+        <v>134</v>
+      </c>
+      <c r="S253" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T253" s="13">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="Y253">
+        <v>34</v>
+      </c>
+      <c r="Z253">
+        <v>0</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>17</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1684</v>
+      </c>
+      <c r="G254" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H254" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I254" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J254" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M254" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N254" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O254" t="s">
+        <v>139</v>
+      </c>
+      <c r="P254" t="s">
+        <v>135</v>
+      </c>
+      <c r="S254" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T254">
+        <v>3.028</v>
+      </c>
+      <c r="Y254">
+        <v>34</v>
+      </c>
+      <c r="Z254">
+        <v>0</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>17</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D255" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G255" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I255" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J255" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M255" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N255" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O255" t="s">
+        <v>28</v>
+      </c>
+      <c r="P255" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>81</v>
+      </c>
+      <c r="R255" t="s">
+        <v>100</v>
+      </c>
+      <c r="T255">
+        <v>35</v>
+      </c>
+      <c r="U255" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Y255">
+        <v>128</v>
+      </c>
+      <c r="Z255">
+        <v>0</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>17</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G256" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I256" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J256" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M256" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N256" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O256" t="s">
+        <v>28</v>
+      </c>
+      <c r="P256" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>81</v>
+      </c>
+      <c r="R256" t="s">
+        <v>100</v>
+      </c>
+      <c r="T256">
+        <v>19</v>
+      </c>
+      <c r="U256" t="s">
+        <v>1594</v>
+      </c>
+      <c r="Y256">
+        <v>27</v>
+      </c>
+      <c r="Z256">
+        <v>0</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>17</v>
+      </c>
+      <c r="B257">
+        <v>1</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G257" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I257" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J257" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M257" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N257" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O257" t="s">
+        <v>28</v>
+      </c>
+      <c r="P257" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>81</v>
+      </c>
+      <c r="R257" t="s">
+        <v>101</v>
+      </c>
+      <c r="S257" t="s">
+        <v>107</v>
+      </c>
+      <c r="T257">
+        <v>13.15</v>
+      </c>
+      <c r="U257" t="s">
+        <v>78</v>
+      </c>
+      <c r="V257">
+        <v>11.96</v>
+      </c>
+      <c r="W257" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X257">
+        <v>14.44</v>
+      </c>
+      <c r="Y257">
+        <v>72</v>
+      </c>
+      <c r="Z257">
+        <v>0</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>17</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G258" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I258" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J258" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M258" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N258" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O258" t="s">
+        <v>28</v>
+      </c>
+      <c r="P258" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>81</v>
+      </c>
+      <c r="R258" t="s">
+        <v>101</v>
+      </c>
+      <c r="S258" t="s">
+        <v>107</v>
+      </c>
+      <c r="T258">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="U258" t="s">
+        <v>78</v>
+      </c>
+      <c r="V258">
+        <v>15.19</v>
+      </c>
+      <c r="W258" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X258">
+        <v>21.6</v>
+      </c>
+      <c r="Y258">
+        <v>72</v>
+      </c>
+      <c r="Z258">
+        <v>0</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>17</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G259" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I259" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J259" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M259" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N259" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O259" t="s">
+        <v>28</v>
+      </c>
+      <c r="P259" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>81</v>
+      </c>
+      <c r="R259" t="s">
+        <v>101</v>
+      </c>
+      <c r="T259">
+        <v>11</v>
+      </c>
+      <c r="U259" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y259">
+        <v>72</v>
+      </c>
+      <c r="Z259">
+        <v>0</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>17</v>
+      </c>
+      <c r="B260">
+        <v>1</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G260" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I260" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J260" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M260" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N260" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O260" t="s">
+        <v>28</v>
+      </c>
+      <c r="P260" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>81</v>
+      </c>
+      <c r="R260" t="s">
+        <v>101</v>
+      </c>
+      <c r="T260">
+        <v>16</v>
+      </c>
+      <c r="U260" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y260">
+        <v>72</v>
+      </c>
+      <c r="Z260">
+        <v>0</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>17</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D261" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G261" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I261" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J261" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M261" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N261" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O261" t="s">
+        <v>28</v>
+      </c>
+      <c r="P261" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>81</v>
+      </c>
+      <c r="R261" t="s">
+        <v>101</v>
+      </c>
+      <c r="S261" t="s">
+        <v>107</v>
+      </c>
+      <c r="T261">
+        <v>8.92</v>
+      </c>
+      <c r="U261" t="s">
+        <v>78</v>
+      </c>
+      <c r="V261">
+        <v>6.45</v>
+      </c>
+      <c r="W261" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X261">
+        <v>10.43</v>
+      </c>
+      <c r="Y261">
+        <v>23</v>
+      </c>
+      <c r="Z261">
+        <v>0</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>17</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D262" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G262" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I262" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J262" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M262" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N262" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O262" t="s">
+        <v>28</v>
+      </c>
+      <c r="P262" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>81</v>
+      </c>
+      <c r="R262" t="s">
+        <v>101</v>
+      </c>
+      <c r="S262" t="s">
+        <v>107</v>
+      </c>
+      <c r="T262">
+        <v>9.6</v>
+      </c>
+      <c r="U262" t="s">
+        <v>78</v>
+      </c>
+      <c r="V262">
+        <v>6.76</v>
+      </c>
+      <c r="W262" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X262">
+        <v>10.67</v>
+      </c>
+      <c r="Y262">
+        <v>23</v>
+      </c>
+      <c r="Z262">
+        <v>0</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>17</v>
+      </c>
+      <c r="B263">
+        <v>1</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D263" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G263" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I263" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J263" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M263" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N263" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O263" t="s">
+        <v>28</v>
+      </c>
+      <c r="P263" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>81</v>
+      </c>
+      <c r="R263" t="s">
+        <v>101</v>
+      </c>
+      <c r="T263">
+        <v>8</v>
+      </c>
+      <c r="U263" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y263">
+        <v>23</v>
+      </c>
+      <c r="Z263">
+        <v>0</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>17</v>
+      </c>
+      <c r="B264">
+        <v>1</v>
+      </c>
+      <c r="C264" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D264" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G264" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I264" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J264" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M264" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N264" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O264" t="s">
+        <v>28</v>
+      </c>
+      <c r="P264" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>81</v>
+      </c>
+      <c r="R264" t="s">
+        <v>101</v>
+      </c>
+      <c r="T264">
+        <v>8</v>
+      </c>
+      <c r="U264" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y264">
+        <v>23</v>
+      </c>
+      <c r="Z264">
+        <v>0</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>17</v>
+      </c>
+      <c r="B265">
+        <v>1</v>
+      </c>
+      <c r="C265" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D265" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G265" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I265" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J265" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M265" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N265" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O265" t="s">
+        <v>30</v>
+      </c>
+      <c r="P265" t="s">
+        <v>69</v>
+      </c>
+      <c r="T265">
+        <v>2.4</v>
+      </c>
+      <c r="Y265">
+        <v>158</v>
+      </c>
+      <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>17</v>
+      </c>
+      <c r="B266">
+        <v>1</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D266" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G266" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I266" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J266" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M266" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N266" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O266" t="s">
+        <v>30</v>
+      </c>
+      <c r="P266" t="s">
+        <v>70</v>
+      </c>
+      <c r="T266">
+        <v>1.7</v>
+      </c>
+      <c r="Y266">
+        <v>158</v>
+      </c>
+      <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>17</v>
+      </c>
+      <c r="B267">
+        <v>1</v>
+      </c>
+      <c r="C267" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D267" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G267" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I267" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J267" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M267" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N267" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O267" t="s">
+        <v>30</v>
+      </c>
+      <c r="P267" t="s">
+        <v>71</v>
+      </c>
+      <c r="T267">
+        <v>98.7</v>
+      </c>
+      <c r="Y267">
+        <v>158</v>
+      </c>
+      <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>17</v>
+      </c>
+      <c r="B268">
+        <v>1</v>
+      </c>
+      <c r="C268" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D268" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G268" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I268" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J268" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M268" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N268" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O268" t="s">
+        <v>30</v>
+      </c>
+      <c r="P268" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6779A8BE-3FA6-9A4B-BD5C-E6CC6B475565}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708A258-9BCE-CC4D-8452-4E5868659EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="18160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5446" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="1691">
   <si>
     <t>observation_id</t>
   </si>
@@ -5181,6 +5181,12 @@
   </si>
   <si>
     <t>10.1111/jfb.12586</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>Bomb radiocarbon</t>
   </si>
 </sst>
 </file>
@@ -6267,11 +6273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE268"/>
+  <dimension ref="A1:AE279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P270" sqref="P270"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD277" sqref="AD277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16880,6 +16886,9 @@
       <c r="AA174">
         <v>1</v>
       </c>
+      <c r="AB174" t="s">
+        <v>1689</v>
+      </c>
       <c r="AC174" t="s">
         <v>1658</v>
       </c>
@@ -16942,6 +16951,9 @@
       <c r="AA175">
         <v>1</v>
       </c>
+      <c r="AB175" t="s">
+        <v>1689</v>
+      </c>
       <c r="AC175" t="s">
         <v>1659</v>
       </c>
@@ -17004,6 +17016,9 @@
       <c r="AA176">
         <v>1</v>
       </c>
+      <c r="AB176" t="s">
+        <v>1689</v>
+      </c>
       <c r="AC176" t="s">
         <v>1659</v>
       </c>
@@ -17078,6 +17093,9 @@
       <c r="AA177">
         <v>1</v>
       </c>
+      <c r="AB177" t="s">
+        <v>1689</v>
+      </c>
       <c r="AC177" t="s">
         <v>1659</v>
       </c>
@@ -17152,6 +17170,9 @@
       <c r="AA178">
         <v>1</v>
       </c>
+      <c r="AB178" t="s">
+        <v>1689</v>
+      </c>
       <c r="AC178" t="s">
         <v>1659</v>
       </c>
@@ -17217,6 +17238,9 @@
       <c r="AA179">
         <v>1</v>
       </c>
+      <c r="AB179" t="s">
+        <v>1689</v>
+      </c>
       <c r="AC179" t="s">
         <v>1659</v>
       </c>
@@ -17403,6 +17427,9 @@
       <c r="AA182">
         <v>1</v>
       </c>
+      <c r="AB182" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD182" t="s">
         <v>1616</v>
       </c>
@@ -17465,6 +17492,9 @@
       <c r="AA183">
         <v>1</v>
       </c>
+      <c r="AB183" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD183" t="s">
         <v>1616</v>
       </c>
@@ -17651,6 +17681,9 @@
       <c r="AA186">
         <v>1</v>
       </c>
+      <c r="AB186" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD186" t="s">
         <v>1616</v>
       </c>
@@ -17713,6 +17746,9 @@
       <c r="AA187">
         <v>1</v>
       </c>
+      <c r="AB187" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD187" t="s">
         <v>1616</v>
       </c>
@@ -17852,6 +17888,9 @@
       <c r="AA189">
         <v>1</v>
       </c>
+      <c r="AB189" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD189" t="s">
         <v>1616</v>
       </c>
@@ -17920,6 +17959,9 @@
       <c r="AA190">
         <v>1</v>
       </c>
+      <c r="AB190" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD190" t="s">
         <v>1616</v>
       </c>
@@ -17988,6 +18030,9 @@
       <c r="AA191">
         <v>1</v>
       </c>
+      <c r="AB191" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD191" t="s">
         <v>1616</v>
       </c>
@@ -18050,6 +18095,9 @@
       <c r="AA192">
         <v>1</v>
       </c>
+      <c r="AB192" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD192" t="s">
         <v>1616</v>
       </c>
@@ -18118,6 +18166,9 @@
       <c r="AA193">
         <v>1</v>
       </c>
+      <c r="AB193" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD193" t="s">
         <v>1616</v>
       </c>
@@ -18186,6 +18237,9 @@
       <c r="AA194">
         <v>1</v>
       </c>
+      <c r="AB194" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD194" t="s">
         <v>1616</v>
       </c>
@@ -18254,6 +18308,9 @@
       <c r="AA195">
         <v>1</v>
       </c>
+      <c r="AB195" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD195" t="s">
         <v>1616</v>
       </c>
@@ -18313,6 +18370,9 @@
       <c r="AA196">
         <v>1</v>
       </c>
+      <c r="AB196" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD196" t="s">
         <v>1616</v>
       </c>
@@ -18378,6 +18438,9 @@
       <c r="AA197">
         <v>1</v>
       </c>
+      <c r="AB197" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD197" t="s">
         <v>1616</v>
       </c>
@@ -18443,6 +18506,9 @@
       <c r="AA198">
         <v>1</v>
       </c>
+      <c r="AB198" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD198" t="s">
         <v>1616</v>
       </c>
@@ -18508,6 +18574,9 @@
       <c r="AA199">
         <v>1</v>
       </c>
+      <c r="AB199" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD199" t="s">
         <v>1616</v>
       </c>
@@ -18567,6 +18636,9 @@
       <c r="AA200">
         <v>1</v>
       </c>
+      <c r="AB200" t="s">
+        <v>1690</v>
+      </c>
       <c r="AD200" t="s">
         <v>1616</v>
       </c>
@@ -21825,6 +21897,9 @@
       <c r="Z255">
         <v>0</v>
       </c>
+      <c r="AA255">
+        <v>0</v>
+      </c>
       <c r="AD255" t="s">
         <v>1616</v>
       </c>
@@ -21884,6 +21959,9 @@
       <c r="Z256">
         <v>0</v>
       </c>
+      <c r="AA256">
+        <v>0</v>
+      </c>
       <c r="AD256" t="s">
         <v>1616</v>
       </c>
@@ -21955,6 +22033,9 @@
       <c r="Z257">
         <v>0</v>
       </c>
+      <c r="AA257">
+        <v>0</v>
+      </c>
       <c r="AD257" t="s">
         <v>1616</v>
       </c>
@@ -22026,6 +22107,9 @@
       <c r="Z258">
         <v>0</v>
       </c>
+      <c r="AA258">
+        <v>0</v>
+      </c>
       <c r="AD258" t="s">
         <v>1616</v>
       </c>
@@ -22085,6 +22169,9 @@
       <c r="Z259">
         <v>0</v>
       </c>
+      <c r="AA259">
+        <v>0</v>
+      </c>
       <c r="AD259" t="s">
         <v>1616</v>
       </c>
@@ -22144,6 +22231,9 @@
       <c r="Z260">
         <v>0</v>
       </c>
+      <c r="AA260">
+        <v>0</v>
+      </c>
       <c r="AD260" t="s">
         <v>1616</v>
       </c>
@@ -22215,6 +22305,9 @@
       <c r="Z261">
         <v>0</v>
       </c>
+      <c r="AA261">
+        <v>0</v>
+      </c>
       <c r="AD261" t="s">
         <v>1616</v>
       </c>
@@ -22286,6 +22379,9 @@
       <c r="Z262">
         <v>0</v>
       </c>
+      <c r="AA262">
+        <v>0</v>
+      </c>
       <c r="AD262" t="s">
         <v>1616</v>
       </c>
@@ -22345,6 +22441,9 @@
       <c r="Z263">
         <v>0</v>
       </c>
+      <c r="AA263">
+        <v>0</v>
+      </c>
       <c r="AD263" t="s">
         <v>1616</v>
       </c>
@@ -22404,6 +22503,9 @@
       <c r="Z264">
         <v>0</v>
       </c>
+      <c r="AA264">
+        <v>0</v>
+      </c>
       <c r="AD264" t="s">
         <v>1616</v>
       </c>
@@ -22445,6 +22547,9 @@
       <c r="P265" t="s">
         <v>69</v>
       </c>
+      <c r="R265" t="s">
+        <v>124</v>
+      </c>
       <c r="T265">
         <v>2.4</v>
       </c>
@@ -22452,6 +22557,9 @@
         <v>158</v>
       </c>
       <c r="Z265">
+        <v>0</v>
+      </c>
+      <c r="AA265">
         <v>0</v>
       </c>
       <c r="AD265" t="s">
@@ -22495,6 +22603,9 @@
       <c r="P266" t="s">
         <v>70</v>
       </c>
+      <c r="R266" t="s">
+        <v>124</v>
+      </c>
       <c r="T266">
         <v>1.7</v>
       </c>
@@ -22502,6 +22613,9 @@
         <v>158</v>
       </c>
       <c r="Z266">
+        <v>0</v>
+      </c>
+      <c r="AA266">
         <v>0</v>
       </c>
       <c r="AD266" t="s">
@@ -22545,6 +22659,9 @@
       <c r="P267" t="s">
         <v>71</v>
       </c>
+      <c r="R267" t="s">
+        <v>124</v>
+      </c>
       <c r="T267">
         <v>98.7</v>
       </c>
@@ -22552,6 +22669,9 @@
         <v>158</v>
       </c>
       <c r="Z267">
+        <v>0</v>
+      </c>
+      <c r="AA267">
         <v>0</v>
       </c>
       <c r="AD267" t="s">
@@ -22594,6 +22714,784 @@
       </c>
       <c r="P268" t="s">
         <v>61</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R268" t="s">
+        <v>124</v>
+      </c>
+      <c r="S268" t="s">
+        <v>113</v>
+      </c>
+      <c r="T268">
+        <v>307.5</v>
+      </c>
+      <c r="U268" t="s">
+        <v>78</v>
+      </c>
+      <c r="V268">
+        <v>294</v>
+      </c>
+      <c r="W268" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X268">
+        <v>324.5</v>
+      </c>
+      <c r="Y268">
+        <v>128</v>
+      </c>
+      <c r="Z268">
+        <v>0</v>
+      </c>
+      <c r="AA268">
+        <v>0</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>17</v>
+      </c>
+      <c r="B269">
+        <v>1</v>
+      </c>
+      <c r="C269" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D269" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G269" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I269" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J269" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M269" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N269" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O269" t="s">
+        <v>30</v>
+      </c>
+      <c r="P269" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R269" t="s">
+        <v>124</v>
+      </c>
+      <c r="S269" t="s">
+        <v>113</v>
+      </c>
+      <c r="T269">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="U269" t="s">
+        <v>78</v>
+      </c>
+      <c r="V269">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W269" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X269">
+        <v>0.108</v>
+      </c>
+      <c r="Y269">
+        <v>128</v>
+      </c>
+      <c r="Z269">
+        <v>0</v>
+      </c>
+      <c r="AA269">
+        <v>0</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>17</v>
+      </c>
+      <c r="B270">
+        <v>1</v>
+      </c>
+      <c r="C270" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D270" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G270" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I270" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J270" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M270" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N270" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O270" t="s">
+        <v>30</v>
+      </c>
+      <c r="P270" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R270" t="s">
+        <v>124</v>
+      </c>
+      <c r="S270" t="s">
+        <v>113</v>
+      </c>
+      <c r="T270">
+        <v>43.9</v>
+      </c>
+      <c r="U270" t="s">
+        <v>78</v>
+      </c>
+      <c r="V270">
+        <v>32.6</v>
+      </c>
+      <c r="W270" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X270">
+        <v>54.6</v>
+      </c>
+      <c r="Y270">
+        <v>128</v>
+      </c>
+      <c r="Z270">
+        <v>0</v>
+      </c>
+      <c r="AA270">
+        <v>0</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>17</v>
+      </c>
+      <c r="B271">
+        <v>1</v>
+      </c>
+      <c r="C271" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D271" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I271" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J271" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M271" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N271" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O271" t="s">
+        <v>30</v>
+      </c>
+      <c r="P271" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R271" t="s">
+        <v>124</v>
+      </c>
+      <c r="S271" t="s">
+        <v>113</v>
+      </c>
+      <c r="T271">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="U271" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y271">
+        <v>128</v>
+      </c>
+      <c r="Z271">
+        <v>0</v>
+      </c>
+      <c r="AA271">
+        <v>0</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>17</v>
+      </c>
+      <c r="B272">
+        <v>1</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D272" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G272" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I272" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J272" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M272" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N272" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O272" t="s">
+        <v>30</v>
+      </c>
+      <c r="P272" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R272" t="s">
+        <v>124</v>
+      </c>
+      <c r="S272" t="s">
+        <v>113</v>
+      </c>
+      <c r="T272">
+        <v>305</v>
+      </c>
+      <c r="U272" t="s">
+        <v>78</v>
+      </c>
+      <c r="V272">
+        <v>273.3</v>
+      </c>
+      <c r="W272" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X272">
+        <v>352.2</v>
+      </c>
+      <c r="Y272">
+        <v>27</v>
+      </c>
+      <c r="Z272">
+        <v>0</v>
+      </c>
+      <c r="AA272">
+        <v>0</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>17</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="C273" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D273" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G273" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I273" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J273" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M273" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N273" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O273" t="s">
+        <v>30</v>
+      </c>
+      <c r="P273" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R273" t="s">
+        <v>124</v>
+      </c>
+      <c r="S273" t="s">
+        <v>113</v>
+      </c>
+      <c r="T273">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="U273" t="s">
+        <v>78</v>
+      </c>
+      <c r="V273">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="W273" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X273">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y273">
+        <v>27</v>
+      </c>
+      <c r="Z273">
+        <v>0</v>
+      </c>
+      <c r="AA273">
+        <v>0</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>17</v>
+      </c>
+      <c r="B274">
+        <v>1</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D274" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G274" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I274" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J274" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M274" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N274" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O274" t="s">
+        <v>30</v>
+      </c>
+      <c r="P274" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R274" t="s">
+        <v>124</v>
+      </c>
+      <c r="S274" t="s">
+        <v>113</v>
+      </c>
+      <c r="T274">
+        <v>51.9</v>
+      </c>
+      <c r="U274" t="s">
+        <v>78</v>
+      </c>
+      <c r="V274">
+        <v>45.4</v>
+      </c>
+      <c r="W274" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X274">
+        <v>56.9</v>
+      </c>
+      <c r="Y274">
+        <v>27</v>
+      </c>
+      <c r="Z274">
+        <v>0</v>
+      </c>
+      <c r="AA274">
+        <v>0</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>17</v>
+      </c>
+      <c r="B275">
+        <v>1</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G275" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I275" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J275" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M275" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N275" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O275" t="s">
+        <v>30</v>
+      </c>
+      <c r="P275" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R275" t="s">
+        <v>124</v>
+      </c>
+      <c r="S275" t="s">
+        <v>113</v>
+      </c>
+      <c r="T275">
+        <v>7.5469999999999997</v>
+      </c>
+      <c r="U275" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y275">
+        <v>27</v>
+      </c>
+      <c r="Z275">
+        <v>0</v>
+      </c>
+      <c r="AA275">
+        <v>0</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>17</v>
+      </c>
+      <c r="B276">
+        <v>1</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D276" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I276" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J276" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M276" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N276" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O276" t="s">
+        <v>30</v>
+      </c>
+      <c r="P276" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R276" t="s">
+        <v>124</v>
+      </c>
+      <c r="S276" t="s">
+        <v>113</v>
+      </c>
+      <c r="T276">
+        <v>311.3</v>
+      </c>
+      <c r="U276" t="s">
+        <v>78</v>
+      </c>
+      <c r="V276">
+        <v>298.3</v>
+      </c>
+      <c r="W276" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X276">
+        <v>328.2</v>
+      </c>
+      <c r="Y276">
+        <v>158</v>
+      </c>
+      <c r="Z276">
+        <v>0</v>
+      </c>
+      <c r="AA276">
+        <v>0</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>17</v>
+      </c>
+      <c r="B277">
+        <v>1</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G277" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I277" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J277" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M277" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N277" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O277" t="s">
+        <v>30</v>
+      </c>
+      <c r="P277" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R277" t="s">
+        <v>124</v>
+      </c>
+      <c r="S277" t="s">
+        <v>113</v>
+      </c>
+      <c r="T277">
+        <v>0.09</v>
+      </c>
+      <c r="U277" t="s">
+        <v>78</v>
+      </c>
+      <c r="V277">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="W277" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X277">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="Y277">
+        <v>158</v>
+      </c>
+      <c r="Z277">
+        <v>0</v>
+      </c>
+      <c r="AA277">
+        <v>0</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>17</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G278" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I278" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J278" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M278" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N278" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O278" t="s">
+        <v>30</v>
+      </c>
+      <c r="P278" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R278" t="s">
+        <v>124</v>
+      </c>
+      <c r="S278" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>17</v>
+      </c>
+      <c r="B279">
+        <v>1</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G279" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I279" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J279" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M279" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N279" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O279" t="s">
+        <v>30</v>
+      </c>
+      <c r="P279" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R279" t="s">
+        <v>124</v>
+      </c>
+      <c r="S279" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -22613,9 +23511,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P193 P195:P197 P199:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>clean.trait.name</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>precision_name</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Group</formula1>
     </dataValidation>
@@ -22630,6 +23525,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Class</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W270 W272:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>precision_name</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0708A258-9BCE-CC4D-8452-4E5868659EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CF1A3-CA02-6842-8F0A-21524642B5B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="18160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5645" uniqueCount="1691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="1693">
   <si>
     <t>observation_id</t>
   </si>
@@ -5187,6 +5187,12 @@
   </si>
   <si>
     <t>Bomb radiocarbon</t>
+  </si>
+  <si>
+    <t>3 parameter Gompertz</t>
+  </si>
+  <si>
+    <t>2 parameter Gompertz</t>
   </si>
 </sst>
 </file>
@@ -6273,11 +6279,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE279"/>
+  <dimension ref="A1:AE315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD277" sqref="AD277"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC304" sqref="AC304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7624,7 +7630,7 @@
         <v>124</v>
       </c>
       <c r="S22" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="T22">
         <v>171</v>
@@ -13364,7 +13370,7 @@
         <v>124</v>
       </c>
       <c r="S118" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T118">
         <v>177.6</v>
@@ -13435,7 +13441,7 @@
         <v>124</v>
       </c>
       <c r="S119" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T119">
         <v>0.313</v>
@@ -13506,7 +13512,7 @@
         <v>124</v>
       </c>
       <c r="S120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T120">
         <v>53.8</v>
@@ -13577,7 +13583,7 @@
         <v>124</v>
       </c>
       <c r="S121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T121">
         <v>10.675000000000001</v>
@@ -13642,7 +13648,7 @@
         <v>124</v>
       </c>
       <c r="S122" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T122">
         <v>175.4</v>
@@ -13713,7 +13719,7 @@
         <v>124</v>
       </c>
       <c r="S123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T123">
         <v>0.4</v>
@@ -13784,7 +13790,7 @@
         <v>124</v>
       </c>
       <c r="S124" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T124">
         <v>62.5</v>
@@ -13855,7 +13861,7 @@
         <v>124</v>
       </c>
       <c r="S125" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="T125">
         <v>10.753</v>
@@ -23446,6 +23452,33 @@
       <c r="S278" t="s">
         <v>113</v>
       </c>
+      <c r="T278">
+        <v>44.8</v>
+      </c>
+      <c r="U278" t="s">
+        <v>78</v>
+      </c>
+      <c r="V278">
+        <v>36.9</v>
+      </c>
+      <c r="W278" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X278">
+        <v>52.4</v>
+      </c>
+      <c r="Y278">
+        <v>158</v>
+      </c>
+      <c r="Z278">
+        <v>0</v>
+      </c>
+      <c r="AA278">
+        <v>0</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279">
@@ -23492,6 +23525,2400 @@
       </c>
       <c r="S279" t="s">
         <v>113</v>
+      </c>
+      <c r="T279">
+        <v>16.86</v>
+      </c>
+      <c r="U279" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y279">
+        <v>158</v>
+      </c>
+      <c r="Z279">
+        <v>0</v>
+      </c>
+      <c r="AA279">
+        <v>0</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>17</v>
+      </c>
+      <c r="B280">
+        <v>1</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G280" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I280" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J280" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M280" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N280" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O280" t="s">
+        <v>30</v>
+      </c>
+      <c r="P280" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R280" t="s">
+        <v>124</v>
+      </c>
+      <c r="S280" t="s">
+        <v>110</v>
+      </c>
+      <c r="T280">
+        <v>307.5</v>
+      </c>
+      <c r="U280" t="s">
+        <v>78</v>
+      </c>
+      <c r="V280">
+        <v>294</v>
+      </c>
+      <c r="W280" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X280">
+        <v>324.5</v>
+      </c>
+      <c r="Y280">
+        <v>128</v>
+      </c>
+      <c r="Z280">
+        <v>0</v>
+      </c>
+      <c r="AA280">
+        <v>0</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>17</v>
+      </c>
+      <c r="B281">
+        <v>1</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D281" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G281" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I281" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J281" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M281" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N281" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O281" t="s">
+        <v>30</v>
+      </c>
+      <c r="P281" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R281" t="s">
+        <v>124</v>
+      </c>
+      <c r="S281" t="s">
+        <v>110</v>
+      </c>
+      <c r="T281">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="U281" t="s">
+        <v>78</v>
+      </c>
+      <c r="V281">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="W281" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X281">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="Y281">
+        <v>128</v>
+      </c>
+      <c r="Z281">
+        <v>0</v>
+      </c>
+      <c r="AA281">
+        <v>0</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>17</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D282" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G282" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I282" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J282" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M282" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N282" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O282" t="s">
+        <v>30</v>
+      </c>
+      <c r="P282" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R282" t="s">
+        <v>124</v>
+      </c>
+      <c r="S282" t="s">
+        <v>110</v>
+      </c>
+      <c r="T282">
+        <v>50</v>
+      </c>
+      <c r="Y282">
+        <v>128</v>
+      </c>
+      <c r="Z282">
+        <v>0</v>
+      </c>
+      <c r="AA282">
+        <v>0</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>17</v>
+      </c>
+      <c r="B283">
+        <v>1</v>
+      </c>
+      <c r="C283" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G283" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I283" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J283" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M283" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N283" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O283" t="s">
+        <v>30</v>
+      </c>
+      <c r="P283" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R283" t="s">
+        <v>124</v>
+      </c>
+      <c r="S283" t="s">
+        <v>110</v>
+      </c>
+      <c r="T283">
+        <v>17.45</v>
+      </c>
+      <c r="Y283">
+        <v>128</v>
+      </c>
+      <c r="Z283">
+        <v>0</v>
+      </c>
+      <c r="AA283">
+        <v>0</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>17</v>
+      </c>
+      <c r="B284">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G284" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I284" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J284" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M284" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N284" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O284" t="s">
+        <v>30</v>
+      </c>
+      <c r="P284" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R284" t="s">
+        <v>124</v>
+      </c>
+      <c r="S284" t="s">
+        <v>110</v>
+      </c>
+      <c r="T284">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="U284" t="s">
+        <v>78</v>
+      </c>
+      <c r="V284">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="W284" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X284">
+        <v>334.1</v>
+      </c>
+      <c r="Y284">
+        <v>27</v>
+      </c>
+      <c r="Z284">
+        <v>0</v>
+      </c>
+      <c r="AA284">
+        <v>0</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>17</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G285" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I285" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J285" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M285" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N285" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O285" t="s">
+        <v>30</v>
+      </c>
+      <c r="P285" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R285" t="s">
+        <v>124</v>
+      </c>
+      <c r="S285" t="s">
+        <v>110</v>
+      </c>
+      <c r="T285">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="U285" t="s">
+        <v>78</v>
+      </c>
+      <c r="V285">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="W285" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X285">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="Y285">
+        <v>27</v>
+      </c>
+      <c r="Z285">
+        <v>0</v>
+      </c>
+      <c r="AA285">
+        <v>0</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>17</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G286" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I286" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J286" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M286" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N286" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O286" t="s">
+        <v>30</v>
+      </c>
+      <c r="P286" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R286" t="s">
+        <v>124</v>
+      </c>
+      <c r="S286" t="s">
+        <v>110</v>
+      </c>
+      <c r="T286">
+        <v>50</v>
+      </c>
+      <c r="Y286">
+        <v>27</v>
+      </c>
+      <c r="Z286">
+        <v>0</v>
+      </c>
+      <c r="AA286">
+        <v>0</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>17</v>
+      </c>
+      <c r="B287">
+        <v>1</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G287" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H287" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I287" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J287" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M287" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N287" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O287" t="s">
+        <v>30</v>
+      </c>
+      <c r="P287" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R287" t="s">
+        <v>124</v>
+      </c>
+      <c r="S287" t="s">
+        <v>110</v>
+      </c>
+      <c r="T287">
+        <v>7.5449999999999999</v>
+      </c>
+      <c r="Y287">
+        <v>27</v>
+      </c>
+      <c r="Z287">
+        <v>0</v>
+      </c>
+      <c r="AA287">
+        <v>0</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>17</v>
+      </c>
+      <c r="B288">
+        <v>1</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G288" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I288" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J288" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M288" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N288" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O288" t="s">
+        <v>30</v>
+      </c>
+      <c r="P288" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R288" t="s">
+        <v>124</v>
+      </c>
+      <c r="S288" t="s">
+        <v>110</v>
+      </c>
+      <c r="T288">
+        <v>314.10000000000002</v>
+      </c>
+      <c r="U288" t="s">
+        <v>78</v>
+      </c>
+      <c r="V288">
+        <v>301.7</v>
+      </c>
+      <c r="W288" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X288">
+        <v>330.5</v>
+      </c>
+      <c r="Y288">
+        <v>158</v>
+      </c>
+      <c r="Z288">
+        <v>0</v>
+      </c>
+      <c r="AA288">
+        <v>0</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>17</v>
+      </c>
+      <c r="B289">
+        <v>1</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G289" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I289" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J289" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M289" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N289" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O289" t="s">
+        <v>30</v>
+      </c>
+      <c r="P289" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R289" t="s">
+        <v>124</v>
+      </c>
+      <c r="S289" t="s">
+        <v>110</v>
+      </c>
+      <c r="T289">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="U289" t="s">
+        <v>78</v>
+      </c>
+      <c r="V289">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="W289" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X289">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="Y289">
+        <v>158</v>
+      </c>
+      <c r="Z289">
+        <v>0</v>
+      </c>
+      <c r="AA289">
+        <v>0</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>17</v>
+      </c>
+      <c r="B290">
+        <v>1</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I290" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J290" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M290" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N290" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O290" t="s">
+        <v>30</v>
+      </c>
+      <c r="P290" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R290" t="s">
+        <v>124</v>
+      </c>
+      <c r="S290" t="s">
+        <v>110</v>
+      </c>
+      <c r="T290">
+        <v>50</v>
+      </c>
+      <c r="Y290">
+        <v>158</v>
+      </c>
+      <c r="Z290">
+        <v>0</v>
+      </c>
+      <c r="AA290">
+        <v>0</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>17</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G291" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I291" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J291" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M291" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N291" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O291" t="s">
+        <v>30</v>
+      </c>
+      <c r="P291" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R291" t="s">
+        <v>124</v>
+      </c>
+      <c r="S291" t="s">
+        <v>110</v>
+      </c>
+      <c r="T291">
+        <v>16.89</v>
+      </c>
+      <c r="Y291">
+        <v>158</v>
+      </c>
+      <c r="Z291">
+        <v>0</v>
+      </c>
+      <c r="AA291">
+        <v>0</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>17</v>
+      </c>
+      <c r="B292">
+        <v>1</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G292" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I292" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J292" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M292" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N292" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O292" t="s">
+        <v>30</v>
+      </c>
+      <c r="P292" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R292" t="s">
+        <v>124</v>
+      </c>
+      <c r="S292" t="s">
+        <v>116</v>
+      </c>
+      <c r="T292">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="U292" t="s">
+        <v>78</v>
+      </c>
+      <c r="V292">
+        <v>279.8</v>
+      </c>
+      <c r="W292" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X292">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="Y292">
+        <v>128</v>
+      </c>
+      <c r="Z292">
+        <v>0</v>
+      </c>
+      <c r="AA292">
+        <v>0</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>17</v>
+      </c>
+      <c r="B293">
+        <v>1</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I293" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J293" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M293" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N293" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O293" t="s">
+        <v>30</v>
+      </c>
+      <c r="P293" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R293" t="s">
+        <v>124</v>
+      </c>
+      <c r="S293" t="s">
+        <v>116</v>
+      </c>
+      <c r="T293">
+        <v>0.156</v>
+      </c>
+      <c r="U293" t="s">
+        <v>78</v>
+      </c>
+      <c r="V293">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="W293" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X293">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="Y293">
+        <v>128</v>
+      </c>
+      <c r="Z293">
+        <v>0</v>
+      </c>
+      <c r="AA293">
+        <v>0</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>17</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G294" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I294" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J294" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M294" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N294" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O294" t="s">
+        <v>30</v>
+      </c>
+      <c r="P294" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R294" t="s">
+        <v>124</v>
+      </c>
+      <c r="S294" t="s">
+        <v>116</v>
+      </c>
+      <c r="T294">
+        <v>53.2</v>
+      </c>
+      <c r="U294" t="s">
+        <v>78</v>
+      </c>
+      <c r="V294">
+        <v>44.2</v>
+      </c>
+      <c r="W294" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X294">
+        <v>62.5</v>
+      </c>
+      <c r="Y294">
+        <v>128</v>
+      </c>
+      <c r="Z294">
+        <v>0</v>
+      </c>
+      <c r="AA294">
+        <v>0</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>17</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G295" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I295" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J295" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M295" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N295" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O295" t="s">
+        <v>30</v>
+      </c>
+      <c r="P295" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R295" t="s">
+        <v>124</v>
+      </c>
+      <c r="S295" t="s">
+        <v>116</v>
+      </c>
+      <c r="T295">
+        <v>16.79</v>
+      </c>
+      <c r="Y295">
+        <v>128</v>
+      </c>
+      <c r="Z295">
+        <v>0</v>
+      </c>
+      <c r="AA295">
+        <v>0</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>17</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G296" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I296" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J296" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M296" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N296" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O296" t="s">
+        <v>30</v>
+      </c>
+      <c r="P296" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R296" t="s">
+        <v>124</v>
+      </c>
+      <c r="S296" t="s">
+        <v>116</v>
+      </c>
+      <c r="T296">
+        <v>259.8</v>
+      </c>
+      <c r="U296" t="s">
+        <v>78</v>
+      </c>
+      <c r="V296">
+        <v>244.2</v>
+      </c>
+      <c r="W296" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X296">
+        <v>279.5</v>
+      </c>
+      <c r="Y296">
+        <v>27</v>
+      </c>
+      <c r="Z296">
+        <v>0</v>
+      </c>
+      <c r="AA296">
+        <v>0</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>17</v>
+      </c>
+      <c r="B297">
+        <v>1</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G297" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I297" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J297" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M297" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N297" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O297" t="s">
+        <v>30</v>
+      </c>
+      <c r="P297" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R297" t="s">
+        <v>124</v>
+      </c>
+      <c r="S297" t="s">
+        <v>116</v>
+      </c>
+      <c r="T297">
+        <v>0.155</v>
+      </c>
+      <c r="U297" t="s">
+        <v>78</v>
+      </c>
+      <c r="V297">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="W297" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X297">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="Y297">
+        <v>27</v>
+      </c>
+      <c r="Z297">
+        <v>0</v>
+      </c>
+      <c r="AA297">
+        <v>0</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>17</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G298" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I298" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J298" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M298" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N298" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O298" t="s">
+        <v>30</v>
+      </c>
+      <c r="P298" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R298" t="s">
+        <v>124</v>
+      </c>
+      <c r="S298" t="s">
+        <v>116</v>
+      </c>
+      <c r="T298">
+        <v>56.8</v>
+      </c>
+      <c r="U298" t="s">
+        <v>78</v>
+      </c>
+      <c r="V298">
+        <v>51.2</v>
+      </c>
+      <c r="W298" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X298">
+        <v>61.4</v>
+      </c>
+      <c r="Y298">
+        <v>27</v>
+      </c>
+      <c r="Z298">
+        <v>0</v>
+      </c>
+      <c r="AA298">
+        <v>0</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>17</v>
+      </c>
+      <c r="B299">
+        <v>1</v>
+      </c>
+      <c r="C299" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G299" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I299" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J299" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M299" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N299" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O299" t="s">
+        <v>30</v>
+      </c>
+      <c r="P299" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R299" t="s">
+        <v>124</v>
+      </c>
+      <c r="S299" t="s">
+        <v>116</v>
+      </c>
+      <c r="T299">
+        <v>70.27</v>
+      </c>
+      <c r="Y299">
+        <v>27</v>
+      </c>
+      <c r="Z299">
+        <v>0</v>
+      </c>
+      <c r="AA299">
+        <v>0</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>17</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G300" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I300" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J300" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M300" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N300" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O300" t="s">
+        <v>30</v>
+      </c>
+      <c r="P300" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R300" t="s">
+        <v>124</v>
+      </c>
+      <c r="S300" t="s">
+        <v>116</v>
+      </c>
+      <c r="T300">
+        <v>291.8</v>
+      </c>
+      <c r="U300" t="s">
+        <v>78</v>
+      </c>
+      <c r="V300">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="W300" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X300">
+        <v>302.5</v>
+      </c>
+      <c r="Y300">
+        <v>158</v>
+      </c>
+      <c r="Z300">
+        <v>0</v>
+      </c>
+      <c r="AA300">
+        <v>0</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>17</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
+      </c>
+      <c r="C301" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D301" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G301" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I301" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J301" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M301" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N301" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O301" t="s">
+        <v>30</v>
+      </c>
+      <c r="P301" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R301" t="s">
+        <v>124</v>
+      </c>
+      <c r="S301" t="s">
+        <v>116</v>
+      </c>
+      <c r="T301">
+        <v>0.152</v>
+      </c>
+      <c r="U301" t="s">
+        <v>78</v>
+      </c>
+      <c r="V301">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="W301" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X301">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="Y301">
+        <v>158</v>
+      </c>
+      <c r="Z301">
+        <v>0</v>
+      </c>
+      <c r="AA301">
+        <v>0</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>17</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D302" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G302" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I302" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J302" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M302" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N302" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O302" t="s">
+        <v>30</v>
+      </c>
+      <c r="P302" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R302" t="s">
+        <v>124</v>
+      </c>
+      <c r="S302" t="s">
+        <v>116</v>
+      </c>
+      <c r="T302">
+        <v>54.2</v>
+      </c>
+      <c r="U302" t="s">
+        <v>78</v>
+      </c>
+      <c r="V302">
+        <v>48</v>
+      </c>
+      <c r="W302" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X302">
+        <v>60.4</v>
+      </c>
+      <c r="Y302">
+        <v>158</v>
+      </c>
+      <c r="Z302">
+        <v>0</v>
+      </c>
+      <c r="AA302">
+        <v>0</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>17</v>
+      </c>
+      <c r="B303">
+        <v>1</v>
+      </c>
+      <c r="C303" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D303" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G303" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I303" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J303" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M303" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N303" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O303" t="s">
+        <v>30</v>
+      </c>
+      <c r="P303" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R303" t="s">
+        <v>124</v>
+      </c>
+      <c r="S303" t="s">
+        <v>116</v>
+      </c>
+      <c r="T303">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Y303">
+        <v>158</v>
+      </c>
+      <c r="Z303">
+        <v>0</v>
+      </c>
+      <c r="AA303">
+        <v>0</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>17</v>
+      </c>
+      <c r="B304">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D304" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G304" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H304" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I304" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J304" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M304" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N304" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O304" t="s">
+        <v>30</v>
+      </c>
+      <c r="P304" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R304" t="s">
+        <v>124</v>
+      </c>
+      <c r="S304" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y304">
+        <v>128</v>
+      </c>
+      <c r="Z304">
+        <v>0</v>
+      </c>
+      <c r="AA304">
+        <v>0</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>17</v>
+      </c>
+      <c r="B305">
+        <v>1</v>
+      </c>
+      <c r="C305" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D305" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G305" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I305" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J305" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M305" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N305" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O305" t="s">
+        <v>30</v>
+      </c>
+      <c r="P305" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R305" t="s">
+        <v>124</v>
+      </c>
+      <c r="S305" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y305">
+        <v>128</v>
+      </c>
+      <c r="Z305">
+        <v>0</v>
+      </c>
+      <c r="AA305">
+        <v>0</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>17</v>
+      </c>
+      <c r="B306">
+        <v>1</v>
+      </c>
+      <c r="C306" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D306" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G306" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I306" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J306" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M306" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N306" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O306" t="s">
+        <v>30</v>
+      </c>
+      <c r="P306" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R306" t="s">
+        <v>124</v>
+      </c>
+      <c r="S306" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y306">
+        <v>128</v>
+      </c>
+      <c r="Z306">
+        <v>0</v>
+      </c>
+      <c r="AA306">
+        <v>0</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>17</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D307" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G307" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I307" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J307" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M307" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N307" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O307" t="s">
+        <v>30</v>
+      </c>
+      <c r="P307" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R307" t="s">
+        <v>124</v>
+      </c>
+      <c r="S307" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y307">
+        <v>128</v>
+      </c>
+      <c r="Z307">
+        <v>0</v>
+      </c>
+      <c r="AA307">
+        <v>0</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>17</v>
+      </c>
+      <c r="B308">
+        <v>1</v>
+      </c>
+      <c r="C308" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D308" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G308" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I308" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J308" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M308" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N308" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O308" t="s">
+        <v>30</v>
+      </c>
+      <c r="P308" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R308" t="s">
+        <v>124</v>
+      </c>
+      <c r="S308" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y308">
+        <v>27</v>
+      </c>
+      <c r="Z308">
+        <v>0</v>
+      </c>
+      <c r="AA308">
+        <v>0</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>17</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D309" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G309" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I309" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J309" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M309" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N309" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O309" t="s">
+        <v>30</v>
+      </c>
+      <c r="P309" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R309" t="s">
+        <v>124</v>
+      </c>
+      <c r="S309" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y309">
+        <v>27</v>
+      </c>
+      <c r="Z309">
+        <v>0</v>
+      </c>
+      <c r="AA309">
+        <v>0</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>17</v>
+      </c>
+      <c r="B310">
+        <v>1</v>
+      </c>
+      <c r="C310" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D310" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G310" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I310" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J310" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M310" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N310" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O310" t="s">
+        <v>30</v>
+      </c>
+      <c r="P310" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R310" t="s">
+        <v>124</v>
+      </c>
+      <c r="S310" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y310">
+        <v>27</v>
+      </c>
+      <c r="Z310">
+        <v>0</v>
+      </c>
+      <c r="AA310">
+        <v>0</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>17</v>
+      </c>
+      <c r="B311">
+        <v>1</v>
+      </c>
+      <c r="C311" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D311" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G311" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I311" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J311" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M311" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N311" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O311" t="s">
+        <v>30</v>
+      </c>
+      <c r="P311" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R311" t="s">
+        <v>124</v>
+      </c>
+      <c r="S311" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y311">
+        <v>27</v>
+      </c>
+      <c r="Z311">
+        <v>0</v>
+      </c>
+      <c r="AA311">
+        <v>0</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>17</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D312" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G312" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I312" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J312" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M312" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N312" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O312" t="s">
+        <v>30</v>
+      </c>
+      <c r="P312" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R312" t="s">
+        <v>124</v>
+      </c>
+      <c r="S312" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y312">
+        <v>158</v>
+      </c>
+      <c r="Z312">
+        <v>0</v>
+      </c>
+      <c r="AA312">
+        <v>0</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>17</v>
+      </c>
+      <c r="B313">
+        <v>1</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D313" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G313" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I313" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J313" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M313" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N313" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O313" t="s">
+        <v>30</v>
+      </c>
+      <c r="P313" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R313" t="s">
+        <v>124</v>
+      </c>
+      <c r="S313" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y313">
+        <v>158</v>
+      </c>
+      <c r="Z313">
+        <v>0</v>
+      </c>
+      <c r="AA313">
+        <v>0</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>17</v>
+      </c>
+      <c r="B314">
+        <v>1</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D314" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G314" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I314" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J314" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M314" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N314" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O314" t="s">
+        <v>30</v>
+      </c>
+      <c r="P314" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R314" t="s">
+        <v>124</v>
+      </c>
+      <c r="S314" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y314">
+        <v>158</v>
+      </c>
+      <c r="Z314">
+        <v>0</v>
+      </c>
+      <c r="AA314">
+        <v>0</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>17</v>
+      </c>
+      <c r="B315">
+        <v>1</v>
+      </c>
+      <c r="C315" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D315" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G315" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I315" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J315" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M315" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N315" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O315" t="s">
+        <v>30</v>
+      </c>
+      <c r="P315" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R315" t="s">
+        <v>124</v>
+      </c>
+      <c r="S315" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y315">
+        <v>158</v>
+      </c>
+      <c r="Z315">
+        <v>0</v>
+      </c>
+      <c r="AA315">
+        <v>0</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>1692</v>
       </c>
     </row>
   </sheetData>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{978CF1A3-CA02-6842-8F0A-21524642B5B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1AC86F-611B-7A41-A90B-64DDA2C92FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38200" windowHeight="18160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6184" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="1694">
   <si>
     <t>observation_id</t>
   </si>
@@ -5193,6 +5193,9 @@
   </si>
   <si>
     <t>2 parameter Gompertz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubious as few females sampled, and smallest credible mature was 228cm </t>
   </si>
 </sst>
 </file>
@@ -6279,11 +6282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE315"/>
+  <dimension ref="A1:AE328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A282" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AC304" sqref="AC304"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H338" sqref="H338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24434,6 +24437,9 @@
       <c r="AC292" t="s">
         <v>1691</v>
       </c>
+      <c r="AD292" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293">
@@ -24508,6 +24514,9 @@
       <c r="AC293" t="s">
         <v>1691</v>
       </c>
+      <c r="AD293" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294">
@@ -24582,6 +24591,9 @@
       <c r="AC294" t="s">
         <v>1691</v>
       </c>
+      <c r="AD294" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295">
@@ -24644,6 +24656,9 @@
       <c r="AC295" t="s">
         <v>1691</v>
       </c>
+      <c r="AD295" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296">
@@ -24718,6 +24733,9 @@
       <c r="AC296" t="s">
         <v>1691</v>
       </c>
+      <c r="AD296" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297">
@@ -24792,6 +24810,9 @@
       <c r="AC297" t="s">
         <v>1691</v>
       </c>
+      <c r="AD297" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298">
@@ -24866,6 +24887,9 @@
       <c r="AC298" t="s">
         <v>1691</v>
       </c>
+      <c r="AD298" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299">
@@ -24928,6 +24952,9 @@
       <c r="AC299" t="s">
         <v>1691</v>
       </c>
+      <c r="AD299" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300">
@@ -25002,6 +25029,9 @@
       <c r="AC300" t="s">
         <v>1691</v>
       </c>
+      <c r="AD300" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301">
@@ -25076,6 +25106,9 @@
       <c r="AC301" t="s">
         <v>1691</v>
       </c>
+      <c r="AD301" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302">
@@ -25150,6 +25183,9 @@
       <c r="AC302" t="s">
         <v>1691</v>
       </c>
+      <c r="AD302" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303">
@@ -25212,6 +25248,9 @@
       <c r="AC303" t="s">
         <v>1691</v>
       </c>
+      <c r="AD303" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304">
@@ -25259,6 +25298,21 @@
       <c r="S304" t="s">
         <v>116</v>
       </c>
+      <c r="T304">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="U304" t="s">
+        <v>78</v>
+      </c>
+      <c r="V304">
+        <v>281.7</v>
+      </c>
+      <c r="W304" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X304">
+        <v>299</v>
+      </c>
       <c r="Y304">
         <v>128</v>
       </c>
@@ -25271,8 +25325,11 @@
       <c r="AC304" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="305" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD304" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>17</v>
       </c>
@@ -25318,6 +25375,21 @@
       <c r="S305" t="s">
         <v>116</v>
       </c>
+      <c r="T305">
+        <v>0.161</v>
+      </c>
+      <c r="U305" t="s">
+        <v>78</v>
+      </c>
+      <c r="V305">
+        <v>0.152</v>
+      </c>
+      <c r="W305" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X305">
+        <v>0.17199999999999999</v>
+      </c>
       <c r="Y305">
         <v>128</v>
       </c>
@@ -25330,8 +25402,11 @@
       <c r="AC305" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="306" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD305" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>17</v>
       </c>
@@ -25377,6 +25452,9 @@
       <c r="S306" t="s">
         <v>116</v>
       </c>
+      <c r="T306">
+        <v>50</v>
+      </c>
       <c r="Y306">
         <v>128</v>
       </c>
@@ -25389,8 +25467,11 @@
       <c r="AC306" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="307" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD306" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>17</v>
       </c>
@@ -25436,6 +25517,9 @@
       <c r="S307" t="s">
         <v>116</v>
       </c>
+      <c r="T307">
+        <v>16.75</v>
+      </c>
       <c r="Y307">
         <v>128</v>
       </c>
@@ -25448,8 +25532,11 @@
       <c r="AC307" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD307" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>17</v>
       </c>
@@ -25495,6 +25582,21 @@
       <c r="S308" t="s">
         <v>116</v>
       </c>
+      <c r="T308">
+        <v>248.1</v>
+      </c>
+      <c r="U308" t="s">
+        <v>78</v>
+      </c>
+      <c r="V308">
+        <v>233.9</v>
+      </c>
+      <c r="W308" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X308">
+        <v>262.5</v>
+      </c>
       <c r="Y308">
         <v>27</v>
       </c>
@@ -25507,8 +25609,11 @@
       <c r="AC308" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD308" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>17</v>
       </c>
@@ -25554,6 +25659,21 @@
       <c r="S309" t="s">
         <v>116</v>
       </c>
+      <c r="T309">
+        <v>0.18</v>
+      </c>
+      <c r="U309" t="s">
+        <v>78</v>
+      </c>
+      <c r="V309">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="W309" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X309">
+        <v>0.20399999999999999</v>
+      </c>
       <c r="Y309">
         <v>27</v>
       </c>
@@ -25566,8 +25686,11 @@
       <c r="AC309" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD309" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>17</v>
       </c>
@@ -25613,6 +25736,9 @@
       <c r="S310" t="s">
         <v>116</v>
       </c>
+      <c r="T310">
+        <v>50</v>
+      </c>
       <c r="Y310">
         <v>27</v>
       </c>
@@ -25625,8 +25751,11 @@
       <c r="AC310" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD310" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>17</v>
       </c>
@@ -25672,6 +25801,9 @@
       <c r="S311" t="s">
         <v>116</v>
       </c>
+      <c r="T311">
+        <v>7.8579999999999997</v>
+      </c>
       <c r="Y311">
         <v>27</v>
       </c>
@@ -25684,8 +25816,11 @@
       <c r="AC311" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD311" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>17</v>
       </c>
@@ -25731,6 +25866,21 @@
       <c r="S312" t="s">
         <v>116</v>
       </c>
+      <c r="T312">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="U312" t="s">
+        <v>78</v>
+      </c>
+      <c r="V312">
+        <v>280.89999999999998</v>
+      </c>
+      <c r="W312" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X312">
+        <v>298.89999999999998</v>
+      </c>
       <c r="Y312">
         <v>158</v>
       </c>
@@ -25743,8 +25893,11 @@
       <c r="AC312" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD312" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>17</v>
       </c>
@@ -25790,6 +25943,21 @@
       <c r="S313" t="s">
         <v>116</v>
       </c>
+      <c r="T313">
+        <v>0.159</v>
+      </c>
+      <c r="U313" t="s">
+        <v>78</v>
+      </c>
+      <c r="V313">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="W313" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X313">
+        <v>0.16800000000000001</v>
+      </c>
       <c r="Y313">
         <v>158</v>
       </c>
@@ -25802,8 +25970,11 @@
       <c r="AC313" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="314" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD313" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>17</v>
       </c>
@@ -25849,6 +26020,9 @@
       <c r="S314" t="s">
         <v>116</v>
       </c>
+      <c r="T314">
+        <v>50</v>
+      </c>
       <c r="Y314">
         <v>158</v>
       </c>
@@ -25861,8 +26035,11 @@
       <c r="AC314" t="s">
         <v>1692</v>
       </c>
-    </row>
-    <row r="315" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD314" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>17</v>
       </c>
@@ -25908,6 +26085,9 @@
       <c r="S315" t="s">
         <v>116</v>
       </c>
+      <c r="T315">
+        <v>16.13</v>
+      </c>
       <c r="Y315">
         <v>158</v>
       </c>
@@ -25919,6 +26099,881 @@
       </c>
       <c r="AC315" t="s">
         <v>1692</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>17</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D316" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G316" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I316" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J316" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M316" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N316" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O316" t="s">
+        <v>28</v>
+      </c>
+      <c r="P316" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R316" t="s">
+        <v>100</v>
+      </c>
+      <c r="S316" t="s">
+        <v>107</v>
+      </c>
+      <c r="T316">
+        <v>13.15</v>
+      </c>
+      <c r="U316" t="s">
+        <v>78</v>
+      </c>
+      <c r="V316">
+        <v>11.96</v>
+      </c>
+      <c r="W316" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X316">
+        <v>14.44</v>
+      </c>
+      <c r="Y316">
+        <v>72</v>
+      </c>
+      <c r="Z316">
+        <v>0</v>
+      </c>
+      <c r="AA316">
+        <v>0</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>17</v>
+      </c>
+      <c r="B317">
+        <v>1</v>
+      </c>
+      <c r="C317" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D317" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G317" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H317" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I317" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J317" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M317" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N317" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O317" t="s">
+        <v>28</v>
+      </c>
+      <c r="P317" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R317" t="s">
+        <v>100</v>
+      </c>
+      <c r="S317" t="s">
+        <v>107</v>
+      </c>
+      <c r="T317">
+        <v>18.420000000000002</v>
+      </c>
+      <c r="U317" t="s">
+        <v>78</v>
+      </c>
+      <c r="V317">
+        <v>15.19</v>
+      </c>
+      <c r="W317" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X317">
+        <v>21.6</v>
+      </c>
+      <c r="Y317">
+        <v>72</v>
+      </c>
+      <c r="Z317">
+        <v>0</v>
+      </c>
+      <c r="AA317">
+        <v>0</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>17</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G318" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I318" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J318" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M318" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N318" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O318" t="s">
+        <v>28</v>
+      </c>
+      <c r="P318" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R318" t="s">
+        <v>100</v>
+      </c>
+      <c r="S318" t="s">
+        <v>107</v>
+      </c>
+      <c r="T318">
+        <v>8.92</v>
+      </c>
+      <c r="U318" t="s">
+        <v>78</v>
+      </c>
+      <c r="V318">
+        <v>6.45</v>
+      </c>
+      <c r="W318" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X318">
+        <v>10.43</v>
+      </c>
+      <c r="Y318">
+        <v>23</v>
+      </c>
+      <c r="Z318">
+        <v>0</v>
+      </c>
+      <c r="AA318">
+        <v>0</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>17</v>
+      </c>
+      <c r="B319">
+        <v>1</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G319" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I319" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J319" t="s">
+        <v>1685</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1686</v>
+      </c>
+      <c r="N319" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O319" t="s">
+        <v>28</v>
+      </c>
+      <c r="P319" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R319" t="s">
+        <v>100</v>
+      </c>
+      <c r="S319" t="s">
+        <v>107</v>
+      </c>
+      <c r="T319">
+        <v>9.6</v>
+      </c>
+      <c r="U319" t="s">
+        <v>78</v>
+      </c>
+      <c r="V319">
+        <v>6.76</v>
+      </c>
+      <c r="W319" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X319">
+        <v>10.76</v>
+      </c>
+      <c r="Y319">
+        <v>23</v>
+      </c>
+      <c r="Z319">
+        <v>0</v>
+      </c>
+      <c r="AA319">
+        <v>0</v>
+      </c>
+      <c r="AD319" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>18</v>
+      </c>
+      <c r="B320">
+        <v>1</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G320" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I320" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J320" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M320" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N320" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O320" t="s">
+        <v>27</v>
+      </c>
+      <c r="P320" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R320" t="s">
+        <v>92</v>
+      </c>
+      <c r="T320">
+        <v>316</v>
+      </c>
+      <c r="U320" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y320">
+        <v>1728</v>
+      </c>
+      <c r="Z320">
+        <v>0</v>
+      </c>
+      <c r="AA320">
+        <v>0</v>
+      </c>
+      <c r="AD320" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>18</v>
+      </c>
+      <c r="B321">
+        <v>1</v>
+      </c>
+      <c r="C321" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D321" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I321" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J321" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M321" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N321" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O321" t="s">
+        <v>27</v>
+      </c>
+      <c r="P321" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R321" t="s">
+        <v>92</v>
+      </c>
+      <c r="T321">
+        <v>239</v>
+      </c>
+      <c r="U321" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y321">
+        <v>3852</v>
+      </c>
+      <c r="Z321">
+        <v>0</v>
+      </c>
+      <c r="AA321">
+        <v>0</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>18</v>
+      </c>
+      <c r="B322">
+        <v>1</v>
+      </c>
+      <c r="C322" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D322" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G322" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I322" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J322" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M322" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N322" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O322" t="s">
+        <v>27</v>
+      </c>
+      <c r="P322" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R322" t="s">
+        <v>92</v>
+      </c>
+      <c r="T322">
+        <v>140</v>
+      </c>
+      <c r="U322" t="s">
+        <v>76</v>
+      </c>
+      <c r="W322" t="s">
+        <v>80</v>
+      </c>
+      <c r="X322">
+        <v>160</v>
+      </c>
+      <c r="Y322">
+        <v>3852</v>
+      </c>
+      <c r="Z322">
+        <v>0</v>
+      </c>
+      <c r="AA322">
+        <v>0</v>
+      </c>
+      <c r="AD322" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>18</v>
+      </c>
+      <c r="B323">
+        <v>1</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D323" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G323" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H323" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I323" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J323" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M323" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N323" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O323" t="s">
+        <v>27</v>
+      </c>
+      <c r="P323" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R323" t="s">
+        <v>92</v>
+      </c>
+      <c r="T323">
+        <v>200</v>
+      </c>
+      <c r="U323" t="s">
+        <v>1614</v>
+      </c>
+      <c r="Y323">
+        <v>1728</v>
+      </c>
+      <c r="Z323">
+        <v>1</v>
+      </c>
+      <c r="AA323">
+        <v>0</v>
+      </c>
+      <c r="AC323" t="s">
+        <v>1693</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>18</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D324" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G324" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I324" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J324" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M324" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N324" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O324" t="s">
+        <v>27</v>
+      </c>
+      <c r="P324" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R324" t="s">
+        <v>92</v>
+      </c>
+      <c r="T324">
+        <v>135</v>
+      </c>
+      <c r="U324" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y324">
+        <v>3852</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+      <c r="AD324" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>18</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G325" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I325" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J325" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N325" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O325" t="s">
+        <v>27</v>
+      </c>
+      <c r="P325" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R325" t="s">
+        <v>92</v>
+      </c>
+      <c r="T325">
+        <v>161</v>
+      </c>
+      <c r="U325" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y325">
+        <v>3852</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
+      </c>
+      <c r="AD325" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>18</v>
+      </c>
+      <c r="B326">
+        <v>1</v>
+      </c>
+      <c r="C326" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D326" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G326" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H326" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I326" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J326" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M326" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N326" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O326" t="s">
+        <v>27</v>
+      </c>
+      <c r="P326" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R326" t="s">
+        <v>92</v>
+      </c>
+      <c r="T326">
+        <v>228</v>
+      </c>
+      <c r="U326" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y326">
+        <v>1728</v>
+      </c>
+      <c r="Z326">
+        <v>0</v>
+      </c>
+      <c r="AA326">
+        <v>0</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>18</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G327" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I327" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J327" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M327" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N327" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O327" t="s">
+        <v>27</v>
+      </c>
+      <c r="P327" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R327" t="s">
+        <v>96</v>
+      </c>
+      <c r="T327">
+        <v>40</v>
+      </c>
+      <c r="W327" t="s">
+        <v>80</v>
+      </c>
+      <c r="X327">
+        <v>50</v>
+      </c>
+      <c r="Z327">
+        <v>0</v>
+      </c>
+      <c r="AA327">
+        <v>0</v>
+      </c>
+      <c r="AD327" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>18</v>
+      </c>
+      <c r="B328">
+        <v>1</v>
+      </c>
+      <c r="C328" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G328" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I328" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J328" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M328" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N328" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O328" t="s">
+        <v>29</v>
+      </c>
+      <c r="P328" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>83</v>
+      </c>
+      <c r="R328" t="s">
+        <v>101</v>
+      </c>
+      <c r="T328">
+        <v>16.5</v>
+      </c>
+      <c r="U328" t="s">
+        <v>78</v>
+      </c>
+      <c r="V328">
+        <v>13</v>
+      </c>
+      <c r="W328" t="s">
+        <v>80</v>
+      </c>
+      <c r="X328">
+        <v>23</v>
+      </c>
+      <c r="Y328">
+        <v>4</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
+        <v>0</v>
+      </c>
+      <c r="AD328" t="s">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
@@ -25932,7 +26987,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I132:I154 I221:I229 I242:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I132:I154 I221:I229 I242:I319 I329:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P193 P195:P197 P199:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
@@ -25967,7 +27022,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I155:I220 I62:I131</xm:sqref>
+          <xm:sqref>I2:I53 I155:I220 I62:I131 I320:I328</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1AC86F-611B-7A41-A90B-64DDA2C92FAC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFE93E2-7F7D-3C4F-9AEF-633700D5D456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -86,12 +86,45 @@
         </r>
       </text>
     </comment>
+    <comment ref="I358" authorId="0" shapeId="0" xr:uid="{4222DB6F-05D7-3B48-BDCD-73962DA40541}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Note this province is listed incorrectly in the table as east india (error occurs on the Wikipedia page)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6413" uniqueCount="1694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="1701">
   <si>
     <t>observation_id</t>
   </si>
@@ -5196,6 +5229,27 @@
   </si>
   <si>
     <t xml:space="preserve">Dubious as few females sampled, and smallest credible mature was 228cm </t>
+  </si>
+  <si>
+    <t>30-110</t>
+  </si>
+  <si>
+    <t>Temperate samples</t>
+  </si>
+  <si>
+    <t>Tropic samples</t>
+  </si>
+  <si>
+    <t>0-25</t>
+  </si>
+  <si>
+    <t>deBruyn2005</t>
+  </si>
+  <si>
+    <t>10.2989/18142320509504112</t>
+  </si>
+  <si>
+    <t>1978-1998</t>
   </si>
 </sst>
 </file>
@@ -6282,11 +6336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE328"/>
+  <dimension ref="A1:AE358"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H338" sqref="H338"/>
+      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I367" sqref="I367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26462,7 +26516,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>18</v>
       </c>
@@ -26524,7 +26578,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>18</v>
       </c>
@@ -26592,7 +26646,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>18</v>
       </c>
@@ -26657,7 +26711,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>18</v>
       </c>
@@ -26719,7 +26773,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>18</v>
       </c>
@@ -26781,7 +26835,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>18</v>
       </c>
@@ -26843,7 +26897,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>18</v>
       </c>
@@ -26905,7 +26959,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>18</v>
       </c>
@@ -26974,6 +27028,2052 @@
       </c>
       <c r="AD328" t="s">
         <v>1616</v>
+      </c>
+    </row>
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>18</v>
+      </c>
+      <c r="B329">
+        <v>1</v>
+      </c>
+      <c r="C329" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G329" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I329" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J329" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N329" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O329" t="s">
+        <v>139</v>
+      </c>
+      <c r="P329" t="s">
+        <v>134</v>
+      </c>
+      <c r="S329" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T329">
+        <v>1.28</v>
+      </c>
+      <c r="Y329">
+        <v>454</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>18</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D330" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G330" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I330" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J330" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N330" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O330" t="s">
+        <v>139</v>
+      </c>
+      <c r="P330" t="s">
+        <v>135</v>
+      </c>
+      <c r="S330" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T330">
+        <v>1.3</v>
+      </c>
+      <c r="Y330">
+        <v>454</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>18</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D331" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G331" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I331" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J331" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N331" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O331" t="s">
+        <v>139</v>
+      </c>
+      <c r="P331" t="s">
+        <v>134</v>
+      </c>
+      <c r="S331" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T331" s="13">
+        <v>3.9899999999999996E-3</v>
+      </c>
+      <c r="Y331">
+        <v>252</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>18</v>
+      </c>
+      <c r="B332">
+        <v>1</v>
+      </c>
+      <c r="C332" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D332" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G332" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I332" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J332" t="s">
+        <v>1583</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1584</v>
+      </c>
+      <c r="N332" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O332" t="s">
+        <v>139</v>
+      </c>
+      <c r="P332" t="s">
+        <v>135</v>
+      </c>
+      <c r="S332" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T332">
+        <v>3.03</v>
+      </c>
+      <c r="Y332">
+        <v>252</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>19</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D333" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G333" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H333" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I333" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J333" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M333" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N333" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O333" t="s">
+        <v>27</v>
+      </c>
+      <c r="P333" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R333" t="s">
+        <v>92</v>
+      </c>
+      <c r="T333">
+        <v>289.8</v>
+      </c>
+      <c r="U333" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y333">
+        <v>31</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD333" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>19</v>
+      </c>
+      <c r="B334">
+        <v>1</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G334" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I334" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J334" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N334" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O334" t="s">
+        <v>27</v>
+      </c>
+      <c r="P334" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R334" t="s">
+        <v>92</v>
+      </c>
+      <c r="T334">
+        <v>218.2</v>
+      </c>
+      <c r="U334" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y334">
+        <v>233</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE334" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>19</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D335" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G335" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H335" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I335" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J335" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M335" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N335" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O335" t="s">
+        <v>27</v>
+      </c>
+      <c r="P335" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R335" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S335" t="s">
+        <v>107</v>
+      </c>
+      <c r="T335">
+        <v>204.3</v>
+      </c>
+      <c r="U335" t="s">
+        <v>78</v>
+      </c>
+      <c r="V335">
+        <v>193.4</v>
+      </c>
+      <c r="W335" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X335">
+        <v>218.2</v>
+      </c>
+      <c r="Y335">
+        <v>31</v>
+      </c>
+      <c r="Z335">
+        <v>0</v>
+      </c>
+      <c r="AA335">
+        <v>0</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD335" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE335" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>19</v>
+      </c>
+      <c r="B336">
+        <v>1</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D336" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G336" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I336" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J336" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M336" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N336" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O336" t="s">
+        <v>27</v>
+      </c>
+      <c r="P336" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R336" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S336" t="s">
+        <v>107</v>
+      </c>
+      <c r="T336">
+        <v>147.1</v>
+      </c>
+      <c r="U336" t="s">
+        <v>78</v>
+      </c>
+      <c r="V336">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="W336" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X336">
+        <v>151.9</v>
+      </c>
+      <c r="Y336">
+        <v>233</v>
+      </c>
+      <c r="Z336">
+        <v>0</v>
+      </c>
+      <c r="AA336">
+        <v>0</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD336" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE336" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>19</v>
+      </c>
+      <c r="B337">
+        <v>1</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D337" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G337" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I337" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J337" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M337" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N337" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O337" t="s">
+        <v>27</v>
+      </c>
+      <c r="P337" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>1423</v>
+      </c>
+      <c r="R337" t="s">
+        <v>94</v>
+      </c>
+      <c r="S337" t="s">
+        <v>106</v>
+      </c>
+      <c r="T337">
+        <v>46.5</v>
+      </c>
+      <c r="U337" t="s">
+        <v>76</v>
+      </c>
+      <c r="W337" t="s">
+        <v>80</v>
+      </c>
+      <c r="X337">
+        <v>56.3</v>
+      </c>
+      <c r="Y337">
+        <v>55</v>
+      </c>
+      <c r="Z337">
+        <v>0</v>
+      </c>
+      <c r="AA337">
+        <v>0</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE337" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>19</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D338" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J338" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M338" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N338" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O338" t="s">
+        <v>139</v>
+      </c>
+      <c r="P338" t="s">
+        <v>134</v>
+      </c>
+      <c r="S338" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T338">
+        <v>1.538</v>
+      </c>
+      <c r="Y338">
+        <v>372</v>
+      </c>
+      <c r="Z338">
+        <v>0</v>
+      </c>
+      <c r="AA338">
+        <v>0</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>1627</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>19</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D339" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G339" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H339" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I339" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J339" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M339" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N339" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O339" t="s">
+        <v>139</v>
+      </c>
+      <c r="P339" t="s">
+        <v>135</v>
+      </c>
+      <c r="S339" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T339">
+        <v>1.3</v>
+      </c>
+      <c r="Y339">
+        <v>372</v>
+      </c>
+      <c r="Z339">
+        <v>0</v>
+      </c>
+      <c r="AA339">
+        <v>0</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>1628</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE339" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>19</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D340" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G340" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H340" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I340" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J340" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M340" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N340" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O340" t="s">
+        <v>139</v>
+      </c>
+      <c r="P340" t="s">
+        <v>134</v>
+      </c>
+      <c r="S340" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T340">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="Y340">
+        <v>250</v>
+      </c>
+      <c r="Z340">
+        <v>0</v>
+      </c>
+      <c r="AA340">
+        <v>0</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>19</v>
+      </c>
+      <c r="B341">
+        <v>1</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D341" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H341" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J341" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M341" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N341" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O341" t="s">
+        <v>139</v>
+      </c>
+      <c r="P341" t="s">
+        <v>135</v>
+      </c>
+      <c r="S341" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T341">
+        <v>1.43</v>
+      </c>
+      <c r="Y341">
+        <v>250</v>
+      </c>
+      <c r="Z341">
+        <v>0</v>
+      </c>
+      <c r="AA341">
+        <v>0</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE341" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>19</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G342" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J342" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M342" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N342" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O342" t="s">
+        <v>28</v>
+      </c>
+      <c r="P342" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>81</v>
+      </c>
+      <c r="T342">
+        <v>21</v>
+      </c>
+      <c r="U342" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y342">
+        <v>27</v>
+      </c>
+      <c r="Z342">
+        <v>0</v>
+      </c>
+      <c r="AA342">
+        <v>0</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD342" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE342" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>19</v>
+      </c>
+      <c r="B343">
+        <v>1</v>
+      </c>
+      <c r="C343" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G343" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I343" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J343" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M343" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N343" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O343" t="s">
+        <v>28</v>
+      </c>
+      <c r="P343" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>81</v>
+      </c>
+      <c r="T343">
+        <v>12</v>
+      </c>
+      <c r="U343" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y343">
+        <v>160</v>
+      </c>
+      <c r="Z343">
+        <v>0</v>
+      </c>
+      <c r="AA343">
+        <v>0</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>19</v>
+      </c>
+      <c r="B344">
+        <v>1</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H344" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I344" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J344" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M344" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N344" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O344" t="s">
+        <v>28</v>
+      </c>
+      <c r="P344" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>81</v>
+      </c>
+      <c r="R344" t="s">
+        <v>101</v>
+      </c>
+      <c r="S344" t="s">
+        <v>107</v>
+      </c>
+      <c r="T344">
+        <v>8.9</v>
+      </c>
+      <c r="U344" t="s">
+        <v>78</v>
+      </c>
+      <c r="V344">
+        <v>7.5</v>
+      </c>
+      <c r="W344" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X344">
+        <v>10.8</v>
+      </c>
+      <c r="Y344">
+        <v>27</v>
+      </c>
+      <c r="Z344">
+        <v>0</v>
+      </c>
+      <c r="AA344">
+        <v>0</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE344" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>19</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G345" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I345" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J345" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M345" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N345" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O345" t="s">
+        <v>28</v>
+      </c>
+      <c r="P345" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>81</v>
+      </c>
+      <c r="R345" t="s">
+        <v>101</v>
+      </c>
+      <c r="S345" t="s">
+        <v>107</v>
+      </c>
+      <c r="T345">
+        <v>5.7</v>
+      </c>
+      <c r="U345" t="s">
+        <v>78</v>
+      </c>
+      <c r="V345">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="W345" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X345">
+        <v>6.2</v>
+      </c>
+      <c r="Y345">
+        <v>160</v>
+      </c>
+      <c r="Z345">
+        <v>0</v>
+      </c>
+      <c r="AA345">
+        <v>0</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE345" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>19</v>
+      </c>
+      <c r="B346">
+        <v>1</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I346" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J346" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M346" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N346" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O346" t="s">
+        <v>30</v>
+      </c>
+      <c r="P346" t="s">
+        <v>69</v>
+      </c>
+      <c r="T346">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="Z346">
+        <v>0</v>
+      </c>
+      <c r="AA346">
+        <v>0</v>
+      </c>
+      <c r="AD346" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE346" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>19</v>
+      </c>
+      <c r="B347">
+        <v>1</v>
+      </c>
+      <c r="C347" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G347" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I347" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J347" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M347" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N347" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O347" t="s">
+        <v>30</v>
+      </c>
+      <c r="P347" t="s">
+        <v>71</v>
+      </c>
+      <c r="T347">
+        <v>46</v>
+      </c>
+      <c r="Z347">
+        <v>0</v>
+      </c>
+      <c r="AA347">
+        <v>0</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE347" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>19</v>
+      </c>
+      <c r="B348">
+        <v>1</v>
+      </c>
+      <c r="C348" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G348" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J348" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M348" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N348" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O348" t="s">
+        <v>30</v>
+      </c>
+      <c r="P348" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R348" t="s">
+        <v>124</v>
+      </c>
+      <c r="S348" t="s">
+        <v>113</v>
+      </c>
+      <c r="T348">
+        <v>330.5</v>
+      </c>
+      <c r="U348" t="s">
+        <v>78</v>
+      </c>
+      <c r="V348">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="W348" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X348">
+        <v>393.4</v>
+      </c>
+      <c r="Y348">
+        <v>392</v>
+      </c>
+      <c r="Z348">
+        <v>0</v>
+      </c>
+      <c r="AA348">
+        <v>0</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE348" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>19</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G349" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H349" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I349" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J349" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M349" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N349" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O349" t="s">
+        <v>30</v>
+      </c>
+      <c r="P349" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R349" t="s">
+        <v>124</v>
+      </c>
+      <c r="S349" t="s">
+        <v>113</v>
+      </c>
+      <c r="T349">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="U349" t="s">
+        <v>78</v>
+      </c>
+      <c r="V349">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="W349" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X349">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Y349">
+        <v>392</v>
+      </c>
+      <c r="Z349">
+        <v>0</v>
+      </c>
+      <c r="AA349">
+        <v>0</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE349" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>19</v>
+      </c>
+      <c r="B350">
+        <v>1</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D350" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G350" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J350" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M350" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N350" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O350" t="s">
+        <v>30</v>
+      </c>
+      <c r="P350" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R350" t="s">
+        <v>124</v>
+      </c>
+      <c r="S350" t="s">
+        <v>113</v>
+      </c>
+      <c r="T350">
+        <v>582</v>
+      </c>
+      <c r="U350" t="s">
+        <v>78</v>
+      </c>
+      <c r="V350">
+        <v>572</v>
+      </c>
+      <c r="W350" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X350">
+        <v>593</v>
+      </c>
+      <c r="Y350">
+        <v>392</v>
+      </c>
+      <c r="Z350">
+        <v>0</v>
+      </c>
+      <c r="AA350">
+        <v>0</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE350" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>19</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G351" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H351" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I351" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J351" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M351" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N351" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O351" t="s">
+        <v>30</v>
+      </c>
+      <c r="P351" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R351" t="s">
+        <v>124</v>
+      </c>
+      <c r="S351" t="s">
+        <v>113</v>
+      </c>
+      <c r="T351">
+        <v>10.413</v>
+      </c>
+      <c r="Y351">
+        <v>392</v>
+      </c>
+      <c r="Z351">
+        <v>0</v>
+      </c>
+      <c r="AA351">
+        <v>0</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE351" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>19</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G352" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I352" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J352" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M352" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N352" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O352" t="s">
+        <v>30</v>
+      </c>
+      <c r="P352" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R352" t="s">
+        <v>124</v>
+      </c>
+      <c r="S352" t="s">
+        <v>113</v>
+      </c>
+      <c r="T352">
+        <v>319.89999999999998</v>
+      </c>
+      <c r="U352" t="s">
+        <v>78</v>
+      </c>
+      <c r="V352">
+        <v>261.60000000000002</v>
+      </c>
+      <c r="W352" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X352">
+        <v>404.2</v>
+      </c>
+      <c r="Y352">
+        <v>30</v>
+      </c>
+      <c r="Z352">
+        <v>0</v>
+      </c>
+      <c r="AA352">
+        <v>0</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE352" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>19</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G353" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I353" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J353" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M353" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N353" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O353" t="s">
+        <v>30</v>
+      </c>
+      <c r="P353" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R353" t="s">
+        <v>124</v>
+      </c>
+      <c r="S353" t="s">
+        <v>113</v>
+      </c>
+      <c r="T353">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="U353" t="s">
+        <v>78</v>
+      </c>
+      <c r="V353">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="W353" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X353">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="Y353">
+        <v>30</v>
+      </c>
+      <c r="Z353">
+        <v>0</v>
+      </c>
+      <c r="AA353">
+        <v>0</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE353" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>19</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G354" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H354" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I354" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J354" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M354" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N354" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O354" t="s">
+        <v>30</v>
+      </c>
+      <c r="P354" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R354" t="s">
+        <v>124</v>
+      </c>
+      <c r="S354" t="s">
+        <v>113</v>
+      </c>
+      <c r="T354">
+        <v>56.5</v>
+      </c>
+      <c r="U354" t="s">
+        <v>78</v>
+      </c>
+      <c r="V354">
+        <v>55.3</v>
+      </c>
+      <c r="W354" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X354">
+        <v>57.9</v>
+      </c>
+      <c r="Y354">
+        <v>30</v>
+      </c>
+      <c r="Z354">
+        <v>0</v>
+      </c>
+      <c r="AA354">
+        <v>0</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>1695</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE354" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>19</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H355" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I355" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J355" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M355" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N355" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O355" t="s">
+        <v>30</v>
+      </c>
+      <c r="P355" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R355" t="s">
+        <v>124</v>
+      </c>
+      <c r="S355" t="s">
+        <v>113</v>
+      </c>
+      <c r="T355">
+        <v>211.9</v>
+      </c>
+      <c r="U355" t="s">
+        <v>78</v>
+      </c>
+      <c r="V355">
+        <v>194.3</v>
+      </c>
+      <c r="W355" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X355">
+        <v>230.4</v>
+      </c>
+      <c r="Y355">
+        <v>200</v>
+      </c>
+      <c r="Z355">
+        <v>0</v>
+      </c>
+      <c r="AA355">
+        <v>0</v>
+      </c>
+      <c r="AC355" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD355" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE355" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>19</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G356" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H356" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I356" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J356" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M356" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N356" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O356" t="s">
+        <v>30</v>
+      </c>
+      <c r="P356" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R356" t="s">
+        <v>124</v>
+      </c>
+      <c r="S356" t="s">
+        <v>113</v>
+      </c>
+      <c r="T356">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="U356" t="s">
+        <v>78</v>
+      </c>
+      <c r="V356">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="W356" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X356">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Y356">
+        <v>200</v>
+      </c>
+      <c r="Z356">
+        <v>0</v>
+      </c>
+      <c r="AA356">
+        <v>0</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>19</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357" s="16" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G357" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H357" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I357" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J357" t="s">
+        <v>1494</v>
+      </c>
+      <c r="M357" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N357" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O357" t="s">
+        <v>30</v>
+      </c>
+      <c r="P357" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>1565</v>
+      </c>
+      <c r="R357" t="s">
+        <v>124</v>
+      </c>
+      <c r="S357" t="s">
+        <v>113</v>
+      </c>
+      <c r="T357">
+        <v>56.5</v>
+      </c>
+      <c r="U357" t="s">
+        <v>78</v>
+      </c>
+      <c r="V357">
+        <v>55.3</v>
+      </c>
+      <c r="W357" t="s">
+        <v>1580</v>
+      </c>
+      <c r="X357">
+        <v>57.9</v>
+      </c>
+      <c r="Y357">
+        <v>200</v>
+      </c>
+      <c r="Z357">
+        <v>0</v>
+      </c>
+      <c r="AA357">
+        <v>0</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>1696</v>
+      </c>
+      <c r="AD357" t="s">
+        <v>1616</v>
+      </c>
+      <c r="AE357" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>20</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G358" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I358" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J358" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M358" t="s">
+        <v>1700</v>
       </c>
     </row>
   </sheetData>
@@ -26987,11 +29087,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U4 U2 U6:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>value_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I132:I154 I221:I229 I242:I319 I329:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I57:I61 I132:I154 I221:I229 I242:I319 I358:I1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>$J$2:$J$47</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P193 P195:P197 P199:P1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>clean.trait.name</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W270 W272:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>precision_name</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>Group</formula1>
@@ -27008,9 +29111,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Class</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W270 W272:W1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>precision_name</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -27022,7 +29122,7 @@
           <x14:formula1>
             <xm:f>'/Users/cmull/Downloads/[SharkTraits-Template-avh.xlsx]Values'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I53 I155:I220 I62:I131 I320:I328</xm:sqref>
+          <xm:sqref>I2:I53 I155:I220 I62:I131 I320:I357</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{58E169DE-C4C3-824B-AE5A-204A4FBB0321}">
           <x14:formula1>

--- a/SharkTraits-Template-avh.xlsx
+++ b/SharkTraits-Template-avh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avh/Google Drive/projects/shark-traits/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alharry/Google Drive/projects/shark-traits/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFE93E2-7F7D-3C4F-9AEF-633700D5D456}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4512C7D-9E19-304F-A824-5B70F5AFC9FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="14580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Entry" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
     <definedName name="trait_name">INDEX(Traits[],0,MATCH('Data Entry'!XFD1,Traits[#Headers],0))</definedName>
     <definedName name="value_type">Value[]</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6874" uniqueCount="1701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7102" uniqueCount="1701">
   <si>
     <t>observation_id</t>
   </si>
@@ -6336,11 +6336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE358"/>
+  <dimension ref="A1:AE374"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="111" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A342" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I367" sqref="I367"/>
+      <pane ySplit="1" topLeftCell="A353" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26509,9 +26509,6 @@
       <c r="Z320">
         <v>0</v>
       </c>
-      <c r="AA320">
-        <v>0</v>
-      </c>
       <c r="AD320" t="s">
         <v>1616</v>
       </c>
@@ -26571,9 +26568,6 @@
       <c r="Z321">
         <v>0</v>
       </c>
-      <c r="AA321">
-        <v>0</v>
-      </c>
       <c r="AD321" t="s">
         <v>1616</v>
       </c>
@@ -26639,9 +26633,6 @@
       <c r="Z322">
         <v>0</v>
       </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
       <c r="AD322" t="s">
         <v>1616</v>
       </c>
@@ -26701,9 +26692,6 @@
       <c r="Z323">
         <v>1</v>
       </c>
-      <c r="AA323">
-        <v>0</v>
-      </c>
       <c r="AC323" t="s">
         <v>1693</v>
       </c>
@@ -26766,9 +26754,6 @@
       <c r="Z324">
         <v>0</v>
       </c>
-      <c r="AA324">
-        <v>0</v>
-      </c>
       <c r="AD324" t="s">
         <v>1616</v>
       </c>
@@ -26828,9 +26813,6 @@
       <c r="Z325">
         <v>0</v>
       </c>
-      <c r="AA325">
-        <v>0</v>
-      </c>
       <c r="AD325" t="s">
         <v>1616</v>
       </c>
@@ -26890,9 +26872,6 @@
       <c r="Z326">
         <v>0</v>
       </c>
-      <c r="AA326">
-        <v>0</v>
-      </c>
       <c r="AD326" t="s">
         <v>1616</v>
       </c>
@@ -26952,9 +26931,6 @@
       <c r="Z327">
         <v>0</v>
       </c>
-      <c r="AA327">
-        <v>0</v>
-      </c>
       <c r="AD327" t="s">
         <v>1616</v>
       </c>
@@ -27023,9 +26999,6 @@
       <c r="Z328">
         <v>0</v>
       </c>
-      <c r="AA328">
-        <v>0</v>
-      </c>
       <c r="AD328" t="s">
         <v>1616</v>
       </c>
@@ -27079,9 +27052,6 @@
       <c r="Z329">
         <v>0</v>
       </c>
-      <c r="AA329">
-        <v>0</v>
-      </c>
       <c r="AC329" t="s">
         <v>1627</v>
       </c>
@@ -27135,9 +27105,6 @@
       <c r="Z330">
         <v>0</v>
       </c>
-      <c r="AA330">
-        <v>0</v>
-      </c>
       <c r="AC330" t="s">
         <v>1628</v>
       </c>
@@ -27191,9 +27158,6 @@
       <c r="Z331">
         <v>0</v>
       </c>
-      <c r="AA331">
-        <v>0</v>
-      </c>
       <c r="AC331" t="s">
         <v>1597</v>
       </c>
@@ -27247,9 +27211,6 @@
       <c r="Z332">
         <v>0</v>
       </c>
-      <c r="AA332">
-        <v>0</v>
-      </c>
       <c r="AC332" t="s">
         <v>1597</v>
       </c>
@@ -27309,9 +27270,6 @@
       <c r="Z333">
         <v>0</v>
       </c>
-      <c r="AA333">
-        <v>0</v>
-      </c>
       <c r="AC333" t="s">
         <v>1695</v>
       </c>
@@ -27377,9 +27335,6 @@
       <c r="Z334">
         <v>0</v>
       </c>
-      <c r="AA334">
-        <v>0</v>
-      </c>
       <c r="AC334" t="s">
         <v>1696</v>
       </c>
@@ -27457,9 +27412,6 @@
       <c r="Z335">
         <v>0</v>
       </c>
-      <c r="AA335">
-        <v>0</v>
-      </c>
       <c r="AC335" t="s">
         <v>1695</v>
       </c>
@@ -27537,9 +27489,6 @@
       <c r="Z336">
         <v>0</v>
       </c>
-      <c r="AA336">
-        <v>0</v>
-      </c>
       <c r="AC336" t="s">
         <v>1696</v>
       </c>
@@ -27614,9 +27563,6 @@
       <c r="Z337">
         <v>0</v>
       </c>
-      <c r="AA337">
-        <v>0</v>
-      </c>
       <c r="AC337" t="s">
         <v>1696</v>
       </c>
@@ -27676,9 +27622,6 @@
       <c r="Z338">
         <v>0</v>
       </c>
-      <c r="AA338">
-        <v>0</v>
-      </c>
       <c r="AC338" t="s">
         <v>1627</v>
       </c>
@@ -27738,9 +27681,6 @@
       <c r="Z339">
         <v>0</v>
       </c>
-      <c r="AA339">
-        <v>0</v>
-      </c>
       <c r="AC339" t="s">
         <v>1628</v>
       </c>
@@ -27800,9 +27740,6 @@
       <c r="Z340">
         <v>0</v>
       </c>
-      <c r="AA340">
-        <v>0</v>
-      </c>
       <c r="AC340" t="s">
         <v>1656</v>
       </c>
@@ -27862,9 +27799,6 @@
       <c r="Z341">
         <v>0</v>
       </c>
-      <c r="AA341">
-        <v>0</v>
-      </c>
       <c r="AC341" t="s">
         <v>1657</v>
       </c>
@@ -29074,6 +29008,962 @@
       </c>
       <c r="M358" t="s">
         <v>1700</v>
+      </c>
+      <c r="N358" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O358" t="s">
+        <v>27</v>
+      </c>
+      <c r="P358" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R358" t="s">
+        <v>92</v>
+      </c>
+      <c r="S358" t="s">
+        <v>106</v>
+      </c>
+      <c r="T358">
+        <v>243.1</v>
+      </c>
+      <c r="U358" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y358">
+        <v>353</v>
+      </c>
+      <c r="Z358">
+        <v>0</v>
+      </c>
+      <c r="AD358" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>20</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G359" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H359" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I359" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J359" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M359" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N359" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O359" t="s">
+        <v>27</v>
+      </c>
+      <c r="P359" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R359" t="s">
+        <v>92</v>
+      </c>
+      <c r="S359" t="s">
+        <v>106</v>
+      </c>
+      <c r="T359">
+        <v>230.1</v>
+      </c>
+      <c r="U359" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y359">
+        <v>1268</v>
+      </c>
+      <c r="Z359">
+        <v>0</v>
+      </c>
+      <c r="AD359" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>20</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D360" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G360" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H360" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I360" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J360" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M360" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N360" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O360" t="s">
+        <v>27</v>
+      </c>
+      <c r="P360" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R360" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S360" t="s">
+        <v>107</v>
+      </c>
+      <c r="T360">
+        <v>183.12</v>
+      </c>
+      <c r="U360" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y360">
+        <v>479</v>
+      </c>
+      <c r="Z360">
+        <v>0</v>
+      </c>
+      <c r="AD360" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>20</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D361" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G361" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I361" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J361" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M361" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N361" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O361" t="s">
+        <v>27</v>
+      </c>
+      <c r="P361" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R361" t="s">
+        <v>1435</v>
+      </c>
+      <c r="S361" t="s">
+        <v>107</v>
+      </c>
+      <c r="T361">
+        <v>161.5</v>
+      </c>
+      <c r="U361" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y361">
+        <v>1539</v>
+      </c>
+      <c r="Z361">
+        <v>0</v>
+      </c>
+      <c r="AD361" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>20</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D362" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G362" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I362" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J362" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M362" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N362" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O362" t="s">
+        <v>27</v>
+      </c>
+      <c r="P362" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R362" t="s">
+        <v>95</v>
+      </c>
+      <c r="S362" t="s">
+        <v>106</v>
+      </c>
+      <c r="T362">
+        <v>30.4</v>
+      </c>
+      <c r="U362" t="s">
+        <v>76</v>
+      </c>
+      <c r="W362" t="s">
+        <v>80</v>
+      </c>
+      <c r="X362">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="Y362">
+        <v>11</v>
+      </c>
+      <c r="Z362">
+        <v>0</v>
+      </c>
+      <c r="AD362" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>20</v>
+      </c>
+      <c r="B363">
+        <v>1</v>
+      </c>
+      <c r="C363" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D363" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G363" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H363" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I363" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J363" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M363" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N363" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O363" t="s">
+        <v>27</v>
+      </c>
+      <c r="P363" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R363" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T363">
+        <v>136</v>
+      </c>
+      <c r="U363" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y363">
+        <v>1539</v>
+      </c>
+      <c r="Z363">
+        <v>0</v>
+      </c>
+      <c r="AD363" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>20</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D364" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G364" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H364" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I364" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J364" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M364" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N364" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O364" t="s">
+        <v>27</v>
+      </c>
+      <c r="P364" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R364" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T364">
+        <v>206</v>
+      </c>
+      <c r="U364" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y364">
+        <v>1539</v>
+      </c>
+      <c r="Z364">
+        <v>0</v>
+      </c>
+      <c r="AD364" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>20</v>
+      </c>
+      <c r="B365">
+        <v>1</v>
+      </c>
+      <c r="C365" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D365" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G365" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H365" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I365" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J365" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M365" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N365" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O365" t="s">
+        <v>27</v>
+      </c>
+      <c r="P365" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R365" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T365">
+        <v>155.19999999999999</v>
+      </c>
+      <c r="U365" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y365">
+        <v>479</v>
+      </c>
+      <c r="Z365">
+        <v>0</v>
+      </c>
+      <c r="AD365" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>20</v>
+      </c>
+      <c r="B366">
+        <v>1</v>
+      </c>
+      <c r="C366" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G366" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H366" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I366" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J366" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M366" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N366" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O366" t="s">
+        <v>27</v>
+      </c>
+      <c r="P366" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>1675</v>
+      </c>
+      <c r="R366" t="s">
+        <v>1435</v>
+      </c>
+      <c r="T366">
+        <v>192</v>
+      </c>
+      <c r="U366" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y366">
+        <v>479</v>
+      </c>
+      <c r="Z366">
+        <v>0</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>20</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G367" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H367" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I367" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M367" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N367" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O367" t="s">
+        <v>139</v>
+      </c>
+      <c r="P367" t="s">
+        <v>134</v>
+      </c>
+      <c r="S367" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T367">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="Z367">
+        <v>0</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>20</v>
+      </c>
+      <c r="B368">
+        <v>1</v>
+      </c>
+      <c r="C368" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G368" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I368" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M368" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N368" t="s">
+        <v>1440</v>
+      </c>
+      <c r="O368" t="s">
+        <v>139</v>
+      </c>
+      <c r="P368" t="s">
+        <v>135</v>
+      </c>
+      <c r="S368" t="s">
+        <v>1573</v>
+      </c>
+      <c r="T368">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="Z368">
+        <v>0</v>
+      </c>
+      <c r="AC368" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AD368" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>20</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D369" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G369" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I369" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J369" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M369" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N369" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O369" t="s">
+        <v>139</v>
+      </c>
+      <c r="P369" t="s">
+        <v>134</v>
+      </c>
+      <c r="S369" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T369" s="13">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+      <c r="AD369" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>20</v>
+      </c>
+      <c r="B370">
+        <v>1</v>
+      </c>
+      <c r="C370" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D370" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G370" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H370" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I370" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J370" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M370" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N370" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O370" t="s">
+        <v>139</v>
+      </c>
+      <c r="P370" t="s">
+        <v>135</v>
+      </c>
+      <c r="S370" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T370">
+        <v>3.1</v>
+      </c>
+      <c r="Z370">
+        <v>0</v>
+      </c>
+      <c r="AD370" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>20</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D371" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G371" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H371" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I371" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M371" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N371" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O371" t="s">
+        <v>139</v>
+      </c>
+      <c r="P371" t="s">
+        <v>134</v>
+      </c>
+      <c r="S371" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T371" s="13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="Z371">
+        <v>0</v>
+      </c>
+      <c r="AD371" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>20</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D372" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G372" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I372" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M372" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N372" t="s">
+        <v>1438</v>
+      </c>
+      <c r="O372" t="s">
+        <v>139</v>
+      </c>
+      <c r="P372" t="s">
+        <v>135</v>
+      </c>
+      <c r="S372" t="s">
+        <v>1574</v>
+      </c>
+      <c r="T372">
+        <v>2.98</v>
+      </c>
+      <c r="Z372">
+        <v>0</v>
+      </c>
+      <c r="AD372" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>20</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D373" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G373" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I373" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J373" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M373" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N373" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O373" t="s">
+        <v>29</v>
+      </c>
+      <c r="P373" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>83</v>
+      </c>
+      <c r="R373" t="s">
+        <v>101</v>
+      </c>
+      <c r="T373" s="15">
+        <v>10</v>
+      </c>
+      <c r="U373" t="s">
+        <v>79</v>
+      </c>
+      <c r="V373">
+        <v>2</v>
+      </c>
+      <c r="W373" t="s">
+        <v>80</v>
+      </c>
+      <c r="X373">
+        <v>19</v>
+      </c>
+      <c r="Y373">
+        <v>11</v>
+      </c>
+      <c r="Z373">
+        <v>0</v>
+      </c>
+      <c r="AD373" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>20</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374" s="16" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D374" t="s">
+        <v>1699</v>
+      </c>
+      <c r="G374" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H374" t="s">
+        <v>1246</v>
+      </c>
+      <c r="I374" t="s">
+        <v>1671</v>
+      </c>
+      <c r="J374" t="s">
+        <v>1672</v>
+      </c>
+      <c r="M374" t="s">
+        <v>1700</v>
+      </c>
+      <c r="N374" t="s">
+        <v>1439</v>
+      </c>
+      <c r="O374" t="s">
+        <v>29</v>
+      </c>
+      <c r="P374" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>83</v>
+      </c>
+      <c r="R374" t="s">
+        <v>101</v>
+      </c>
+      <c r="T374" s="15">
+        <v>41</v>
+      </c>
+      <c r="U374" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y374">
+        <v>2</v>
+      </c>
+      <c r="Z374">
+        <v>0</v>
+      </c>
+      <c r="AD374" t="s">
+        <v>1616</v>
       </c>
     </row>
   </sheetData>
